--- a/CADⅡ半自動計算シート for Excel2010.xlsx
+++ b/CADⅡ半自動計算シート for Excel2010.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazuki\Documents\学校関係\授業関係\2020\CADⅡ\one drive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazuki\Documents\学校関係\授業関係\2020\CADⅡ\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1181BB-9F1B-49AD-8487-D5656ACE367F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F64441-724A-4AA0-93A4-6EE35D122A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-150" windowWidth="28920" windowHeight="15720" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2章" sheetId="25" r:id="rId1"/>
@@ -7641,106 +7641,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7764,80 +7716,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7860,29 +7845,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9121,7 +9121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -10687,74 +10687,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="182" t="s">
         <v>658</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="184" t="s">
         <v>659</v>
       </c>
-      <c r="C1" s="160" t="s">
+      <c r="C1" s="184" t="s">
         <v>660</v>
       </c>
-      <c r="D1" s="150" t="s">
+      <c r="D1" s="178" t="s">
         <v>661</v>
       </c>
-      <c r="F1" s="166" t="s">
+      <c r="F1" s="141" t="s">
         <v>662</v>
       </c>
-      <c r="G1" s="167"/>
-      <c r="H1" s="174" t="s">
+      <c r="G1" s="155"/>
+      <c r="H1" s="158" t="s">
         <v>663</v>
       </c>
-      <c r="I1" s="174" t="s">
+      <c r="I1" s="158" t="s">
         <v>664</v>
       </c>
-      <c r="J1" s="167" t="s">
+      <c r="J1" s="155" t="s">
         <v>665</v>
       </c>
-      <c r="K1" s="167"/>
-      <c r="L1" s="168"/>
-      <c r="N1" s="177" t="s">
+      <c r="K1" s="155"/>
+      <c r="L1" s="142"/>
+      <c r="N1" s="161" t="s">
         <v>666</v>
       </c>
-      <c r="O1" s="180" t="s">
+      <c r="O1" s="145" t="s">
         <v>667</v>
       </c>
-      <c r="P1" s="180" t="s">
+      <c r="P1" s="145" t="s">
         <v>668</v>
       </c>
-      <c r="Q1" s="185" t="s">
+      <c r="Q1" s="148" t="s">
         <v>669</v>
       </c>
-      <c r="S1" s="188" t="s">
+      <c r="S1" s="151" t="s">
         <v>670</v>
       </c>
-      <c r="T1" s="180" t="s">
+      <c r="T1" s="145" t="s">
         <v>671</v>
       </c>
-      <c r="U1" s="180" t="s">
+      <c r="U1" s="145" t="s">
         <v>672</v>
       </c>
-      <c r="V1" s="180" t="s">
+      <c r="V1" s="145" t="s">
         <v>673</v>
       </c>
-      <c r="W1" s="185" t="s">
+      <c r="W1" s="148" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="159"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="151"/>
-      <c r="F2" s="171" t="s">
+      <c r="A2" s="183"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="179"/>
+      <c r="F2" s="139" t="s">
         <v>662</v>
       </c>
-      <c r="G2" s="169" t="s">
+      <c r="G2" s="156" t="s">
         <v>675</v>
       </c>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
       <c r="J2" s="124" t="s">
         <v>676</v>
       </c>
@@ -10764,26 +10764,26 @@
       <c r="L2" s="42" t="s">
         <v>678</v>
       </c>
-      <c r="N2" s="178"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="186"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="186"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="149"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="149"/>
     </row>
     <row r="3" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="139">
+      <c r="A3" s="164">
         <f>B3</f>
         <v>0.1</v>
       </c>
-      <c r="B3" s="141">
+      <c r="B3" s="171">
         <f t="shared" ref="B3" si="0">C3</f>
         <v>0.1</v>
       </c>
-      <c r="C3" s="141">
+      <c r="C3" s="171">
         <f t="shared" ref="C3" si="1">D3</f>
         <v>0.1</v>
       </c>
@@ -10791,37 +10791,37 @@
         <f t="shared" ref="D3:D42" si="2">D43/10</f>
         <v>0.1</v>
       </c>
-      <c r="F3" s="171"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="169" t="s">
+      <c r="F3" s="139"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="156" t="s">
         <v>679</v>
       </c>
-      <c r="K3" s="169"/>
-      <c r="L3" s="170"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="186"/>
-      <c r="S3" s="189"/>
-      <c r="T3" s="181"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="181"/>
-      <c r="W3" s="186"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="140"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="149"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="149"/>
     </row>
     <row r="4" spans="1:45" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="143"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
       <c r="D4" s="108">
         <f t="shared" si="2"/>
         <v>0.10600000000000001</v>
       </c>
-      <c r="F4" s="172"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="125" t="s">
         <v>680</v>
       </c>
@@ -10831,20 +10831,20 @@
       <c r="L4" s="43" t="s">
         <v>682</v>
       </c>
-      <c r="N4" s="179"/>
-      <c r="O4" s="182"/>
-      <c r="P4" s="182"/>
-      <c r="Q4" s="187"/>
-      <c r="S4" s="190"/>
-      <c r="T4" s="182"/>
-      <c r="U4" s="182"/>
-      <c r="V4" s="182"/>
-      <c r="W4" s="187"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="150"/>
+      <c r="S4" s="153"/>
+      <c r="T4" s="147"/>
+      <c r="U4" s="147"/>
+      <c r="V4" s="147"/>
+      <c r="W4" s="150"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A5" s="143"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141">
+      <c r="A5" s="190"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171">
         <f t="shared" ref="C5" si="3">D5</f>
         <v>0.11200000000000002</v>
       </c>
@@ -10905,9 +10905,9 @@
       </c>
     </row>
     <row r="6" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="143"/>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
+      <c r="A6" s="190"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
       <c r="D6" s="108">
         <f t="shared" si="2"/>
         <v>0.11799999999999999</v>
@@ -10969,12 +10969,12 @@
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A7" s="143"/>
-      <c r="B7" s="141">
+      <c r="A7" s="190"/>
+      <c r="B7" s="171">
         <f t="shared" ref="B7" si="7">C7</f>
         <v>0.125</v>
       </c>
-      <c r="C7" s="141">
+      <c r="C7" s="171">
         <f t="shared" ref="C7" si="8">D7</f>
         <v>0.125</v>
       </c>
@@ -11034,10 +11034,10 @@
       <c r="W7" s="116">
         <v>4</v>
       </c>
-      <c r="Y7" s="166" t="s">
+      <c r="Y7" s="141" t="s">
         <v>687</v>
       </c>
-      <c r="Z7" s="168"/>
+      <c r="Z7" s="142"/>
       <c r="AA7" s="84" t="s">
         <v>688</v>
       </c>
@@ -11097,9 +11097,9 @@
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A8" s="143"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
       <c r="D8" s="108">
         <f t="shared" si="2"/>
         <v>0.13200000000000001</v>
@@ -11156,10 +11156,10 @@
       <c r="W8" s="116">
         <v>5</v>
       </c>
-      <c r="Y8" s="171" t="s">
+      <c r="Y8" s="139" t="s">
         <v>708</v>
       </c>
-      <c r="Z8" s="170"/>
+      <c r="Z8" s="140"/>
       <c r="AA8" s="85">
         <v>1.6</v>
       </c>
@@ -11219,9 +11219,9 @@
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A9" s="143"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141">
+      <c r="A9" s="190"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171">
         <f t="shared" ref="C9" si="9">D9</f>
         <v>0.13999999999999999</v>
       </c>
@@ -11281,10 +11281,10 @@
       <c r="W9" s="116">
         <v>5</v>
       </c>
-      <c r="Y9" s="171" t="s">
+      <c r="Y9" s="139" t="s">
         <v>709</v>
       </c>
-      <c r="Z9" s="170"/>
+      <c r="Z9" s="140"/>
       <c r="AA9" s="85">
         <v>0.35</v>
       </c>
@@ -11344,9 +11344,9 @@
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A10" s="143"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
+      <c r="A10" s="190"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
       <c r="D10" s="108">
         <f t="shared" si="2"/>
         <v>0.15</v>
@@ -11403,7 +11403,7 @@
       <c r="W10" s="116">
         <v>5</v>
       </c>
-      <c r="Y10" s="171" t="s">
+      <c r="Y10" s="139" t="s">
         <v>511</v>
       </c>
       <c r="Z10" s="116" t="s">
@@ -11468,15 +11468,15 @@
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A11" s="139">
+      <c r="A11" s="164">
         <f>B11</f>
         <v>0.16</v>
       </c>
-      <c r="B11" s="141">
+      <c r="B11" s="171">
         <f t="shared" ref="B11" si="10">C11</f>
         <v>0.16</v>
       </c>
-      <c r="C11" s="141">
+      <c r="C11" s="171">
         <f t="shared" ref="C11" si="11">D11</f>
         <v>0.16</v>
       </c>
@@ -11535,7 +11535,7 @@
       <c r="W11" s="116">
         <v>7</v>
       </c>
-      <c r="Y11" s="171"/>
+      <c r="Y11" s="139"/>
       <c r="Z11" s="116" t="s">
         <v>712</v>
       </c>
@@ -11598,9 +11598,9 @@
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="140"/>
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
+      <c r="A12" s="189"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="188"/>
       <c r="D12" s="108">
         <f t="shared" si="2"/>
         <v>0.16999999999999998</v>
@@ -11657,7 +11657,7 @@
       <c r="W12" s="116">
         <v>8</v>
       </c>
-      <c r="Y12" s="171" t="s">
+      <c r="Y12" s="139" t="s">
         <v>714</v>
       </c>
       <c r="Z12" s="116" t="str">
@@ -11723,9 +11723,9 @@
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="140"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="141">
+      <c r="A13" s="189"/>
+      <c r="B13" s="188"/>
+      <c r="C13" s="171">
         <f t="shared" ref="C13" si="13">D13</f>
         <v>0.18</v>
       </c>
@@ -11785,7 +11785,7 @@
       <c r="W13" s="116">
         <v>8</v>
       </c>
-      <c r="Y13" s="171"/>
+      <c r="Y13" s="139"/>
       <c r="Z13" s="116" t="str">
         <f>Z11</f>
         <v>最小</v>
@@ -11868,9 +11868,9 @@
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="140"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
+      <c r="A14" s="189"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="188"/>
       <c r="D14" s="108">
         <f t="shared" si="2"/>
         <v>0.19</v>
@@ -11993,12 +11993,12 @@
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="140"/>
-      <c r="B15" s="141">
+      <c r="A15" s="189"/>
+      <c r="B15" s="171">
         <f t="shared" ref="B15" si="15">C15</f>
         <v>0.2</v>
       </c>
-      <c r="C15" s="141">
+      <c r="C15" s="171">
         <f t="shared" ref="C15" si="16">D15</f>
         <v>0.2</v>
       </c>
@@ -12124,9 +12124,9 @@
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="140"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
+      <c r="A16" s="189"/>
+      <c r="B16" s="188"/>
+      <c r="C16" s="188"/>
       <c r="D16" s="108">
         <f t="shared" si="2"/>
         <v>0.21200000000000002</v>
@@ -12183,7 +12183,7 @@
       <c r="W16" s="116">
         <v>9</v>
       </c>
-      <c r="Y16" s="171" t="s">
+      <c r="Y16" s="139" t="s">
         <v>7</v>
       </c>
       <c r="Z16" s="116" t="str">
@@ -12249,9 +12249,9 @@
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A17" s="140"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="141">
+      <c r="A17" s="189"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="171">
         <f t="shared" ref="C17" si="17">D17</f>
         <v>0.22400000000000003</v>
       </c>
@@ -12311,7 +12311,7 @@
       <c r="W17" s="116">
         <v>10</v>
       </c>
-      <c r="Y17" s="171"/>
+      <c r="Y17" s="139"/>
       <c r="Z17" s="116" t="str">
         <f>Z15</f>
         <v>最小</v>
@@ -12375,9 +12375,9 @@
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A18" s="140"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
+      <c r="A18" s="189"/>
+      <c r="B18" s="188"/>
+      <c r="C18" s="188"/>
       <c r="D18" s="108">
         <f t="shared" si="2"/>
         <v>0.23599999999999999</v>
@@ -12499,15 +12499,15 @@
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A19" s="139">
+      <c r="A19" s="164">
         <f>B19</f>
         <v>0.25</v>
       </c>
-      <c r="B19" s="141">
+      <c r="B19" s="171">
         <f t="shared" ref="B19" si="18">C19</f>
         <v>0.25</v>
       </c>
-      <c r="C19" s="141">
+      <c r="C19" s="171">
         <f t="shared" ref="C19" si="19">D19</f>
         <v>0.25</v>
       </c>
@@ -12567,7 +12567,7 @@
       <c r="W19" s="116">
         <v>13</v>
       </c>
-      <c r="Y19" s="171" t="s">
+      <c r="Y19" s="139" t="s">
         <v>718</v>
       </c>
       <c r="Z19" s="116" t="s">
@@ -12632,9 +12632,9 @@
       </c>
     </row>
     <row r="20" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="140"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
+      <c r="A20" s="189"/>
+      <c r="B20" s="188"/>
+      <c r="C20" s="188"/>
       <c r="D20" s="108">
         <f t="shared" si="2"/>
         <v>0.26500000000000001</v>
@@ -12691,7 +12691,7 @@
       <c r="W20" s="116">
         <v>13</v>
       </c>
-      <c r="Y20" s="172"/>
+      <c r="Y20" s="154"/>
       <c r="Z20" s="128" t="str">
         <f>Z18</f>
         <v>最小</v>
@@ -12755,9 +12755,9 @@
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A21" s="140"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="141">
+      <c r="A21" s="189"/>
+      <c r="B21" s="188"/>
+      <c r="C21" s="171">
         <f t="shared" ref="C21" si="20">D21</f>
         <v>0.27999999999999997</v>
       </c>
@@ -12819,9 +12819,9 @@
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A22" s="140"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="188"/>
+      <c r="C22" s="188"/>
       <c r="D22" s="108">
         <f t="shared" si="2"/>
         <v>0.3</v>
@@ -12880,12 +12880,12 @@
       </c>
     </row>
     <row r="23" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="140"/>
-      <c r="B23" s="141">
+      <c r="A23" s="189"/>
+      <c r="B23" s="171">
         <f t="shared" ref="B23" si="21">C23</f>
         <v>0.315</v>
       </c>
-      <c r="C23" s="141">
+      <c r="C23" s="171">
         <f t="shared" ref="C23" si="22">D23</f>
         <v>0.315</v>
       </c>
@@ -12946,9 +12946,9 @@
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A24" s="140"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="142"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="188"/>
+      <c r="C24" s="188"/>
       <c r="D24" s="108">
         <f t="shared" si="2"/>
         <v>0.33500000000000002</v>
@@ -12995,9 +12995,9 @@
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A25" s="140"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="141">
+      <c r="A25" s="189"/>
+      <c r="B25" s="188"/>
+      <c r="C25" s="171">
         <f t="shared" ref="C25" si="23">D25</f>
         <v>0.35499999999999998</v>
       </c>
@@ -13046,9 +13046,9 @@
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A26" s="140"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
+      <c r="A26" s="189"/>
+      <c r="B26" s="188"/>
+      <c r="C26" s="188"/>
       <c r="D26" s="108">
         <f t="shared" si="2"/>
         <v>0.375</v>
@@ -13095,15 +13095,15 @@
       </c>
     </row>
     <row r="27" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="139">
+      <c r="A27" s="164">
         <f>B27</f>
         <v>0.4</v>
       </c>
-      <c r="B27" s="141">
+      <c r="B27" s="171">
         <f t="shared" ref="B27" si="24">C27</f>
         <v>0.4</v>
       </c>
-      <c r="C27" s="141">
+      <c r="C27" s="171">
         <f t="shared" ref="C27" si="25">D27</f>
         <v>0.4</v>
       </c>
@@ -13156,9 +13156,9 @@
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A28" s="140"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="142"/>
+      <c r="A28" s="189"/>
+      <c r="B28" s="188"/>
+      <c r="C28" s="188"/>
       <c r="D28" s="108">
         <f t="shared" si="2"/>
         <v>0.42499999999999999</v>
@@ -13203,10 +13203,10 @@
       <c r="W28" s="116">
         <v>39</v>
       </c>
-      <c r="AA28" s="166" t="s">
+      <c r="AA28" s="141" t="s">
         <v>662</v>
       </c>
-      <c r="AB28" s="168"/>
+      <c r="AB28" s="142"/>
       <c r="AC28" s="84" t="s">
         <v>683</v>
       </c>
@@ -13215,9 +13215,9 @@
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A29" s="140"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="141">
+      <c r="A29" s="189"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="171">
         <f t="shared" ref="C29" si="26">D29</f>
         <v>0.45</v>
       </c>
@@ -13264,10 +13264,10 @@
       <c r="W29" s="116">
         <v>43</v>
       </c>
-      <c r="AA29" s="171" t="s">
+      <c r="AA29" s="139" t="s">
         <v>708</v>
       </c>
-      <c r="AB29" s="170"/>
+      <c r="AB29" s="140"/>
       <c r="AC29" s="95">
         <v>1</v>
       </c>
@@ -13276,9 +13276,9 @@
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A30" s="140"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="142"/>
+      <c r="A30" s="189"/>
+      <c r="B30" s="188"/>
+      <c r="C30" s="188"/>
       <c r="D30" s="108">
         <f t="shared" si="2"/>
         <v>0.47499999999999998</v>
@@ -13323,10 +13323,10 @@
       <c r="W30" s="116">
         <v>46</v>
       </c>
-      <c r="AA30" s="171" t="s">
+      <c r="AA30" s="139" t="s">
         <v>709</v>
       </c>
-      <c r="AB30" s="170"/>
+      <c r="AB30" s="140"/>
       <c r="AC30" s="85">
         <v>0.25</v>
       </c>
@@ -13335,12 +13335,12 @@
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A31" s="140"/>
-      <c r="B31" s="141">
+      <c r="A31" s="189"/>
+      <c r="B31" s="171">
         <f t="shared" ref="B31" si="27">C31</f>
         <v>0.5</v>
       </c>
-      <c r="C31" s="141">
+      <c r="C31" s="171">
         <f t="shared" ref="C31" si="28">D31</f>
         <v>0.5</v>
       </c>
@@ -13388,10 +13388,10 @@
       <c r="W31" s="116">
         <v>50</v>
       </c>
-      <c r="AA31" s="171" t="s">
+      <c r="AA31" s="139" t="s">
         <v>718</v>
       </c>
-      <c r="AB31" s="170"/>
+      <c r="AB31" s="140"/>
       <c r="AC31" s="95">
         <v>2.5</v>
       </c>
@@ -13400,9 +13400,9 @@
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A32" s="140"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="142"/>
+      <c r="A32" s="189"/>
+      <c r="B32" s="188"/>
+      <c r="C32" s="188"/>
       <c r="D32" s="108">
         <f t="shared" si="2"/>
         <v>0.53</v>
@@ -13446,10 +13446,10 @@
       <c r="W32" s="116">
         <v>55</v>
       </c>
-      <c r="AA32" s="171" t="s">
+      <c r="AA32" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="AB32" s="170"/>
+      <c r="AB32" s="140"/>
       <c r="AC32" s="85">
         <v>0.8</v>
       </c>
@@ -13458,9 +13458,9 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="140"/>
-      <c r="B33" s="142"/>
-      <c r="C33" s="141">
+      <c r="A33" s="189"/>
+      <c r="B33" s="188"/>
+      <c r="C33" s="171">
         <f t="shared" ref="C33" si="29">D33</f>
         <v>0.55999999999999994</v>
       </c>
@@ -13508,10 +13508,10 @@
       <c r="W33" s="116">
         <v>62</v>
       </c>
-      <c r="AA33" s="183" t="s">
+      <c r="AA33" s="143" t="s">
         <v>295</v>
       </c>
-      <c r="AB33" s="184"/>
+      <c r="AB33" s="144"/>
       <c r="AC33" s="86">
         <v>2.887</v>
       </c>
@@ -13520,9 +13520,9 @@
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A34" s="140"/>
-      <c r="B34" s="142"/>
-      <c r="C34" s="142"/>
+      <c r="A34" s="189"/>
+      <c r="B34" s="188"/>
+      <c r="C34" s="188"/>
       <c r="D34" s="108">
         <f t="shared" si="2"/>
         <v>0.6</v>
@@ -13569,15 +13569,15 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A35" s="139">
+      <c r="A35" s="164">
         <f>B35</f>
         <v>0.63</v>
       </c>
-      <c r="B35" s="141">
+      <c r="B35" s="171">
         <f t="shared" ref="B35" si="30">C35</f>
         <v>0.63</v>
       </c>
-      <c r="C35" s="141">
+      <c r="C35" s="171">
         <f t="shared" ref="C35" si="31">D35</f>
         <v>0.63</v>
       </c>
@@ -13627,9 +13627,9 @@
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A36" s="140"/>
-      <c r="B36" s="142"/>
-      <c r="C36" s="142"/>
+      <c r="A36" s="189"/>
+      <c r="B36" s="188"/>
+      <c r="C36" s="188"/>
       <c r="D36" s="108">
         <f t="shared" si="2"/>
         <v>0.67</v>
@@ -13676,9 +13676,9 @@
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A37" s="140"/>
-      <c r="B37" s="142"/>
-      <c r="C37" s="141">
+      <c r="A37" s="189"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="171">
         <f t="shared" ref="C37" si="32">D37</f>
         <v>0.71</v>
       </c>
@@ -13727,9 +13727,9 @@
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A38" s="140"/>
-      <c r="B38" s="142"/>
-      <c r="C38" s="142"/>
+      <c r="A38" s="189"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="188"/>
       <c r="D38" s="108">
         <f t="shared" si="2"/>
         <v>0.75</v>
@@ -13776,12 +13776,12 @@
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A39" s="140"/>
-      <c r="B39" s="141">
+      <c r="A39" s="189"/>
+      <c r="B39" s="171">
         <f t="shared" ref="B39" si="33">C39</f>
         <v>0.8</v>
       </c>
-      <c r="C39" s="141">
+      <c r="C39" s="171">
         <f t="shared" ref="C39" si="34">D39</f>
         <v>0.8</v>
       </c>
@@ -13830,9 +13830,9 @@
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A40" s="140"/>
-      <c r="B40" s="142"/>
-      <c r="C40" s="142"/>
+      <c r="A40" s="189"/>
+      <c r="B40" s="188"/>
+      <c r="C40" s="188"/>
       <c r="D40" s="108">
         <f t="shared" si="2"/>
         <v>0.85</v>
@@ -13879,9 +13879,9 @@
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A41" s="140"/>
-      <c r="B41" s="142"/>
-      <c r="C41" s="141">
+      <c r="A41" s="189"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="171">
         <f t="shared" ref="C41" si="35">D41</f>
         <v>0.9</v>
       </c>
@@ -13930,9 +13930,9 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A42" s="140"/>
-      <c r="B42" s="142"/>
-      <c r="C42" s="142"/>
+      <c r="A42" s="189"/>
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
       <c r="D42" s="108">
         <f t="shared" si="2"/>
         <v>0.95</v>
@@ -13979,15 +13979,15 @@
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A43" s="152">
+      <c r="A43" s="180">
         <f>B43</f>
         <v>1</v>
       </c>
-      <c r="B43" s="154">
+      <c r="B43" s="181">
         <f>C43</f>
         <v>1</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="181">
         <f t="shared" ref="C43:C49" si="37">D43</f>
         <v>1</v>
       </c>
@@ -14036,9 +14036,9 @@
       </c>
     </row>
     <row r="44" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="153"/>
-      <c r="B44" s="155"/>
-      <c r="C44" s="156"/>
+      <c r="A44" s="175"/>
+      <c r="B44" s="176"/>
+      <c r="C44" s="177"/>
       <c r="D44" s="104">
         <v>1.06</v>
       </c>
@@ -14084,9 +14084,9 @@
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A45" s="153"/>
-      <c r="B45" s="155"/>
-      <c r="C45" s="155">
+      <c r="A45" s="175"/>
+      <c r="B45" s="176"/>
+      <c r="C45" s="176">
         <f t="shared" si="37"/>
         <v>1.1200000000000001</v>
       </c>
@@ -14111,9 +14111,9 @@
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A46" s="153"/>
-      <c r="B46" s="155"/>
-      <c r="C46" s="156"/>
+      <c r="A46" s="175"/>
+      <c r="B46" s="176"/>
+      <c r="C46" s="177"/>
       <c r="D46" s="104">
         <v>1.18</v>
       </c>
@@ -14135,12 +14135,12 @@
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A47" s="153"/>
-      <c r="B47" s="155">
+      <c r="A47" s="175"/>
+      <c r="B47" s="176">
         <f t="shared" ref="B47" si="38">C47</f>
         <v>1.25</v>
       </c>
-      <c r="C47" s="155">
+      <c r="C47" s="176">
         <f t="shared" si="37"/>
         <v>1.25</v>
       </c>
@@ -14165,9 +14165,9 @@
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A48" s="153"/>
-      <c r="B48" s="155"/>
-      <c r="C48" s="156"/>
+      <c r="A48" s="175"/>
+      <c r="B48" s="176"/>
+      <c r="C48" s="177"/>
       <c r="D48" s="104">
         <v>1.32</v>
       </c>
@@ -14189,9 +14189,9 @@
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A49" s="153"/>
-      <c r="B49" s="155"/>
-      <c r="C49" s="155">
+      <c r="A49" s="175"/>
+      <c r="B49" s="176"/>
+      <c r="C49" s="176">
         <f t="shared" si="37"/>
         <v>1.4</v>
       </c>
@@ -14217,9 +14217,9 @@
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A50" s="153"/>
-      <c r="B50" s="155"/>
-      <c r="C50" s="156"/>
+      <c r="A50" s="175"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="177"/>
       <c r="D50" s="104">
         <v>1.5</v>
       </c>
@@ -14242,15 +14242,15 @@
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A51" s="157">
+      <c r="A51" s="174">
         <f t="shared" ref="A51:C51" si="41">B51</f>
         <v>1.6</v>
       </c>
-      <c r="B51" s="155">
+      <c r="B51" s="176">
         <f t="shared" si="41"/>
         <v>1.6</v>
       </c>
-      <c r="C51" s="155">
+      <c r="C51" s="176">
         <f t="shared" si="41"/>
         <v>1.6</v>
       </c>
@@ -14276,9 +14276,9 @@
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A52" s="153"/>
-      <c r="B52" s="155"/>
-      <c r="C52" s="156"/>
+      <c r="A52" s="175"/>
+      <c r="B52" s="176"/>
+      <c r="C52" s="177"/>
       <c r="D52" s="104">
         <v>1.7</v>
       </c>
@@ -14301,9 +14301,9 @@
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A53" s="153"/>
-      <c r="B53" s="155"/>
-      <c r="C53" s="155">
+      <c r="A53" s="175"/>
+      <c r="B53" s="176"/>
+      <c r="C53" s="176">
         <f t="shared" ref="C53" si="42">D53</f>
         <v>1.8</v>
       </c>
@@ -14329,9 +14329,9 @@
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A54" s="153"/>
-      <c r="B54" s="155"/>
-      <c r="C54" s="156"/>
+      <c r="A54" s="175"/>
+      <c r="B54" s="176"/>
+      <c r="C54" s="177"/>
       <c r="D54" s="104">
         <v>1.9</v>
       </c>
@@ -14354,12 +14354,12 @@
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A55" s="153"/>
-      <c r="B55" s="155">
+      <c r="A55" s="175"/>
+      <c r="B55" s="176">
         <f t="shared" ref="B55:C55" si="43">C55</f>
         <v>2</v>
       </c>
-      <c r="C55" s="155">
+      <c r="C55" s="176">
         <f t="shared" si="43"/>
         <v>2</v>
       </c>
@@ -14385,9 +14385,9 @@
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A56" s="153"/>
-      <c r="B56" s="155"/>
-      <c r="C56" s="156"/>
+      <c r="A56" s="175"/>
+      <c r="B56" s="176"/>
+      <c r="C56" s="177"/>
       <c r="D56" s="104">
         <v>2.12</v>
       </c>
@@ -14410,9 +14410,9 @@
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A57" s="153"/>
-      <c r="B57" s="155"/>
-      <c r="C57" s="155">
+      <c r="A57" s="175"/>
+      <c r="B57" s="176"/>
+      <c r="C57" s="176">
         <f t="shared" ref="C57" si="44">D57</f>
         <v>2.2400000000000002</v>
       </c>
@@ -14438,9 +14438,9 @@
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A58" s="153"/>
-      <c r="B58" s="155"/>
-      <c r="C58" s="156"/>
+      <c r="A58" s="175"/>
+      <c r="B58" s="176"/>
+      <c r="C58" s="177"/>
       <c r="D58" s="104">
         <v>2.36</v>
       </c>
@@ -14463,15 +14463,15 @@
       </c>
     </row>
     <row r="59" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="157">
+      <c r="A59" s="174">
         <f t="shared" ref="A59:C59" si="45">B59</f>
         <v>2.5</v>
       </c>
-      <c r="B59" s="155">
+      <c r="B59" s="176">
         <f t="shared" si="45"/>
         <v>2.5</v>
       </c>
-      <c r="C59" s="155">
+      <c r="C59" s="176">
         <f t="shared" si="45"/>
         <v>2.5</v>
       </c>
@@ -14497,17 +14497,17 @@
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A60" s="153"/>
-      <c r="B60" s="155"/>
-      <c r="C60" s="156"/>
+      <c r="A60" s="175"/>
+      <c r="B60" s="176"/>
+      <c r="C60" s="177"/>
       <c r="D60" s="104">
         <v>2.65</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A61" s="153"/>
-      <c r="B61" s="155"/>
-      <c r="C61" s="155">
+      <c r="A61" s="175"/>
+      <c r="B61" s="176"/>
+      <c r="C61" s="176">
         <f t="shared" ref="C61" si="46">D61</f>
         <v>2.8</v>
       </c>
@@ -14516,20 +14516,20 @@
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A62" s="153"/>
-      <c r="B62" s="155"/>
-      <c r="C62" s="156"/>
+      <c r="A62" s="175"/>
+      <c r="B62" s="176"/>
+      <c r="C62" s="177"/>
       <c r="D62" s="104">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A63" s="153"/>
-      <c r="B63" s="155">
+      <c r="A63" s="175"/>
+      <c r="B63" s="176">
         <f t="shared" ref="B63:C63" si="47">C63</f>
         <v>3.15</v>
       </c>
-      <c r="C63" s="155">
+      <c r="C63" s="176">
         <f t="shared" si="47"/>
         <v>3.15</v>
       </c>
@@ -14538,17 +14538,17 @@
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A64" s="153"/>
-      <c r="B64" s="155"/>
-      <c r="C64" s="156"/>
+      <c r="A64" s="175"/>
+      <c r="B64" s="176"/>
+      <c r="C64" s="177"/>
       <c r="D64" s="104">
         <v>3.35</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" s="153"/>
-      <c r="B65" s="155"/>
-      <c r="C65" s="155">
+      <c r="A65" s="175"/>
+      <c r="B65" s="176"/>
+      <c r="C65" s="176">
         <f t="shared" ref="C65" si="48">D65</f>
         <v>3.55</v>
       </c>
@@ -14557,23 +14557,23 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" s="153"/>
-      <c r="B66" s="155"/>
-      <c r="C66" s="156"/>
+      <c r="A66" s="175"/>
+      <c r="B66" s="176"/>
+      <c r="C66" s="177"/>
       <c r="D66" s="104">
         <v>3.75</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="157">
+      <c r="A67" s="174">
         <f t="shared" ref="A67:C67" si="49">B67</f>
         <v>4</v>
       </c>
-      <c r="B67" s="155">
+      <c r="B67" s="176">
         <f t="shared" si="49"/>
         <v>4</v>
       </c>
-      <c r="C67" s="155">
+      <c r="C67" s="176">
         <f t="shared" si="49"/>
         <v>4</v>
       </c>
@@ -14582,17 +14582,17 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" s="153"/>
-      <c r="B68" s="155"/>
-      <c r="C68" s="156"/>
+      <c r="A68" s="175"/>
+      <c r="B68" s="176"/>
+      <c r="C68" s="177"/>
       <c r="D68" s="104">
         <v>4.25</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A69" s="153"/>
-      <c r="B69" s="155"/>
-      <c r="C69" s="155">
+      <c r="A69" s="175"/>
+      <c r="B69" s="176"/>
+      <c r="C69" s="176">
         <f t="shared" ref="C69" si="50">D69</f>
         <v>4.5</v>
       </c>
@@ -14601,20 +14601,20 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" s="153"/>
-      <c r="B70" s="155"/>
-      <c r="C70" s="156"/>
+      <c r="A70" s="175"/>
+      <c r="B70" s="176"/>
+      <c r="C70" s="177"/>
       <c r="D70" s="104">
         <v>4.75</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" s="153"/>
-      <c r="B71" s="155">
+      <c r="A71" s="175"/>
+      <c r="B71" s="176">
         <f t="shared" ref="B71:C71" si="51">C71</f>
         <v>5</v>
       </c>
-      <c r="C71" s="155">
+      <c r="C71" s="176">
         <f t="shared" si="51"/>
         <v>5</v>
       </c>
@@ -14623,17 +14623,17 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A72" s="153"/>
-      <c r="B72" s="155"/>
-      <c r="C72" s="156"/>
+      <c r="A72" s="175"/>
+      <c r="B72" s="176"/>
+      <c r="C72" s="177"/>
       <c r="D72" s="104">
         <v>5.3</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" s="153"/>
-      <c r="B73" s="155"/>
-      <c r="C73" s="155">
+      <c r="A73" s="175"/>
+      <c r="B73" s="176"/>
+      <c r="C73" s="176">
         <f t="shared" ref="C73" si="52">D73</f>
         <v>5.6</v>
       </c>
@@ -14642,23 +14642,23 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A74" s="153"/>
-      <c r="B74" s="155"/>
-      <c r="C74" s="156"/>
+      <c r="A74" s="175"/>
+      <c r="B74" s="176"/>
+      <c r="C74" s="177"/>
       <c r="D74" s="104">
         <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" s="157">
+      <c r="A75" s="174">
         <f t="shared" ref="A75:C75" si="53">B75</f>
         <v>6.3</v>
       </c>
-      <c r="B75" s="155">
+      <c r="B75" s="176">
         <f t="shared" si="53"/>
         <v>6.3</v>
       </c>
-      <c r="C75" s="155">
+      <c r="C75" s="176">
         <f t="shared" si="53"/>
         <v>6.3</v>
       </c>
@@ -14667,17 +14667,17 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" s="153"/>
-      <c r="B76" s="155"/>
-      <c r="C76" s="156"/>
+      <c r="A76" s="175"/>
+      <c r="B76" s="176"/>
+      <c r="C76" s="177"/>
       <c r="D76" s="104">
         <v>6.7</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" s="153"/>
-      <c r="B77" s="155"/>
-      <c r="C77" s="155">
+      <c r="A77" s="175"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="176">
         <f t="shared" ref="C77" si="54">D77</f>
         <v>7.1</v>
       </c>
@@ -14686,20 +14686,20 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" s="153"/>
-      <c r="B78" s="155"/>
-      <c r="C78" s="156"/>
+      <c r="A78" s="175"/>
+      <c r="B78" s="176"/>
+      <c r="C78" s="177"/>
       <c r="D78" s="104">
         <v>7.5</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" s="153"/>
-      <c r="B79" s="155">
+      <c r="A79" s="175"/>
+      <c r="B79" s="176">
         <f t="shared" ref="B79:C79" si="55">C79</f>
         <v>8</v>
       </c>
-      <c r="C79" s="155">
+      <c r="C79" s="176">
         <f t="shared" si="55"/>
         <v>8</v>
       </c>
@@ -14708,17 +14708,17 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="153"/>
-      <c r="B80" s="155"/>
-      <c r="C80" s="156"/>
+      <c r="A80" s="175"/>
+      <c r="B80" s="176"/>
+      <c r="C80" s="177"/>
       <c r="D80" s="104">
         <v>8.5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" s="153"/>
-      <c r="B81" s="155"/>
-      <c r="C81" s="155">
+      <c r="A81" s="175"/>
+      <c r="B81" s="176"/>
+      <c r="C81" s="176">
         <f t="shared" ref="C81:C143" si="56">D81</f>
         <v>9</v>
       </c>
@@ -14727,23 +14727,23 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="153"/>
-      <c r="B82" s="155"/>
-      <c r="C82" s="156"/>
+      <c r="A82" s="175"/>
+      <c r="B82" s="176"/>
+      <c r="C82" s="177"/>
       <c r="D82" s="104">
         <v>9.5</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" s="139">
+      <c r="A83" s="164">
         <f t="shared" ref="A83:B83" si="57">B83</f>
         <v>10</v>
       </c>
-      <c r="B83" s="163">
+      <c r="B83" s="169">
         <f t="shared" si="57"/>
         <v>10</v>
       </c>
-      <c r="C83" s="141">
+      <c r="C83" s="171">
         <f t="shared" si="56"/>
         <v>10</v>
       </c>
@@ -14753,18 +14753,18 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="162"/>
-      <c r="B84" s="163"/>
-      <c r="C84" s="164"/>
+      <c r="A84" s="170"/>
+      <c r="B84" s="169"/>
+      <c r="C84" s="173"/>
       <c r="D84" s="106">
         <f t="shared" ref="D84:D147" si="58">D44*10</f>
         <v>10.600000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="162"/>
-      <c r="B85" s="163"/>
-      <c r="C85" s="141">
+      <c r="A85" s="170"/>
+      <c r="B85" s="169"/>
+      <c r="C85" s="171">
         <f t="shared" si="56"/>
         <v>11.200000000000001</v>
       </c>
@@ -14774,21 +14774,21 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" s="162"/>
-      <c r="B86" s="163"/>
-      <c r="C86" s="164"/>
+      <c r="A86" s="170"/>
+      <c r="B86" s="169"/>
+      <c r="C86" s="173"/>
       <c r="D86" s="106">
         <f t="shared" si="58"/>
         <v>11.799999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" s="162"/>
-      <c r="B87" s="163">
+      <c r="A87" s="170"/>
+      <c r="B87" s="169">
         <f t="shared" ref="B87" si="59">C87</f>
         <v>12.5</v>
       </c>
-      <c r="C87" s="141">
+      <c r="C87" s="171">
         <f t="shared" si="56"/>
         <v>12.5</v>
       </c>
@@ -14798,18 +14798,18 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" s="162"/>
-      <c r="B88" s="163"/>
-      <c r="C88" s="164"/>
+      <c r="A88" s="170"/>
+      <c r="B88" s="169"/>
+      <c r="C88" s="173"/>
       <c r="D88" s="106">
         <f t="shared" si="58"/>
         <v>13.200000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="162"/>
-      <c r="B89" s="163"/>
-      <c r="C89" s="141">
+      <c r="A89" s="170"/>
+      <c r="B89" s="169"/>
+      <c r="C89" s="171">
         <f t="shared" si="56"/>
         <v>14</v>
       </c>
@@ -14819,24 +14819,24 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" s="162"/>
-      <c r="B90" s="163"/>
-      <c r="C90" s="164"/>
+      <c r="A90" s="170"/>
+      <c r="B90" s="169"/>
+      <c r="C90" s="173"/>
       <c r="D90" s="105">
         <f t="shared" si="58"/>
         <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" s="139">
+      <c r="A91" s="164">
         <f t="shared" ref="A91" si="60">B91</f>
         <v>16</v>
       </c>
-      <c r="B91" s="163">
+      <c r="B91" s="169">
         <f t="shared" ref="B91" si="61">C91</f>
         <v>16</v>
       </c>
-      <c r="C91" s="141">
+      <c r="C91" s="171">
         <f t="shared" si="56"/>
         <v>16</v>
       </c>
@@ -14846,18 +14846,18 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="162"/>
-      <c r="B92" s="163"/>
-      <c r="C92" s="164"/>
+      <c r="A92" s="170"/>
+      <c r="B92" s="169"/>
+      <c r="C92" s="173"/>
       <c r="D92" s="105">
         <f t="shared" si="58"/>
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" s="162"/>
-      <c r="B93" s="163"/>
-      <c r="C93" s="141">
+      <c r="A93" s="170"/>
+      <c r="B93" s="169"/>
+      <c r="C93" s="171">
         <f t="shared" si="56"/>
         <v>18</v>
       </c>
@@ -14867,21 +14867,21 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" s="162"/>
-      <c r="B94" s="163"/>
-      <c r="C94" s="164"/>
+      <c r="A94" s="170"/>
+      <c r="B94" s="169"/>
+      <c r="C94" s="173"/>
       <c r="D94" s="105">
         <f t="shared" si="58"/>
         <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" s="162"/>
-      <c r="B95" s="163">
+      <c r="A95" s="170"/>
+      <c r="B95" s="169">
         <f t="shared" ref="B95" si="62">C95</f>
         <v>20</v>
       </c>
-      <c r="C95" s="141">
+      <c r="C95" s="171">
         <f t="shared" si="56"/>
         <v>20</v>
       </c>
@@ -14891,18 +14891,18 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" s="162"/>
-      <c r="B96" s="163"/>
-      <c r="C96" s="164"/>
+      <c r="A96" s="170"/>
+      <c r="B96" s="169"/>
+      <c r="C96" s="173"/>
       <c r="D96" s="106">
         <f t="shared" si="58"/>
         <v>21.200000000000003</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A97" s="162"/>
-      <c r="B97" s="163"/>
-      <c r="C97" s="141">
+      <c r="A97" s="170"/>
+      <c r="B97" s="169"/>
+      <c r="C97" s="171">
         <f t="shared" si="56"/>
         <v>22.400000000000002</v>
       </c>
@@ -14912,24 +14912,24 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" s="162"/>
-      <c r="B98" s="163"/>
-      <c r="C98" s="164"/>
+      <c r="A98" s="170"/>
+      <c r="B98" s="169"/>
+      <c r="C98" s="173"/>
       <c r="D98" s="106">
         <f t="shared" si="58"/>
         <v>23.599999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" s="139">
+      <c r="A99" s="164">
         <f t="shared" ref="A99:A155" si="63">B99</f>
         <v>25</v>
       </c>
-      <c r="B99" s="163">
+      <c r="B99" s="169">
         <f t="shared" ref="B99" si="64">C99</f>
         <v>25</v>
       </c>
-      <c r="C99" s="141">
+      <c r="C99" s="171">
         <f t="shared" si="56"/>
         <v>25</v>
       </c>
@@ -14939,18 +14939,18 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" s="162"/>
-      <c r="B100" s="163"/>
-      <c r="C100" s="164"/>
+      <c r="A100" s="170"/>
+      <c r="B100" s="169"/>
+      <c r="C100" s="173"/>
       <c r="D100" s="106">
         <f t="shared" si="58"/>
         <v>26.5</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" s="162"/>
-      <c r="B101" s="163"/>
-      <c r="C101" s="141">
+      <c r="A101" s="170"/>
+      <c r="B101" s="169"/>
+      <c r="C101" s="171">
         <f t="shared" si="56"/>
         <v>28</v>
       </c>
@@ -14960,21 +14960,21 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" s="162"/>
-      <c r="B102" s="163"/>
-      <c r="C102" s="164"/>
+      <c r="A102" s="170"/>
+      <c r="B102" s="169"/>
+      <c r="C102" s="173"/>
       <c r="D102" s="105">
         <f t="shared" si="58"/>
         <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" s="162"/>
-      <c r="B103" s="163">
+      <c r="A103" s="170"/>
+      <c r="B103" s="169">
         <f t="shared" ref="B103" si="65">C103</f>
         <v>31.5</v>
       </c>
-      <c r="C103" s="141">
+      <c r="C103" s="171">
         <f t="shared" si="56"/>
         <v>31.5</v>
       </c>
@@ -14984,18 +14984,18 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" s="162"/>
-      <c r="B104" s="163"/>
-      <c r="C104" s="164"/>
+      <c r="A104" s="170"/>
+      <c r="B104" s="169"/>
+      <c r="C104" s="173"/>
       <c r="D104" s="106">
         <f t="shared" si="58"/>
         <v>33.5</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" s="162"/>
-      <c r="B105" s="163"/>
-      <c r="C105" s="141">
+      <c r="A105" s="170"/>
+      <c r="B105" s="169"/>
+      <c r="C105" s="171">
         <f t="shared" si="56"/>
         <v>35.5</v>
       </c>
@@ -15005,24 +15005,24 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" s="162"/>
-      <c r="B106" s="163"/>
-      <c r="C106" s="164"/>
+      <c r="A106" s="170"/>
+      <c r="B106" s="169"/>
+      <c r="C106" s="173"/>
       <c r="D106" s="106">
         <f t="shared" si="58"/>
         <v>37.5</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A107" s="139">
+      <c r="A107" s="164">
         <f t="shared" si="63"/>
         <v>40</v>
       </c>
-      <c r="B107" s="163">
+      <c r="B107" s="169">
         <f t="shared" ref="B107" si="66">C107</f>
         <v>40</v>
       </c>
-      <c r="C107" s="141">
+      <c r="C107" s="171">
         <f t="shared" si="56"/>
         <v>40</v>
       </c>
@@ -15032,18 +15032,18 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A108" s="162"/>
-      <c r="B108" s="163"/>
-      <c r="C108" s="164"/>
+      <c r="A108" s="170"/>
+      <c r="B108" s="169"/>
+      <c r="C108" s="173"/>
       <c r="D108" s="106">
         <f t="shared" si="58"/>
         <v>42.5</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" s="162"/>
-      <c r="B109" s="163"/>
-      <c r="C109" s="141">
+      <c r="A109" s="170"/>
+      <c r="B109" s="169"/>
+      <c r="C109" s="171">
         <f t="shared" si="56"/>
         <v>45</v>
       </c>
@@ -15053,21 +15053,21 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" s="162"/>
-      <c r="B110" s="163"/>
-      <c r="C110" s="164"/>
+      <c r="A110" s="170"/>
+      <c r="B110" s="169"/>
+      <c r="C110" s="173"/>
       <c r="D110" s="106">
         <f t="shared" si="58"/>
         <v>47.5</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" s="162"/>
-      <c r="B111" s="163">
+      <c r="A111" s="170"/>
+      <c r="B111" s="169">
         <f t="shared" ref="B111" si="67">C111</f>
         <v>50</v>
       </c>
-      <c r="C111" s="141">
+      <c r="C111" s="171">
         <f t="shared" si="56"/>
         <v>50</v>
       </c>
@@ -15077,18 +15077,18 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" s="162"/>
-      <c r="B112" s="163"/>
-      <c r="C112" s="164"/>
+      <c r="A112" s="170"/>
+      <c r="B112" s="169"/>
+      <c r="C112" s="173"/>
       <c r="D112" s="105">
         <f t="shared" si="58"/>
         <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" s="162"/>
-      <c r="B113" s="163"/>
-      <c r="C113" s="141">
+      <c r="A113" s="170"/>
+      <c r="B113" s="169"/>
+      <c r="C113" s="171">
         <f t="shared" si="56"/>
         <v>56</v>
       </c>
@@ -15098,24 +15098,24 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" s="162"/>
-      <c r="B114" s="163"/>
-      <c r="C114" s="164"/>
+      <c r="A114" s="170"/>
+      <c r="B114" s="169"/>
+      <c r="C114" s="173"/>
       <c r="D114" s="105">
         <f t="shared" si="58"/>
         <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A115" s="139">
+      <c r="A115" s="164">
         <f t="shared" si="63"/>
         <v>63</v>
       </c>
-      <c r="B115" s="163">
+      <c r="B115" s="169">
         <f t="shared" ref="B115" si="68">C115</f>
         <v>63</v>
       </c>
-      <c r="C115" s="141">
+      <c r="C115" s="171">
         <f t="shared" si="56"/>
         <v>63</v>
       </c>
@@ -15125,18 +15125,18 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A116" s="162"/>
-      <c r="B116" s="163"/>
-      <c r="C116" s="164"/>
+      <c r="A116" s="170"/>
+      <c r="B116" s="169"/>
+      <c r="C116" s="173"/>
       <c r="D116" s="105">
         <f t="shared" si="58"/>
         <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A117" s="162"/>
-      <c r="B117" s="163"/>
-      <c r="C117" s="141">
+      <c r="A117" s="170"/>
+      <c r="B117" s="169"/>
+      <c r="C117" s="171">
         <f t="shared" si="56"/>
         <v>71</v>
       </c>
@@ -15146,21 +15146,21 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" s="162"/>
-      <c r="B118" s="163"/>
-      <c r="C118" s="164"/>
+      <c r="A118" s="170"/>
+      <c r="B118" s="169"/>
+      <c r="C118" s="173"/>
       <c r="D118" s="105">
         <f t="shared" si="58"/>
         <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A119" s="162"/>
-      <c r="B119" s="163">
+      <c r="A119" s="170"/>
+      <c r="B119" s="169">
         <f t="shared" ref="B119" si="69">C119</f>
         <v>80</v>
       </c>
-      <c r="C119" s="141">
+      <c r="C119" s="171">
         <f t="shared" si="56"/>
         <v>80</v>
       </c>
@@ -15170,18 +15170,18 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A120" s="162"/>
-      <c r="B120" s="163"/>
-      <c r="C120" s="164"/>
+      <c r="A120" s="170"/>
+      <c r="B120" s="169"/>
+      <c r="C120" s="173"/>
       <c r="D120" s="105">
         <f t="shared" si="58"/>
         <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A121" s="162"/>
-      <c r="B121" s="163"/>
-      <c r="C121" s="141">
+      <c r="A121" s="170"/>
+      <c r="B121" s="169"/>
+      <c r="C121" s="171">
         <f t="shared" si="56"/>
         <v>90</v>
       </c>
@@ -15191,24 +15191,24 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122" s="162"/>
-      <c r="B122" s="163"/>
-      <c r="C122" s="164"/>
+      <c r="A122" s="170"/>
+      <c r="B122" s="169"/>
+      <c r="C122" s="173"/>
       <c r="D122" s="105">
         <f t="shared" si="58"/>
         <v>95</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" s="139">
+      <c r="A123" s="164">
         <f t="shared" si="63"/>
         <v>100</v>
       </c>
-      <c r="B123" s="146">
+      <c r="B123" s="166">
         <f t="shared" ref="B123" si="70">C123</f>
         <v>100</v>
       </c>
-      <c r="C123" s="141">
+      <c r="C123" s="171">
         <f t="shared" si="56"/>
         <v>100</v>
       </c>
@@ -15218,18 +15218,18 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A124" s="144"/>
-      <c r="B124" s="146"/>
-      <c r="C124" s="165"/>
+      <c r="A124" s="165"/>
+      <c r="B124" s="166"/>
+      <c r="C124" s="172"/>
       <c r="D124" s="106">
         <f t="shared" si="58"/>
         <v>106.00000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A125" s="144"/>
-      <c r="B125" s="146"/>
-      <c r="C125" s="141">
+      <c r="A125" s="165"/>
+      <c r="B125" s="166"/>
+      <c r="C125" s="171">
         <f t="shared" si="56"/>
         <v>112.00000000000001</v>
       </c>
@@ -15239,21 +15239,21 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" s="144"/>
-      <c r="B126" s="146"/>
-      <c r="C126" s="165"/>
+      <c r="A126" s="165"/>
+      <c r="B126" s="166"/>
+      <c r="C126" s="172"/>
       <c r="D126" s="106">
         <f t="shared" si="58"/>
         <v>117.99999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A127" s="144"/>
-      <c r="B127" s="146">
+      <c r="A127" s="165"/>
+      <c r="B127" s="166">
         <f t="shared" ref="B127" si="71">C127</f>
         <v>125</v>
       </c>
-      <c r="C127" s="141">
+      <c r="C127" s="171">
         <f t="shared" si="56"/>
         <v>125</v>
       </c>
@@ -15263,18 +15263,18 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A128" s="144"/>
-      <c r="B128" s="146"/>
-      <c r="C128" s="165"/>
+      <c r="A128" s="165"/>
+      <c r="B128" s="166"/>
+      <c r="C128" s="172"/>
       <c r="D128" s="106">
         <f t="shared" si="58"/>
         <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A129" s="144"/>
-      <c r="B129" s="146"/>
-      <c r="C129" s="141">
+      <c r="A129" s="165"/>
+      <c r="B129" s="166"/>
+      <c r="C129" s="171">
         <f t="shared" si="56"/>
         <v>140</v>
       </c>
@@ -15284,24 +15284,24 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A130" s="144"/>
-      <c r="B130" s="146"/>
-      <c r="C130" s="165"/>
+      <c r="A130" s="165"/>
+      <c r="B130" s="166"/>
+      <c r="C130" s="172"/>
       <c r="D130" s="106">
         <f t="shared" si="58"/>
         <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A131" s="139">
+      <c r="A131" s="164">
         <f t="shared" si="63"/>
         <v>160</v>
       </c>
-      <c r="B131" s="146">
+      <c r="B131" s="166">
         <f t="shared" ref="B131" si="72">C131</f>
         <v>160</v>
       </c>
-      <c r="C131" s="141">
+      <c r="C131" s="171">
         <f t="shared" si="56"/>
         <v>160</v>
       </c>
@@ -15311,18 +15311,18 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A132" s="144"/>
-      <c r="B132" s="146"/>
-      <c r="C132" s="165"/>
+      <c r="A132" s="165"/>
+      <c r="B132" s="166"/>
+      <c r="C132" s="172"/>
       <c r="D132" s="106">
         <f t="shared" si="58"/>
         <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A133" s="144"/>
-      <c r="B133" s="146"/>
-      <c r="C133" s="141">
+      <c r="A133" s="165"/>
+      <c r="B133" s="166"/>
+      <c r="C133" s="171">
         <f t="shared" si="56"/>
         <v>180</v>
       </c>
@@ -15332,21 +15332,21 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A134" s="144"/>
-      <c r="B134" s="146"/>
-      <c r="C134" s="165"/>
+      <c r="A134" s="165"/>
+      <c r="B134" s="166"/>
+      <c r="C134" s="172"/>
       <c r="D134" s="106">
         <f t="shared" si="58"/>
         <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A135" s="144"/>
-      <c r="B135" s="146">
+      <c r="A135" s="165"/>
+      <c r="B135" s="166">
         <f t="shared" ref="B135" si="73">C135</f>
         <v>200</v>
       </c>
-      <c r="C135" s="141">
+      <c r="C135" s="171">
         <f t="shared" si="56"/>
         <v>200</v>
       </c>
@@ -15356,18 +15356,18 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A136" s="144"/>
-      <c r="B136" s="146"/>
-      <c r="C136" s="165"/>
+      <c r="A136" s="165"/>
+      <c r="B136" s="166"/>
+      <c r="C136" s="172"/>
       <c r="D136" s="106">
         <f t="shared" si="58"/>
         <v>212.00000000000003</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A137" s="144"/>
-      <c r="B137" s="146"/>
-      <c r="C137" s="141">
+      <c r="A137" s="165"/>
+      <c r="B137" s="166"/>
+      <c r="C137" s="171">
         <f t="shared" si="56"/>
         <v>224.00000000000003</v>
       </c>
@@ -15377,24 +15377,24 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A138" s="144"/>
-      <c r="B138" s="146"/>
-      <c r="C138" s="165"/>
+      <c r="A138" s="165"/>
+      <c r="B138" s="166"/>
+      <c r="C138" s="172"/>
       <c r="D138" s="106">
         <f t="shared" si="58"/>
         <v>235.99999999999997</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A139" s="139">
+      <c r="A139" s="164">
         <f t="shared" si="63"/>
         <v>250</v>
       </c>
-      <c r="B139" s="146">
+      <c r="B139" s="166">
         <f t="shared" ref="B139" si="74">C139</f>
         <v>250</v>
       </c>
-      <c r="C139" s="141">
+      <c r="C139" s="171">
         <f t="shared" si="56"/>
         <v>250</v>
       </c>
@@ -15404,18 +15404,18 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A140" s="144"/>
-      <c r="B140" s="146"/>
-      <c r="C140" s="165"/>
+      <c r="A140" s="165"/>
+      <c r="B140" s="166"/>
+      <c r="C140" s="172"/>
       <c r="D140" s="106">
         <f t="shared" si="58"/>
         <v>265</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A141" s="144"/>
-      <c r="B141" s="146"/>
-      <c r="C141" s="141">
+      <c r="A141" s="165"/>
+      <c r="B141" s="166"/>
+      <c r="C141" s="171">
         <f t="shared" si="56"/>
         <v>280</v>
       </c>
@@ -15425,21 +15425,21 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A142" s="144"/>
-      <c r="B142" s="146"/>
-      <c r="C142" s="165"/>
+      <c r="A142" s="165"/>
+      <c r="B142" s="166"/>
+      <c r="C142" s="172"/>
       <c r="D142" s="106">
         <f t="shared" si="58"/>
         <v>300</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A143" s="144"/>
-      <c r="B143" s="146">
+      <c r="A143" s="165"/>
+      <c r="B143" s="166">
         <f t="shared" ref="B143" si="75">C143</f>
         <v>315</v>
       </c>
-      <c r="C143" s="141">
+      <c r="C143" s="171">
         <f t="shared" si="56"/>
         <v>315</v>
       </c>
@@ -15449,18 +15449,18 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A144" s="144"/>
-      <c r="B144" s="146"/>
-      <c r="C144" s="165"/>
+      <c r="A144" s="165"/>
+      <c r="B144" s="166"/>
+      <c r="C144" s="172"/>
       <c r="D144" s="106">
         <f t="shared" si="58"/>
         <v>335</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="144"/>
-      <c r="B145" s="146"/>
-      <c r="C145" s="141">
+      <c r="A145" s="165"/>
+      <c r="B145" s="166"/>
+      <c r="C145" s="171">
         <f t="shared" ref="C145:C178" si="76">D145</f>
         <v>355</v>
       </c>
@@ -15470,24 +15470,24 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A146" s="144"/>
-      <c r="B146" s="146"/>
-      <c r="C146" s="165"/>
+      <c r="A146" s="165"/>
+      <c r="B146" s="166"/>
+      <c r="C146" s="172"/>
       <c r="D146" s="106">
         <f t="shared" si="58"/>
         <v>375</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A147" s="139">
+      <c r="A147" s="164">
         <f t="shared" si="63"/>
         <v>400</v>
       </c>
-      <c r="B147" s="146">
+      <c r="B147" s="166">
         <f t="shared" ref="B147" si="77">C147</f>
         <v>400</v>
       </c>
-      <c r="C147" s="141">
+      <c r="C147" s="171">
         <f t="shared" si="76"/>
         <v>400</v>
       </c>
@@ -15497,18 +15497,18 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A148" s="144"/>
-      <c r="B148" s="146"/>
-      <c r="C148" s="165"/>
+      <c r="A148" s="165"/>
+      <c r="B148" s="166"/>
+      <c r="C148" s="172"/>
       <c r="D148" s="106">
         <f t="shared" ref="D148:D211" si="78">D108*10</f>
         <v>425</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A149" s="144"/>
-      <c r="B149" s="146"/>
-      <c r="C149" s="141">
+      <c r="A149" s="165"/>
+      <c r="B149" s="166"/>
+      <c r="C149" s="171">
         <f t="shared" si="76"/>
         <v>450</v>
       </c>
@@ -15518,21 +15518,21 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A150" s="144"/>
-      <c r="B150" s="146"/>
-      <c r="C150" s="165"/>
+      <c r="A150" s="165"/>
+      <c r="B150" s="166"/>
+      <c r="C150" s="172"/>
       <c r="D150" s="106">
         <f t="shared" si="78"/>
         <v>475</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A151" s="144"/>
-      <c r="B151" s="146">
+      <c r="A151" s="165"/>
+      <c r="B151" s="166">
         <f t="shared" ref="B151" si="79">C151</f>
         <v>500</v>
       </c>
-      <c r="C151" s="141">
+      <c r="C151" s="171">
         <f t="shared" si="76"/>
         <v>500</v>
       </c>
@@ -15542,18 +15542,18 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A152" s="144"/>
-      <c r="B152" s="146"/>
-      <c r="C152" s="165"/>
+      <c r="A152" s="165"/>
+      <c r="B152" s="166"/>
+      <c r="C152" s="172"/>
       <c r="D152" s="106">
         <f t="shared" si="78"/>
         <v>530</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A153" s="144"/>
-      <c r="B153" s="146"/>
-      <c r="C153" s="141">
+      <c r="A153" s="165"/>
+      <c r="B153" s="166"/>
+      <c r="C153" s="171">
         <f t="shared" si="76"/>
         <v>560</v>
       </c>
@@ -15563,24 +15563,24 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A154" s="144"/>
-      <c r="B154" s="146"/>
-      <c r="C154" s="165"/>
+      <c r="A154" s="165"/>
+      <c r="B154" s="166"/>
+      <c r="C154" s="172"/>
       <c r="D154" s="106">
         <f t="shared" si="78"/>
         <v>600</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A155" s="139">
+      <c r="A155" s="164">
         <f t="shared" si="63"/>
         <v>630</v>
       </c>
-      <c r="B155" s="146">
+      <c r="B155" s="166">
         <f t="shared" ref="B155" si="80">C155</f>
         <v>630</v>
       </c>
-      <c r="C155" s="141">
+      <c r="C155" s="171">
         <f t="shared" si="76"/>
         <v>630</v>
       </c>
@@ -15590,18 +15590,18 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A156" s="144"/>
-      <c r="B156" s="146"/>
-      <c r="C156" s="165"/>
+      <c r="A156" s="165"/>
+      <c r="B156" s="166"/>
+      <c r="C156" s="172"/>
       <c r="D156" s="106">
         <f t="shared" si="78"/>
         <v>670</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A157" s="144"/>
-      <c r="B157" s="146"/>
-      <c r="C157" s="141">
+      <c r="A157" s="165"/>
+      <c r="B157" s="166"/>
+      <c r="C157" s="171">
         <f t="shared" si="76"/>
         <v>710</v>
       </c>
@@ -15611,21 +15611,21 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A158" s="144"/>
-      <c r="B158" s="146"/>
-      <c r="C158" s="165"/>
+      <c r="A158" s="165"/>
+      <c r="B158" s="166"/>
+      <c r="C158" s="172"/>
       <c r="D158" s="106">
         <f t="shared" si="78"/>
         <v>750</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A159" s="144"/>
-      <c r="B159" s="146">
+      <c r="A159" s="165"/>
+      <c r="B159" s="166">
         <f t="shared" ref="B159" si="81">C159</f>
         <v>800</v>
       </c>
-      <c r="C159" s="141">
+      <c r="C159" s="171">
         <f t="shared" si="76"/>
         <v>800</v>
       </c>
@@ -15635,18 +15635,18 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A160" s="144"/>
-      <c r="B160" s="146"/>
-      <c r="C160" s="165"/>
+      <c r="A160" s="165"/>
+      <c r="B160" s="166"/>
+      <c r="C160" s="172"/>
       <c r="D160" s="106">
         <f t="shared" si="78"/>
         <v>850</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A161" s="144"/>
-      <c r="B161" s="146"/>
-      <c r="C161" s="141">
+      <c r="A161" s="165"/>
+      <c r="B161" s="166"/>
+      <c r="C161" s="171">
         <f t="shared" si="76"/>
         <v>900</v>
       </c>
@@ -15656,20 +15656,20 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A162" s="144"/>
-      <c r="B162" s="146"/>
-      <c r="C162" s="165"/>
+      <c r="A162" s="165"/>
+      <c r="B162" s="166"/>
+      <c r="C162" s="172"/>
       <c r="D162" s="106">
         <f t="shared" si="78"/>
         <v>950</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A163" s="139">
+      <c r="A163" s="164">
         <f t="shared" ref="A163:B175" si="82">B163</f>
         <v>1000</v>
       </c>
-      <c r="B163" s="146">
+      <c r="B163" s="166">
         <f t="shared" si="82"/>
         <v>1000</v>
       </c>
@@ -15683,8 +15683,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A164" s="144"/>
-      <c r="B164" s="146"/>
+      <c r="A164" s="165"/>
+      <c r="B164" s="166"/>
       <c r="C164" s="126">
         <f t="shared" si="76"/>
         <v>1060.0000000000002</v>
@@ -15695,8 +15695,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A165" s="144"/>
-      <c r="B165" s="146"/>
+      <c r="A165" s="165"/>
+      <c r="B165" s="166"/>
       <c r="C165" s="126">
         <f t="shared" si="76"/>
         <v>1120.0000000000002</v>
@@ -15707,8 +15707,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A166" s="144"/>
-      <c r="B166" s="146"/>
+      <c r="A166" s="165"/>
+      <c r="B166" s="166"/>
       <c r="C166" s="126">
         <f t="shared" si="76"/>
         <v>1179.9999999999998</v>
@@ -15719,8 +15719,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A167" s="144"/>
-      <c r="B167" s="146">
+      <c r="A167" s="165"/>
+      <c r="B167" s="166">
         <f t="shared" si="82"/>
         <v>1250</v>
       </c>
@@ -15734,8 +15734,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A168" s="144"/>
-      <c r="B168" s="146"/>
+      <c r="A168" s="165"/>
+      <c r="B168" s="166"/>
       <c r="C168" s="126">
         <f t="shared" si="76"/>
         <v>1320</v>
@@ -15746,8 +15746,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A169" s="144"/>
-      <c r="B169" s="146"/>
+      <c r="A169" s="165"/>
+      <c r="B169" s="166"/>
       <c r="C169" s="126">
         <f t="shared" si="76"/>
         <v>1400</v>
@@ -15758,8 +15758,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A170" s="144"/>
-      <c r="B170" s="146"/>
+      <c r="A170" s="165"/>
+      <c r="B170" s="166"/>
       <c r="C170" s="126">
         <f t="shared" si="76"/>
         <v>1500</v>
@@ -15770,11 +15770,11 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A171" s="139">
+      <c r="A171" s="164">
         <f t="shared" si="82"/>
         <v>1600</v>
       </c>
-      <c r="B171" s="146">
+      <c r="B171" s="166">
         <f t="shared" si="82"/>
         <v>1600</v>
       </c>
@@ -15788,8 +15788,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A172" s="144"/>
-      <c r="B172" s="146"/>
+      <c r="A172" s="165"/>
+      <c r="B172" s="166"/>
       <c r="C172" s="126">
         <f t="shared" si="76"/>
         <v>1700</v>
@@ -15800,8 +15800,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A173" s="144"/>
-      <c r="B173" s="146"/>
+      <c r="A173" s="165"/>
+      <c r="B173" s="166"/>
       <c r="C173" s="126">
         <f t="shared" si="76"/>
         <v>1800</v>
@@ -15812,8 +15812,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A174" s="144"/>
-      <c r="B174" s="146"/>
+      <c r="A174" s="165"/>
+      <c r="B174" s="166"/>
       <c r="C174" s="126">
         <f t="shared" si="76"/>
         <v>1900</v>
@@ -15824,8 +15824,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A175" s="144"/>
-      <c r="B175" s="146">
+      <c r="A175" s="165"/>
+      <c r="B175" s="166">
         <f t="shared" si="82"/>
         <v>2000</v>
       </c>
@@ -15839,8 +15839,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A176" s="144"/>
-      <c r="B176" s="146"/>
+      <c r="A176" s="165"/>
+      <c r="B176" s="166"/>
       <c r="C176" s="126">
         <f t="shared" si="76"/>
         <v>2120.0000000000005</v>
@@ -15851,8 +15851,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A177" s="144"/>
-      <c r="B177" s="146"/>
+      <c r="A177" s="165"/>
+      <c r="B177" s="166"/>
       <c r="C177" s="126">
         <f t="shared" si="76"/>
         <v>2240.0000000000005</v>
@@ -15863,8 +15863,8 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A178" s="145"/>
-      <c r="B178" s="147"/>
+      <c r="A178" s="168"/>
+      <c r="B178" s="167"/>
       <c r="C178" s="109">
         <f t="shared" si="76"/>
         <v>2359.9999999999995</v>
@@ -15875,11 +15875,11 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A179" s="139">
+      <c r="A179" s="164">
         <f t="shared" ref="A179" si="83">B179</f>
         <v>2500</v>
       </c>
-      <c r="B179" s="146">
+      <c r="B179" s="166">
         <f t="shared" ref="B179" si="84">C179</f>
         <v>2500</v>
       </c>
@@ -15893,8 +15893,8 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A180" s="144"/>
-      <c r="B180" s="146"/>
+      <c r="A180" s="165"/>
+      <c r="B180" s="166"/>
       <c r="C180" s="126">
         <f t="shared" si="85"/>
         <v>2650</v>
@@ -15905,8 +15905,8 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A181" s="144"/>
-      <c r="B181" s="146"/>
+      <c r="A181" s="165"/>
+      <c r="B181" s="166"/>
       <c r="C181" s="126">
         <f t="shared" si="85"/>
         <v>2800</v>
@@ -15917,8 +15917,8 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A182" s="144"/>
-      <c r="B182" s="146"/>
+      <c r="A182" s="165"/>
+      <c r="B182" s="166"/>
       <c r="C182" s="126">
         <f t="shared" si="85"/>
         <v>3000</v>
@@ -15929,8 +15929,8 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A183" s="144"/>
-      <c r="B183" s="146">
+      <c r="A183" s="165"/>
+      <c r="B183" s="166">
         <f t="shared" ref="B183" si="86">C183</f>
         <v>3150</v>
       </c>
@@ -15944,8 +15944,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A184" s="144"/>
-      <c r="B184" s="146"/>
+      <c r="A184" s="165"/>
+      <c r="B184" s="166"/>
       <c r="C184" s="126">
         <f t="shared" si="85"/>
         <v>3350</v>
@@ -15956,8 +15956,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A185" s="144"/>
-      <c r="B185" s="146"/>
+      <c r="A185" s="165"/>
+      <c r="B185" s="166"/>
       <c r="C185" s="126">
         <f t="shared" si="85"/>
         <v>3550</v>
@@ -15968,8 +15968,8 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A186" s="145"/>
-      <c r="B186" s="147"/>
+      <c r="A186" s="168"/>
+      <c r="B186" s="167"/>
       <c r="C186" s="109">
         <f t="shared" si="85"/>
         <v>3750</v>
@@ -15980,11 +15980,11 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A187" s="139">
+      <c r="A187" s="164">
         <f t="shared" ref="A187" si="87">B187</f>
         <v>4000</v>
       </c>
-      <c r="B187" s="146">
+      <c r="B187" s="166">
         <f t="shared" ref="B187" si="88">C187</f>
         <v>4000</v>
       </c>
@@ -15998,8 +15998,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A188" s="144"/>
-      <c r="B188" s="146"/>
+      <c r="A188" s="165"/>
+      <c r="B188" s="166"/>
       <c r="C188" s="126">
         <f t="shared" si="85"/>
         <v>4250</v>
@@ -16010,8 +16010,8 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A189" s="144"/>
-      <c r="B189" s="146"/>
+      <c r="A189" s="165"/>
+      <c r="B189" s="166"/>
       <c r="C189" s="126">
         <f t="shared" si="85"/>
         <v>4500</v>
@@ -16022,8 +16022,8 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A190" s="144"/>
-      <c r="B190" s="146"/>
+      <c r="A190" s="165"/>
+      <c r="B190" s="166"/>
       <c r="C190" s="126">
         <f t="shared" si="85"/>
         <v>4750</v>
@@ -16034,8 +16034,8 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A191" s="144"/>
-      <c r="B191" s="146">
+      <c r="A191" s="165"/>
+      <c r="B191" s="166">
         <f t="shared" ref="B191" si="89">C191</f>
         <v>5000</v>
       </c>
@@ -16049,8 +16049,8 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A192" s="144"/>
-      <c r="B192" s="146"/>
+      <c r="A192" s="165"/>
+      <c r="B192" s="166"/>
       <c r="C192" s="126">
         <f t="shared" si="85"/>
         <v>5300</v>
@@ -16061,8 +16061,8 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A193" s="144"/>
-      <c r="B193" s="146"/>
+      <c r="A193" s="165"/>
+      <c r="B193" s="166"/>
       <c r="C193" s="126">
         <f t="shared" si="85"/>
         <v>5600</v>
@@ -16073,8 +16073,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A194" s="145"/>
-      <c r="B194" s="147"/>
+      <c r="A194" s="168"/>
+      <c r="B194" s="167"/>
       <c r="C194" s="109">
         <f t="shared" si="85"/>
         <v>6000</v>
@@ -16085,11 +16085,11 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A195" s="139">
+      <c r="A195" s="164">
         <f t="shared" ref="A195" si="90">B195</f>
         <v>6300</v>
       </c>
-      <c r="B195" s="146">
+      <c r="B195" s="166">
         <f t="shared" ref="B195" si="91">C195</f>
         <v>6300</v>
       </c>
@@ -16103,8 +16103,8 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A196" s="144"/>
-      <c r="B196" s="146"/>
+      <c r="A196" s="165"/>
+      <c r="B196" s="166"/>
       <c r="C196" s="126">
         <f t="shared" si="85"/>
         <v>6700</v>
@@ -16115,8 +16115,8 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A197" s="144"/>
-      <c r="B197" s="146"/>
+      <c r="A197" s="165"/>
+      <c r="B197" s="166"/>
       <c r="C197" s="126">
         <f t="shared" si="85"/>
         <v>7100</v>
@@ -16127,8 +16127,8 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A198" s="144"/>
-      <c r="B198" s="146"/>
+      <c r="A198" s="165"/>
+      <c r="B198" s="166"/>
       <c r="C198" s="126">
         <f t="shared" si="85"/>
         <v>7500</v>
@@ -16139,8 +16139,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A199" s="144"/>
-      <c r="B199" s="146">
+      <c r="A199" s="165"/>
+      <c r="B199" s="166">
         <f t="shared" ref="B199" si="92">C199</f>
         <v>8000</v>
       </c>
@@ -16154,8 +16154,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A200" s="144"/>
-      <c r="B200" s="146"/>
+      <c r="A200" s="165"/>
+      <c r="B200" s="166"/>
       <c r="C200" s="126">
         <f t="shared" si="85"/>
         <v>8500</v>
@@ -16166,8 +16166,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A201" s="144"/>
-      <c r="B201" s="146"/>
+      <c r="A201" s="165"/>
+      <c r="B201" s="166"/>
       <c r="C201" s="126">
         <f t="shared" si="85"/>
         <v>9000</v>
@@ -16178,8 +16178,8 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A202" s="145"/>
-      <c r="B202" s="147"/>
+      <c r="A202" s="168"/>
+      <c r="B202" s="167"/>
       <c r="C202" s="109">
         <f t="shared" si="85"/>
         <v>9500</v>
@@ -16190,11 +16190,11 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A203" s="139">
+      <c r="A203" s="164">
         <f t="shared" ref="A203" si="93">B203</f>
         <v>10000</v>
       </c>
-      <c r="B203" s="146">
+      <c r="B203" s="166">
         <f t="shared" ref="B203" si="94">C203</f>
         <v>10000</v>
       </c>
@@ -16208,8 +16208,8 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A204" s="144"/>
-      <c r="B204" s="146"/>
+      <c r="A204" s="165"/>
+      <c r="B204" s="166"/>
       <c r="C204" s="126">
         <f t="shared" si="95"/>
         <v>10600.000000000002</v>
@@ -16220,8 +16220,8 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A205" s="144"/>
-      <c r="B205" s="146"/>
+      <c r="A205" s="165"/>
+      <c r="B205" s="166"/>
       <c r="C205" s="126">
         <f t="shared" si="95"/>
         <v>11200.000000000002</v>
@@ -16232,8 +16232,8 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A206" s="144"/>
-      <c r="B206" s="146"/>
+      <c r="A206" s="165"/>
+      <c r="B206" s="166"/>
       <c r="C206" s="126">
         <f t="shared" si="95"/>
         <v>11799.999999999998</v>
@@ -16244,8 +16244,8 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A207" s="144"/>
-      <c r="B207" s="146">
+      <c r="A207" s="165"/>
+      <c r="B207" s="166">
         <f t="shared" ref="B207" si="96">C207</f>
         <v>12500</v>
       </c>
@@ -16259,8 +16259,8 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A208" s="144"/>
-      <c r="B208" s="146"/>
+      <c r="A208" s="165"/>
+      <c r="B208" s="166"/>
       <c r="C208" s="126">
         <f t="shared" si="95"/>
         <v>13200</v>
@@ -16271,8 +16271,8 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A209" s="144"/>
-      <c r="B209" s="146"/>
+      <c r="A209" s="165"/>
+      <c r="B209" s="166"/>
       <c r="C209" s="126">
         <f t="shared" si="95"/>
         <v>14000</v>
@@ -16283,8 +16283,8 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A210" s="145"/>
-      <c r="B210" s="147"/>
+      <c r="A210" s="168"/>
+      <c r="B210" s="167"/>
       <c r="C210" s="109">
         <f t="shared" si="95"/>
         <v>15000</v>
@@ -16295,11 +16295,11 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A211" s="139">
+      <c r="A211" s="164">
         <f t="shared" ref="A211" si="97">B211</f>
         <v>16000</v>
       </c>
-      <c r="B211" s="146">
+      <c r="B211" s="166">
         <f t="shared" ref="B211" si="98">C211</f>
         <v>16000</v>
       </c>
@@ -16313,8 +16313,8 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A212" s="144"/>
-      <c r="B212" s="146"/>
+      <c r="A212" s="165"/>
+      <c r="B212" s="166"/>
       <c r="C212" s="126">
         <f t="shared" si="95"/>
         <v>17000</v>
@@ -16325,8 +16325,8 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A213" s="144"/>
-      <c r="B213" s="146"/>
+      <c r="A213" s="165"/>
+      <c r="B213" s="166"/>
       <c r="C213" s="126">
         <f t="shared" si="95"/>
         <v>18000</v>
@@ -16337,8 +16337,8 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A214" s="144"/>
-      <c r="B214" s="146"/>
+      <c r="A214" s="165"/>
+      <c r="B214" s="166"/>
       <c r="C214" s="126">
         <f t="shared" si="95"/>
         <v>19000</v>
@@ -16349,8 +16349,8 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A215" s="144"/>
-      <c r="B215" s="146">
+      <c r="A215" s="165"/>
+      <c r="B215" s="166">
         <f t="shared" ref="B215" si="100">C215</f>
         <v>20000</v>
       </c>
@@ -16364,8 +16364,8 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A216" s="144"/>
-      <c r="B216" s="146"/>
+      <c r="A216" s="165"/>
+      <c r="B216" s="166"/>
       <c r="C216" s="126">
         <f t="shared" si="95"/>
         <v>21200.000000000004</v>
@@ -16376,8 +16376,8 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A217" s="144"/>
-      <c r="B217" s="146"/>
+      <c r="A217" s="165"/>
+      <c r="B217" s="166"/>
       <c r="C217" s="126">
         <f t="shared" si="95"/>
         <v>22400.000000000004</v>
@@ -16388,8 +16388,8 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A218" s="145"/>
-      <c r="B218" s="147"/>
+      <c r="A218" s="168"/>
+      <c r="B218" s="167"/>
       <c r="C218" s="109">
         <f t="shared" si="95"/>
         <v>23599.999999999996</v>
@@ -16400,11 +16400,11 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A219" s="139">
+      <c r="A219" s="164">
         <f t="shared" ref="A219" si="101">B219</f>
         <v>25000</v>
       </c>
-      <c r="B219" s="146">
+      <c r="B219" s="166">
         <f t="shared" ref="B219" si="102">C219</f>
         <v>25000</v>
       </c>
@@ -16418,8 +16418,8 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A220" s="144"/>
-      <c r="B220" s="146"/>
+      <c r="A220" s="165"/>
+      <c r="B220" s="166"/>
       <c r="C220" s="126">
         <f t="shared" si="95"/>
         <v>26500</v>
@@ -16430,8 +16430,8 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A221" s="144"/>
-      <c r="B221" s="146"/>
+      <c r="A221" s="165"/>
+      <c r="B221" s="166"/>
       <c r="C221" s="126">
         <f t="shared" si="95"/>
         <v>28000</v>
@@ -16442,8 +16442,8 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A222" s="144"/>
-      <c r="B222" s="146"/>
+      <c r="A222" s="165"/>
+      <c r="B222" s="166"/>
       <c r="C222" s="126">
         <f t="shared" si="95"/>
         <v>30000</v>
@@ -16454,8 +16454,8 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A223" s="144"/>
-      <c r="B223" s="146">
+      <c r="A223" s="165"/>
+      <c r="B223" s="166">
         <f t="shared" ref="B223" si="103">C223</f>
         <v>31500</v>
       </c>
@@ -16469,8 +16469,8 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A224" s="144"/>
-      <c r="B224" s="146"/>
+      <c r="A224" s="165"/>
+      <c r="B224" s="166"/>
       <c r="C224" s="126">
         <f t="shared" si="95"/>
         <v>33500</v>
@@ -16481,8 +16481,8 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A225" s="144"/>
-      <c r="B225" s="146"/>
+      <c r="A225" s="165"/>
+      <c r="B225" s="166"/>
       <c r="C225" s="126">
         <f t="shared" si="95"/>
         <v>35500</v>
@@ -16493,8 +16493,8 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A226" s="145"/>
-      <c r="B226" s="147"/>
+      <c r="A226" s="168"/>
+      <c r="B226" s="167"/>
       <c r="C226" s="109">
         <f t="shared" si="95"/>
         <v>37500</v>
@@ -16505,11 +16505,11 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A227" s="139">
+      <c r="A227" s="164">
         <f t="shared" ref="A227" si="104">B227</f>
         <v>40000</v>
       </c>
-      <c r="B227" s="146">
+      <c r="B227" s="166">
         <f t="shared" ref="B227" si="105">C227</f>
         <v>40000</v>
       </c>
@@ -16523,8 +16523,8 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A228" s="144"/>
-      <c r="B228" s="146"/>
+      <c r="A228" s="165"/>
+      <c r="B228" s="166"/>
       <c r="C228" s="126">
         <f t="shared" si="95"/>
         <v>42500</v>
@@ -16535,8 +16535,8 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A229" s="144"/>
-      <c r="B229" s="146"/>
+      <c r="A229" s="165"/>
+      <c r="B229" s="166"/>
       <c r="C229" s="126">
         <f t="shared" si="95"/>
         <v>45000</v>
@@ -16547,8 +16547,8 @@
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A230" s="144"/>
-      <c r="B230" s="146"/>
+      <c r="A230" s="165"/>
+      <c r="B230" s="166"/>
       <c r="C230" s="126">
         <f t="shared" si="95"/>
         <v>47500</v>
@@ -16559,8 +16559,8 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A231" s="144"/>
-      <c r="B231" s="146">
+      <c r="A231" s="165"/>
+      <c r="B231" s="166">
         <f t="shared" ref="B231" si="106">C231</f>
         <v>50000</v>
       </c>
@@ -16574,8 +16574,8 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A232" s="144"/>
-      <c r="B232" s="146"/>
+      <c r="A232" s="165"/>
+      <c r="B232" s="166"/>
       <c r="C232" s="126">
         <f t="shared" si="95"/>
         <v>53000</v>
@@ -16586,8 +16586,8 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A233" s="144"/>
-      <c r="B233" s="146"/>
+      <c r="A233" s="165"/>
+      <c r="B233" s="166"/>
       <c r="C233" s="126">
         <f t="shared" si="95"/>
         <v>56000</v>
@@ -16598,8 +16598,8 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A234" s="145"/>
-      <c r="B234" s="147"/>
+      <c r="A234" s="168"/>
+      <c r="B234" s="167"/>
       <c r="C234" s="109">
         <f t="shared" si="95"/>
         <v>60000</v>
@@ -16610,11 +16610,11 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A235" s="139">
+      <c r="A235" s="164">
         <f t="shared" ref="A235" si="107">B235</f>
         <v>63000</v>
       </c>
-      <c r="B235" s="146">
+      <c r="B235" s="166">
         <f t="shared" ref="B235" si="108">C235</f>
         <v>63000</v>
       </c>
@@ -16628,8 +16628,8 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A236" s="144"/>
-      <c r="B236" s="146"/>
+      <c r="A236" s="165"/>
+      <c r="B236" s="166"/>
       <c r="C236" s="126">
         <f t="shared" si="95"/>
         <v>67000</v>
@@ -16640,8 +16640,8 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A237" s="144"/>
-      <c r="B237" s="146"/>
+      <c r="A237" s="165"/>
+      <c r="B237" s="166"/>
       <c r="C237" s="126">
         <f t="shared" si="95"/>
         <v>71000</v>
@@ -16652,8 +16652,8 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A238" s="144"/>
-      <c r="B238" s="146"/>
+      <c r="A238" s="165"/>
+      <c r="B238" s="166"/>
       <c r="C238" s="126">
         <f t="shared" si="95"/>
         <v>75000</v>
@@ -16664,8 +16664,8 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A239" s="144"/>
-      <c r="B239" s="146">
+      <c r="A239" s="165"/>
+      <c r="B239" s="166">
         <f t="shared" ref="B239" si="109">C239</f>
         <v>80000</v>
       </c>
@@ -16679,8 +16679,8 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A240" s="144"/>
-      <c r="B240" s="146"/>
+      <c r="A240" s="165"/>
+      <c r="B240" s="166"/>
       <c r="C240" s="126">
         <f t="shared" si="95"/>
         <v>85000</v>
@@ -16691,8 +16691,8 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A241" s="144"/>
-      <c r="B241" s="146"/>
+      <c r="A241" s="165"/>
+      <c r="B241" s="166"/>
       <c r="C241" s="126">
         <f t="shared" si="95"/>
         <v>90000</v>
@@ -16703,8 +16703,8 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A242" s="145"/>
-      <c r="B242" s="147"/>
+      <c r="A242" s="168"/>
+      <c r="B242" s="167"/>
       <c r="C242" s="109">
         <f t="shared" si="95"/>
         <v>95000</v>
@@ -16715,11 +16715,11 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A243" s="139">
+      <c r="A243" s="164">
         <f t="shared" ref="A243" si="110">B243</f>
         <v>100000</v>
       </c>
-      <c r="B243" s="146">
+      <c r="B243" s="166">
         <f t="shared" ref="B243" si="111">C243</f>
         <v>100000</v>
       </c>
@@ -16733,8 +16733,8 @@
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A244" s="144"/>
-      <c r="B244" s="146"/>
+      <c r="A244" s="165"/>
+      <c r="B244" s="166"/>
       <c r="C244" s="126">
         <f t="shared" si="95"/>
         <v>106000.00000000001</v>
@@ -16745,8 +16745,8 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A245" s="144"/>
-      <c r="B245" s="146"/>
+      <c r="A245" s="165"/>
+      <c r="B245" s="166"/>
       <c r="C245" s="126">
         <f t="shared" si="95"/>
         <v>112000.00000000001</v>
@@ -16757,8 +16757,8 @@
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A246" s="144"/>
-      <c r="B246" s="146"/>
+      <c r="A246" s="165"/>
+      <c r="B246" s="166"/>
       <c r="C246" s="126">
         <f t="shared" si="95"/>
         <v>117999.99999999999</v>
@@ -16769,8 +16769,8 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A247" s="144"/>
-      <c r="B247" s="146">
+      <c r="A247" s="165"/>
+      <c r="B247" s="166">
         <f t="shared" ref="B247" si="112">C247</f>
         <v>125000</v>
       </c>
@@ -16784,8 +16784,8 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A248" s="144"/>
-      <c r="B248" s="146"/>
+      <c r="A248" s="165"/>
+      <c r="B248" s="166"/>
       <c r="C248" s="126">
         <f t="shared" si="95"/>
         <v>132000</v>
@@ -16796,8 +16796,8 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A249" s="144"/>
-      <c r="B249" s="146"/>
+      <c r="A249" s="165"/>
+      <c r="B249" s="166"/>
       <c r="C249" s="126">
         <f t="shared" si="95"/>
         <v>140000</v>
@@ -16808,8 +16808,8 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A250" s="145"/>
-      <c r="B250" s="147"/>
+      <c r="A250" s="168"/>
+      <c r="B250" s="167"/>
       <c r="C250" s="109">
         <f t="shared" si="95"/>
         <v>150000</v>
@@ -16820,11 +16820,11 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A251" s="139">
+      <c r="A251" s="164">
         <f t="shared" ref="A251" si="113">B251</f>
         <v>160000</v>
       </c>
-      <c r="B251" s="146">
+      <c r="B251" s="166">
         <f t="shared" ref="B251" si="114">C251</f>
         <v>160000</v>
       </c>
@@ -16838,8 +16838,8 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A252" s="144"/>
-      <c r="B252" s="146"/>
+      <c r="A252" s="165"/>
+      <c r="B252" s="166"/>
       <c r="C252" s="126">
         <f t="shared" si="95"/>
         <v>170000</v>
@@ -16850,8 +16850,8 @@
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A253" s="144"/>
-      <c r="B253" s="146"/>
+      <c r="A253" s="165"/>
+      <c r="B253" s="166"/>
       <c r="C253" s="126">
         <f t="shared" si="95"/>
         <v>180000</v>
@@ -16862,8 +16862,8 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A254" s="144"/>
-      <c r="B254" s="146"/>
+      <c r="A254" s="165"/>
+      <c r="B254" s="166"/>
       <c r="C254" s="126">
         <f t="shared" si="95"/>
         <v>190000</v>
@@ -16874,8 +16874,8 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A255" s="144"/>
-      <c r="B255" s="146">
+      <c r="A255" s="165"/>
+      <c r="B255" s="166">
         <f t="shared" ref="B255" si="115">C255</f>
         <v>200000</v>
       </c>
@@ -16889,8 +16889,8 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A256" s="144"/>
-      <c r="B256" s="146"/>
+      <c r="A256" s="165"/>
+      <c r="B256" s="166"/>
       <c r="C256" s="126">
         <f t="shared" si="95"/>
         <v>212000.00000000003</v>
@@ -16901,8 +16901,8 @@
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A257" s="144"/>
-      <c r="B257" s="146"/>
+      <c r="A257" s="165"/>
+      <c r="B257" s="166"/>
       <c r="C257" s="126">
         <f t="shared" si="95"/>
         <v>224000.00000000003</v>
@@ -16913,8 +16913,8 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A258" s="145"/>
-      <c r="B258" s="147"/>
+      <c r="A258" s="168"/>
+      <c r="B258" s="167"/>
       <c r="C258" s="109">
         <f t="shared" si="95"/>
         <v>235999.99999999997</v>
@@ -16925,11 +16925,11 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A259" s="139">
+      <c r="A259" s="164">
         <f t="shared" ref="A259" si="116">B259</f>
         <v>250000</v>
       </c>
-      <c r="B259" s="146">
+      <c r="B259" s="166">
         <f t="shared" ref="B259" si="117">C259</f>
         <v>250000</v>
       </c>
@@ -16943,8 +16943,8 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A260" s="144"/>
-      <c r="B260" s="146"/>
+      <c r="A260" s="165"/>
+      <c r="B260" s="166"/>
       <c r="C260" s="126">
         <f t="shared" si="95"/>
         <v>265000</v>
@@ -16955,8 +16955,8 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A261" s="144"/>
-      <c r="B261" s="146"/>
+      <c r="A261" s="165"/>
+      <c r="B261" s="166"/>
       <c r="C261" s="126">
         <f t="shared" si="95"/>
         <v>280000</v>
@@ -16967,8 +16967,8 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A262" s="144"/>
-      <c r="B262" s="146"/>
+      <c r="A262" s="165"/>
+      <c r="B262" s="166"/>
       <c r="C262" s="126">
         <f t="shared" si="95"/>
         <v>300000</v>
@@ -16979,8 +16979,8 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A263" s="144"/>
-      <c r="B263" s="146">
+      <c r="A263" s="165"/>
+      <c r="B263" s="166">
         <f t="shared" ref="B263" si="118">C263</f>
         <v>315000</v>
       </c>
@@ -16994,8 +16994,8 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A264" s="144"/>
-      <c r="B264" s="146"/>
+      <c r="A264" s="165"/>
+      <c r="B264" s="166"/>
       <c r="C264" s="126">
         <f t="shared" si="95"/>
         <v>335000</v>
@@ -17006,8 +17006,8 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A265" s="144"/>
-      <c r="B265" s="146"/>
+      <c r="A265" s="165"/>
+      <c r="B265" s="166"/>
       <c r="C265" s="126">
         <f t="shared" si="95"/>
         <v>355000</v>
@@ -17018,8 +17018,8 @@
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A266" s="145"/>
-      <c r="B266" s="147"/>
+      <c r="A266" s="168"/>
+      <c r="B266" s="167"/>
       <c r="C266" s="109">
         <f t="shared" si="95"/>
         <v>375000</v>
@@ -17030,11 +17030,11 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A267" s="139">
+      <c r="A267" s="164">
         <f t="shared" ref="A267" si="119">B267</f>
         <v>400000</v>
       </c>
-      <c r="B267" s="146">
+      <c r="B267" s="166">
         <f t="shared" ref="B267" si="120">C267</f>
         <v>400000</v>
       </c>
@@ -17048,8 +17048,8 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A268" s="144"/>
-      <c r="B268" s="146"/>
+      <c r="A268" s="165"/>
+      <c r="B268" s="166"/>
       <c r="C268" s="126">
         <f t="shared" si="121"/>
         <v>425000</v>
@@ -17060,8 +17060,8 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A269" s="144"/>
-      <c r="B269" s="146"/>
+      <c r="A269" s="165"/>
+      <c r="B269" s="166"/>
       <c r="C269" s="126">
         <f t="shared" si="121"/>
         <v>450000</v>
@@ -17072,8 +17072,8 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A270" s="144"/>
-      <c r="B270" s="146"/>
+      <c r="A270" s="165"/>
+      <c r="B270" s="166"/>
       <c r="C270" s="126">
         <f t="shared" si="121"/>
         <v>475000</v>
@@ -17084,8 +17084,8 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A271" s="144"/>
-      <c r="B271" s="146">
+      <c r="A271" s="165"/>
+      <c r="B271" s="166">
         <f t="shared" ref="B271" si="122">C271</f>
         <v>500000</v>
       </c>
@@ -17099,8 +17099,8 @@
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A272" s="144"/>
-      <c r="B272" s="146"/>
+      <c r="A272" s="165"/>
+      <c r="B272" s="166"/>
       <c r="C272" s="126">
         <f t="shared" si="121"/>
         <v>530000</v>
@@ -17111,8 +17111,8 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A273" s="144"/>
-      <c r="B273" s="146"/>
+      <c r="A273" s="165"/>
+      <c r="B273" s="166"/>
       <c r="C273" s="126">
         <f t="shared" si="121"/>
         <v>560000</v>
@@ -17123,8 +17123,8 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A274" s="145"/>
-      <c r="B274" s="147"/>
+      <c r="A274" s="168"/>
+      <c r="B274" s="167"/>
       <c r="C274" s="109">
         <f t="shared" si="121"/>
         <v>600000</v>
@@ -17135,11 +17135,11 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A275" s="139">
+      <c r="A275" s="164">
         <f t="shared" ref="A275" si="123">B275</f>
         <v>630000</v>
       </c>
-      <c r="B275" s="146">
+      <c r="B275" s="166">
         <f t="shared" ref="B275" si="124">C275</f>
         <v>630000</v>
       </c>
@@ -17153,8 +17153,8 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A276" s="144"/>
-      <c r="B276" s="146"/>
+      <c r="A276" s="165"/>
+      <c r="B276" s="166"/>
       <c r="C276" s="126">
         <f t="shared" si="121"/>
         <v>670000</v>
@@ -17165,8 +17165,8 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A277" s="144"/>
-      <c r="B277" s="146"/>
+      <c r="A277" s="165"/>
+      <c r="B277" s="166"/>
       <c r="C277" s="126">
         <f t="shared" si="121"/>
         <v>710000</v>
@@ -17177,8 +17177,8 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A278" s="144"/>
-      <c r="B278" s="146"/>
+      <c r="A278" s="165"/>
+      <c r="B278" s="166"/>
       <c r="C278" s="126">
         <f t="shared" si="121"/>
         <v>750000</v>
@@ -17189,8 +17189,8 @@
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A279" s="144"/>
-      <c r="B279" s="146">
+      <c r="A279" s="165"/>
+      <c r="B279" s="166">
         <f t="shared" ref="B279" si="126">C279</f>
         <v>800000</v>
       </c>
@@ -17204,8 +17204,8 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A280" s="144"/>
-      <c r="B280" s="146"/>
+      <c r="A280" s="165"/>
+      <c r="B280" s="166"/>
       <c r="C280" s="126">
         <f t="shared" si="121"/>
         <v>850000</v>
@@ -17216,8 +17216,8 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A281" s="144"/>
-      <c r="B281" s="146"/>
+      <c r="A281" s="165"/>
+      <c r="B281" s="166"/>
       <c r="C281" s="126">
         <f t="shared" si="121"/>
         <v>900000</v>
@@ -17228,8 +17228,8 @@
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A282" s="145"/>
-      <c r="B282" s="147"/>
+      <c r="A282" s="168"/>
+      <c r="B282" s="167"/>
       <c r="C282" s="109">
         <f t="shared" si="121"/>
         <v>950000</v>
@@ -17240,11 +17240,11 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A283" s="139">
+      <c r="A283" s="164">
         <f t="shared" ref="A283" si="127">B283</f>
         <v>1000000</v>
       </c>
-      <c r="B283" s="146">
+      <c r="B283" s="166">
         <f t="shared" ref="B283" si="128">C283</f>
         <v>1000000</v>
       </c>
@@ -17258,8 +17258,8 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A284" s="144"/>
-      <c r="B284" s="146"/>
+      <c r="A284" s="165"/>
+      <c r="B284" s="166"/>
       <c r="C284" s="126">
         <f t="shared" si="121"/>
         <v>1060000.0000000002</v>
@@ -17270,8 +17270,8 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A285" s="144"/>
-      <c r="B285" s="146"/>
+      <c r="A285" s="165"/>
+      <c r="B285" s="166"/>
       <c r="C285" s="126">
         <f t="shared" si="121"/>
         <v>1120000.0000000002</v>
@@ -17282,8 +17282,8 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A286" s="144"/>
-      <c r="B286" s="146"/>
+      <c r="A286" s="165"/>
+      <c r="B286" s="166"/>
       <c r="C286" s="126">
         <f t="shared" si="121"/>
         <v>1179999.9999999998</v>
@@ -17294,8 +17294,8 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A287" s="144"/>
-      <c r="B287" s="146">
+      <c r="A287" s="165"/>
+      <c r="B287" s="166">
         <f t="shared" ref="B287" si="129">C287</f>
         <v>1250000</v>
       </c>
@@ -17309,8 +17309,8 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A288" s="144"/>
-      <c r="B288" s="146"/>
+      <c r="A288" s="165"/>
+      <c r="B288" s="166"/>
       <c r="C288" s="126">
         <f t="shared" si="121"/>
         <v>1320000</v>
@@ -17321,8 +17321,8 @@
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A289" s="144"/>
-      <c r="B289" s="146"/>
+      <c r="A289" s="165"/>
+      <c r="B289" s="166"/>
       <c r="C289" s="126">
         <f t="shared" si="121"/>
         <v>1400000</v>
@@ -17333,8 +17333,8 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A290" s="145"/>
-      <c r="B290" s="147"/>
+      <c r="A290" s="168"/>
+      <c r="B290" s="167"/>
       <c r="C290" s="109">
         <f t="shared" si="121"/>
         <v>1500000</v>
@@ -17345,11 +17345,11 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A291" s="139">
+      <c r="A291" s="164">
         <f t="shared" ref="A291" si="130">B291</f>
         <v>1600000</v>
       </c>
-      <c r="B291" s="146">
+      <c r="B291" s="166">
         <f t="shared" ref="B291" si="131">C291</f>
         <v>1600000</v>
       </c>
@@ -17363,8 +17363,8 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A292" s="144"/>
-      <c r="B292" s="146"/>
+      <c r="A292" s="165"/>
+      <c r="B292" s="166"/>
       <c r="C292" s="126">
         <f t="shared" si="132"/>
         <v>1700000</v>
@@ -17375,8 +17375,8 @@
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A293" s="144"/>
-      <c r="B293" s="146"/>
+      <c r="A293" s="165"/>
+      <c r="B293" s="166"/>
       <c r="C293" s="126">
         <f t="shared" si="132"/>
         <v>1800000</v>
@@ -17387,8 +17387,8 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A294" s="144"/>
-      <c r="B294" s="146"/>
+      <c r="A294" s="165"/>
+      <c r="B294" s="166"/>
       <c r="C294" s="126">
         <f t="shared" si="132"/>
         <v>1900000</v>
@@ -17399,8 +17399,8 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A295" s="144"/>
-      <c r="B295" s="146">
+      <c r="A295" s="165"/>
+      <c r="B295" s="166">
         <f t="shared" ref="B295" si="133">C295</f>
         <v>2000000</v>
       </c>
@@ -17414,8 +17414,8 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A296" s="144"/>
-      <c r="B296" s="146"/>
+      <c r="A296" s="165"/>
+      <c r="B296" s="166"/>
       <c r="C296" s="126">
         <f t="shared" si="132"/>
         <v>2120000.0000000005</v>
@@ -17426,8 +17426,8 @@
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A297" s="144"/>
-      <c r="B297" s="146"/>
+      <c r="A297" s="165"/>
+      <c r="B297" s="166"/>
       <c r="C297" s="126">
         <f t="shared" si="132"/>
         <v>2240000.0000000005</v>
@@ -17438,8 +17438,8 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A298" s="145"/>
-      <c r="B298" s="147"/>
+      <c r="A298" s="168"/>
+      <c r="B298" s="167"/>
       <c r="C298" s="109">
         <f t="shared" si="132"/>
         <v>2359999.9999999995</v>
@@ -17450,11 +17450,11 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A299" s="139">
+      <c r="A299" s="164">
         <f t="shared" ref="A299" si="134">B299</f>
         <v>2500000</v>
       </c>
-      <c r="B299" s="146">
+      <c r="B299" s="166">
         <f t="shared" ref="B299" si="135">C299</f>
         <v>2500000</v>
       </c>
@@ -17468,8 +17468,8 @@
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A300" s="144"/>
-      <c r="B300" s="146"/>
+      <c r="A300" s="165"/>
+      <c r="B300" s="166"/>
       <c r="C300" s="126">
         <f t="shared" si="136"/>
         <v>2650000</v>
@@ -17480,8 +17480,8 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A301" s="144"/>
-      <c r="B301" s="146"/>
+      <c r="A301" s="165"/>
+      <c r="B301" s="166"/>
       <c r="C301" s="126">
         <f t="shared" si="136"/>
         <v>2800000</v>
@@ -17492,8 +17492,8 @@
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A302" s="144"/>
-      <c r="B302" s="146"/>
+      <c r="A302" s="165"/>
+      <c r="B302" s="166"/>
       <c r="C302" s="126">
         <f t="shared" si="136"/>
         <v>3000000</v>
@@ -17504,8 +17504,8 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A303" s="144"/>
-      <c r="B303" s="146">
+      <c r="A303" s="165"/>
+      <c r="B303" s="166">
         <f t="shared" ref="B303" si="137">C303</f>
         <v>3150000</v>
       </c>
@@ -17519,8 +17519,8 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A304" s="144"/>
-      <c r="B304" s="146"/>
+      <c r="A304" s="165"/>
+      <c r="B304" s="166"/>
       <c r="C304" s="126">
         <f t="shared" si="136"/>
         <v>3350000</v>
@@ -17531,8 +17531,8 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A305" s="144"/>
-      <c r="B305" s="146"/>
+      <c r="A305" s="165"/>
+      <c r="B305" s="166"/>
       <c r="C305" s="126">
         <f t="shared" si="136"/>
         <v>3550000</v>
@@ -17543,8 +17543,8 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A306" s="145"/>
-      <c r="B306" s="147"/>
+      <c r="A306" s="168"/>
+      <c r="B306" s="167"/>
       <c r="C306" s="109">
         <f t="shared" si="136"/>
         <v>3750000</v>
@@ -17555,11 +17555,11 @@
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A307" s="139">
+      <c r="A307" s="164">
         <f t="shared" ref="A307" si="138">B307</f>
         <v>4000000</v>
       </c>
-      <c r="B307" s="146">
+      <c r="B307" s="166">
         <f t="shared" ref="B307" si="139">C307</f>
         <v>4000000</v>
       </c>
@@ -17573,8 +17573,8 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A308" s="144"/>
-      <c r="B308" s="146"/>
+      <c r="A308" s="165"/>
+      <c r="B308" s="166"/>
       <c r="C308" s="126">
         <f t="shared" si="140"/>
         <v>4250000</v>
@@ -17585,8 +17585,8 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A309" s="144"/>
-      <c r="B309" s="146"/>
+      <c r="A309" s="165"/>
+      <c r="B309" s="166"/>
       <c r="C309" s="126">
         <f t="shared" si="140"/>
         <v>4500000</v>
@@ -17597,8 +17597,8 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A310" s="144"/>
-      <c r="B310" s="146"/>
+      <c r="A310" s="165"/>
+      <c r="B310" s="166"/>
       <c r="C310" s="126">
         <f t="shared" si="140"/>
         <v>4750000</v>
@@ -17609,8 +17609,8 @@
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A311" s="144"/>
-      <c r="B311" s="146">
+      <c r="A311" s="165"/>
+      <c r="B311" s="166">
         <f t="shared" ref="B311" si="141">C311</f>
         <v>5000000</v>
       </c>
@@ -17624,8 +17624,8 @@
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A312" s="144"/>
-      <c r="B312" s="146"/>
+      <c r="A312" s="165"/>
+      <c r="B312" s="166"/>
       <c r="C312" s="126">
         <f t="shared" si="140"/>
         <v>5300000</v>
@@ -17636,8 +17636,8 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A313" s="144"/>
-      <c r="B313" s="146"/>
+      <c r="A313" s="165"/>
+      <c r="B313" s="166"/>
       <c r="C313" s="126">
         <f t="shared" si="140"/>
         <v>5600000</v>
@@ -17648,8 +17648,8 @@
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A314" s="145"/>
-      <c r="B314" s="147"/>
+      <c r="A314" s="168"/>
+      <c r="B314" s="167"/>
       <c r="C314" s="109">
         <f t="shared" si="140"/>
         <v>6000000</v>
@@ -17660,11 +17660,11 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A315" s="139">
+      <c r="A315" s="164">
         <f t="shared" ref="A315" si="142">B315</f>
         <v>6300000</v>
       </c>
-      <c r="B315" s="146">
+      <c r="B315" s="166">
         <f t="shared" ref="B315" si="143">C315</f>
         <v>6300000</v>
       </c>
@@ -17678,8 +17678,8 @@
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A316" s="144"/>
-      <c r="B316" s="146"/>
+      <c r="A316" s="165"/>
+      <c r="B316" s="166"/>
       <c r="C316" s="126">
         <f t="shared" si="140"/>
         <v>6700000</v>
@@ -17690,8 +17690,8 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A317" s="144"/>
-      <c r="B317" s="146"/>
+      <c r="A317" s="165"/>
+      <c r="B317" s="166"/>
       <c r="C317" s="126">
         <f t="shared" si="140"/>
         <v>7100000</v>
@@ -17702,8 +17702,8 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A318" s="144"/>
-      <c r="B318" s="146"/>
+      <c r="A318" s="165"/>
+      <c r="B318" s="166"/>
       <c r="C318" s="126">
         <f t="shared" si="140"/>
         <v>7500000</v>
@@ -17714,8 +17714,8 @@
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A319" s="144"/>
-      <c r="B319" s="146">
+      <c r="A319" s="165"/>
+      <c r="B319" s="166">
         <f t="shared" ref="B319" si="144">C319</f>
         <v>8000000</v>
       </c>
@@ -17729,8 +17729,8 @@
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A320" s="144"/>
-      <c r="B320" s="146"/>
+      <c r="A320" s="165"/>
+      <c r="B320" s="166"/>
       <c r="C320" s="126">
         <f t="shared" si="140"/>
         <v>8500000</v>
@@ -17741,8 +17741,8 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A321" s="144"/>
-      <c r="B321" s="146"/>
+      <c r="A321" s="165"/>
+      <c r="B321" s="166"/>
       <c r="C321" s="126">
         <f t="shared" si="140"/>
         <v>9000000</v>
@@ -17753,8 +17753,8 @@
       </c>
     </row>
     <row r="322" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A322" s="148"/>
-      <c r="B322" s="149"/>
+      <c r="A322" s="186"/>
+      <c r="B322" s="187"/>
       <c r="C322" s="110">
         <f t="shared" si="140"/>
         <v>9500000</v>
@@ -17766,129 +17766,92 @@
     </row>
   </sheetData>
   <mergeCells count="233">
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="P1:P4"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="S1:S4"/>
-    <mergeCell ref="T1:T4"/>
-    <mergeCell ref="V1:V4"/>
-    <mergeCell ref="W1:W4"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="U1:U4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="A123:A130"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B135:B138"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="A131:A138"/>
-    <mergeCell ref="A139:A146"/>
-    <mergeCell ref="A147:A154"/>
-    <mergeCell ref="A155:A162"/>
-    <mergeCell ref="A163:A170"/>
-    <mergeCell ref="A171:A178"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="A91:A98"/>
-    <mergeCell ref="A99:A106"/>
-    <mergeCell ref="A107:A114"/>
-    <mergeCell ref="A115:A122"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="A75:A82"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A259:A266"/>
+    <mergeCell ref="B259:B262"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="A267:A274"/>
+    <mergeCell ref="B267:B270"/>
+    <mergeCell ref="B271:B274"/>
+    <mergeCell ref="A275:A282"/>
+    <mergeCell ref="B275:B278"/>
+    <mergeCell ref="B279:B282"/>
+    <mergeCell ref="A235:A242"/>
+    <mergeCell ref="B235:B238"/>
+    <mergeCell ref="B239:B242"/>
+    <mergeCell ref="A243:A250"/>
+    <mergeCell ref="B243:B246"/>
+    <mergeCell ref="A315:A322"/>
+    <mergeCell ref="B315:B318"/>
+    <mergeCell ref="B319:B322"/>
+    <mergeCell ref="A283:A290"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="B287:B290"/>
+    <mergeCell ref="A291:A298"/>
+    <mergeCell ref="B291:B294"/>
+    <mergeCell ref="B295:B298"/>
+    <mergeCell ref="A299:A306"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="B303:B306"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="A251:A258"/>
+    <mergeCell ref="B251:B254"/>
+    <mergeCell ref="B255:B258"/>
+    <mergeCell ref="A307:A314"/>
+    <mergeCell ref="B307:B310"/>
+    <mergeCell ref="B311:B314"/>
+    <mergeCell ref="A211:A218"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="B215:B218"/>
+    <mergeCell ref="A219:A226"/>
+    <mergeCell ref="B219:B222"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="A227:A234"/>
+    <mergeCell ref="B227:B230"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="A187:A194"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="B191:B194"/>
+    <mergeCell ref="A195:A202"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="B199:B202"/>
+    <mergeCell ref="A203:A210"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="B207:B210"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="B43:B46"/>
@@ -17913,92 +17876,129 @@
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="B67:B70"/>
     <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A187:A194"/>
-    <mergeCell ref="B187:B190"/>
-    <mergeCell ref="B191:B194"/>
-    <mergeCell ref="A195:A202"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="B199:B202"/>
-    <mergeCell ref="A203:A210"/>
-    <mergeCell ref="B203:B206"/>
-    <mergeCell ref="B207:B210"/>
-    <mergeCell ref="A211:A218"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="B215:B218"/>
-    <mergeCell ref="A219:A226"/>
-    <mergeCell ref="B219:B222"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="A227:A234"/>
-    <mergeCell ref="B227:B230"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="A235:A242"/>
-    <mergeCell ref="B235:B238"/>
-    <mergeCell ref="B239:B242"/>
-    <mergeCell ref="A243:A250"/>
-    <mergeCell ref="B243:B246"/>
-    <mergeCell ref="A315:A322"/>
-    <mergeCell ref="B315:B318"/>
-    <mergeCell ref="B319:B322"/>
-    <mergeCell ref="A283:A290"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="B287:B290"/>
-    <mergeCell ref="A291:A298"/>
-    <mergeCell ref="B291:B294"/>
-    <mergeCell ref="B295:B298"/>
-    <mergeCell ref="A299:A306"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="B303:B306"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="A251:A258"/>
-    <mergeCell ref="B251:B254"/>
-    <mergeCell ref="B255:B258"/>
-    <mergeCell ref="A307:A314"/>
-    <mergeCell ref="B307:B310"/>
-    <mergeCell ref="B311:B314"/>
-    <mergeCell ref="A259:A266"/>
-    <mergeCell ref="B259:B262"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="A267:A274"/>
-    <mergeCell ref="B267:B270"/>
-    <mergeCell ref="B271:B274"/>
-    <mergeCell ref="A275:A282"/>
-    <mergeCell ref="B275:B278"/>
-    <mergeCell ref="B279:B282"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="A75:A82"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="A91:A98"/>
+    <mergeCell ref="A99:A106"/>
+    <mergeCell ref="A107:A114"/>
+    <mergeCell ref="A115:A122"/>
+    <mergeCell ref="A123:A130"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="A131:A138"/>
+    <mergeCell ref="A139:A146"/>
+    <mergeCell ref="A147:A154"/>
+    <mergeCell ref="A155:A162"/>
+    <mergeCell ref="A163:A170"/>
+    <mergeCell ref="A171:A178"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="S1:S4"/>
+    <mergeCell ref="T1:T4"/>
+    <mergeCell ref="V1:V4"/>
+    <mergeCell ref="W1:W4"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="U1:U4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18492,8 +18492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CDC5E8-9443-492D-AC89-80629056443A}">
   <dimension ref="A1:AL142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18517,13 +18517,13 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="141" t="s">
         <v>735</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="158" t="s">
         <v>736</v>
       </c>
-      <c r="C2" s="168" t="s">
+      <c r="C2" s="142" t="s">
         <v>737</v>
       </c>
       <c r="E2" s="68" t="s">
@@ -18568,11 +18568,11 @@
       <c r="R2" s="71" t="s">
         <v>743</v>
       </c>
-      <c r="T2" s="212" t="s">
+      <c r="T2" s="195" t="s">
         <v>208</v>
       </c>
-      <c r="U2" s="213"/>
-      <c r="V2" s="214"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="197"/>
       <c r="W2" s="79">
         <v>0.6</v>
       </c>
@@ -18623,9 +18623,9 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="172"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="194"/>
+      <c r="A3" s="154"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="191"/>
       <c r="E3" s="66">
         <v>6</v>
       </c>
@@ -18669,11 +18669,11 @@
         <f>ROUND(Q3*9.80665,3)</f>
         <v>0.19600000000000001</v>
       </c>
-      <c r="T3" s="212" t="s">
+      <c r="T3" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="213"/>
-      <c r="V3" s="214"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="197"/>
       <c r="W3" s="79">
         <v>0.5</v>
       </c>
@@ -18776,11 +18776,11 @@
         <f t="shared" ref="R4:R28" si="0">ROUND(Q4*9.80665,3)</f>
         <v>0.39200000000000002</v>
       </c>
-      <c r="T4" s="212" t="s">
+      <c r="T4" s="195" t="s">
         <v>511</v>
       </c>
-      <c r="U4" s="213"/>
-      <c r="V4" s="214"/>
+      <c r="U4" s="196"/>
+      <c r="V4" s="197"/>
       <c r="W4" s="79">
         <v>1</v>
       </c>
@@ -18883,11 +18883,11 @@
         <f t="shared" si="0"/>
         <v>0.58799999999999997</v>
       </c>
-      <c r="T5" s="212" t="s">
+      <c r="T5" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="213"/>
-      <c r="V5" s="214"/>
+      <c r="U5" s="196"/>
+      <c r="V5" s="197"/>
       <c r="W5" s="79">
         <v>2</v>
       </c>
@@ -18990,11 +18990,11 @@
         <f t="shared" si="0"/>
         <v>0.68600000000000005</v>
       </c>
-      <c r="T6" s="212" t="s">
+      <c r="T6" s="195" t="s">
         <v>205</v>
       </c>
-      <c r="U6" s="213"/>
-      <c r="V6" s="214"/>
+      <c r="U6" s="196"/>
+      <c r="V6" s="197"/>
       <c r="W6" s="79">
         <v>1.6</v>
       </c>
@@ -19097,10 +19097,10 @@
         <f t="shared" si="0"/>
         <v>0.78500000000000003</v>
       </c>
-      <c r="T7" s="215" t="s">
+      <c r="T7" s="192" t="s">
         <v>744</v>
       </c>
-      <c r="U7" s="167" t="s">
+      <c r="U7" s="155" t="s">
         <v>745</v>
       </c>
       <c r="V7" s="118" t="s">
@@ -19223,8 +19223,8 @@
         <f t="shared" si="0"/>
         <v>0.88300000000000001</v>
       </c>
-      <c r="T8" s="216"/>
-      <c r="U8" s="173"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="157"/>
       <c r="V8" s="128" t="s">
         <v>747</v>
       </c>
@@ -19330,8 +19330,8 @@
         <f t="shared" si="0"/>
         <v>1.4710000000000001</v>
       </c>
-      <c r="T9" s="216"/>
-      <c r="U9" s="218" t="s">
+      <c r="T9" s="193"/>
+      <c r="U9" s="198" t="s">
         <v>748</v>
       </c>
       <c r="V9" s="132" t="str">
@@ -19455,8 +19455,8 @@
         <f t="shared" si="0"/>
         <v>1.7649999999999999</v>
       </c>
-      <c r="T10" s="217"/>
-      <c r="U10" s="219"/>
+      <c r="T10" s="194"/>
+      <c r="U10" s="199"/>
       <c r="V10" s="78" t="str">
         <f>V8</f>
         <v>以下</v>
@@ -19563,11 +19563,11 @@
         <f t="shared" si="0"/>
         <v>2.9420000000000002</v>
       </c>
-      <c r="T11" s="212" t="s">
+      <c r="T11" s="195" t="s">
         <v>749</v>
       </c>
-      <c r="U11" s="213"/>
-      <c r="V11" s="214"/>
+      <c r="U11" s="196"/>
+      <c r="V11" s="197"/>
       <c r="W11" s="79">
         <v>0.6</v>
       </c>
@@ -19784,10 +19784,10 @@
         <f t="shared" si="0"/>
         <v>8.4339999999999993</v>
       </c>
-      <c r="T14" s="166" t="s">
+      <c r="T14" s="141" t="s">
         <v>750</v>
       </c>
-      <c r="U14" s="168"/>
+      <c r="U14" s="142"/>
       <c r="V14" s="84">
         <v>250</v>
       </c>
@@ -19806,12 +19806,12 @@
       <c r="AA14" s="83">
         <v>500</v>
       </c>
-      <c r="AC14" s="195"/>
-      <c r="AD14" s="196"/>
-      <c r="AE14" s="202" t="s">
+      <c r="AC14" s="210"/>
+      <c r="AD14" s="211"/>
+      <c r="AE14" s="207" t="s">
         <v>751</v>
       </c>
-      <c r="AF14" s="167"/>
+      <c r="AF14" s="155"/>
       <c r="AG14" s="118" t="s">
         <v>398</v>
       </c>
@@ -19869,10 +19869,10 @@
         <f t="shared" si="0"/>
         <v>9.8070000000000004</v>
       </c>
-      <c r="T15" s="171" t="s">
+      <c r="T15" s="139" t="s">
         <v>752</v>
       </c>
-      <c r="U15" s="170"/>
+      <c r="U15" s="140"/>
       <c r="V15" s="85">
         <v>50</v>
       </c>
@@ -19891,8 +19891,8 @@
       <c r="AA15" s="50">
         <v>120</v>
       </c>
-      <c r="AC15" s="197"/>
-      <c r="AD15" s="198"/>
+      <c r="AC15" s="212"/>
+      <c r="AD15" s="213"/>
       <c r="AE15" s="92" t="s">
         <v>389</v>
       </c>
@@ -19956,10 +19956,10 @@
         <f t="shared" si="0"/>
         <v>11.67</v>
       </c>
-      <c r="T16" s="171" t="s">
+      <c r="T16" s="139" t="s">
         <v>753</v>
       </c>
-      <c r="U16" s="170"/>
+      <c r="U16" s="140"/>
       <c r="V16" s="85">
         <f>V15</f>
         <v>50</v>
@@ -19993,10 +19993,10 @@
       <c r="AE16" s="91" t="s">
         <v>754</v>
       </c>
-      <c r="AF16" s="203">
+      <c r="AF16" s="208">
         <v>12.5</v>
       </c>
-      <c r="AG16" s="204" t="s">
+      <c r="AG16" s="209" t="s">
         <v>694</v>
       </c>
     </row>
@@ -20053,10 +20053,10 @@
         <f t="shared" si="0"/>
         <v>13.141</v>
       </c>
-      <c r="T17" s="171" t="s">
+      <c r="T17" s="139" t="s">
         <v>755</v>
       </c>
-      <c r="U17" s="170"/>
+      <c r="U17" s="140"/>
       <c r="V17" s="85">
         <v>2</v>
       </c>
@@ -20084,8 +20084,8 @@
       <c r="AE17" s="85" t="s">
         <v>505</v>
       </c>
-      <c r="AF17" s="169"/>
-      <c r="AG17" s="170"/>
+      <c r="AF17" s="156"/>
+      <c r="AG17" s="140"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A18" s="51">
@@ -20140,10 +20140,10 @@
         <f t="shared" si="0"/>
         <v>15.298</v>
       </c>
-      <c r="T18" s="171" t="s">
+      <c r="T18" s="139" t="s">
         <v>757</v>
       </c>
-      <c r="U18" s="170"/>
+      <c r="U18" s="140"/>
       <c r="V18" s="85">
         <f>V16</f>
         <v>50</v>
@@ -20179,10 +20179,10 @@
         <f>AE16</f>
         <v>*1.8</v>
       </c>
-      <c r="AF18" s="169">
+      <c r="AF18" s="156">
         <v>16</v>
       </c>
-      <c r="AG18" s="170" t="s">
+      <c r="AG18" s="140" t="s">
         <v>695</v>
       </c>
     </row>
@@ -20239,10 +20239,10 @@
         <f t="shared" si="0"/>
         <v>17.161999999999999</v>
       </c>
-      <c r="T19" s="172" t="s">
+      <c r="T19" s="154" t="s">
         <v>758</v>
       </c>
-      <c r="U19" s="194"/>
+      <c r="U19" s="191"/>
       <c r="V19" s="86">
         <v>5</v>
       </c>
@@ -20272,8 +20272,8 @@
         <f>AE17</f>
         <v>*2</v>
       </c>
-      <c r="AF19" s="173"/>
-      <c r="AG19" s="194"/>
+      <c r="AF19" s="157"/>
+      <c r="AG19" s="191"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A20" s="51">
@@ -20475,14 +20475,14 @@
       <c r="AD22" s="81" t="s">
         <v>738</v>
       </c>
-      <c r="AG22" s="166" t="s">
+      <c r="AG22" s="141" t="s">
         <v>759</v>
       </c>
-      <c r="AH22" s="167"/>
-      <c r="AI22" s="167" t="s">
+      <c r="AH22" s="155"/>
+      <c r="AI22" s="155" t="s">
         <v>760</v>
       </c>
-      <c r="AJ22" s="168"/>
+      <c r="AJ22" s="142"/>
     </row>
     <row r="23" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="51">
@@ -21124,26 +21124,26 @@
       <c r="T34" s="129" t="s">
         <v>237</v>
       </c>
-      <c r="X34" s="199" t="s">
+      <c r="X34" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="Y34" s="193" t="s">
+      <c r="Y34" s="216" t="s">
         <v>313</v>
       </c>
-      <c r="Z34" s="193" t="s">
+      <c r="Z34" s="216" t="s">
         <v>68</v>
       </c>
-      <c r="AA34" s="193" t="s">
+      <c r="AA34" s="216" t="s">
         <v>740</v>
       </c>
-      <c r="AB34" s="193" t="s">
+      <c r="AB34" s="216" t="s">
         <v>764</v>
       </c>
-      <c r="AC34" s="193" t="s">
+      <c r="AC34" s="216" t="s">
         <v>765</v>
       </c>
-      <c r="AD34" s="193"/>
-      <c r="AE34" s="191" t="s">
+      <c r="AD34" s="216"/>
+      <c r="AE34" s="218" t="s">
         <v>766</v>
       </c>
       <c r="AG34" s="117" t="s">
@@ -21206,18 +21206,18 @@
       <c r="T35" s="83">
         <v>0.5</v>
       </c>
-      <c r="X35" s="200"/>
-      <c r="Y35" s="201"/>
-      <c r="Z35" s="201"/>
-      <c r="AA35" s="201"/>
-      <c r="AB35" s="201"/>
+      <c r="X35" s="215"/>
+      <c r="Y35" s="217"/>
+      <c r="Z35" s="217"/>
+      <c r="AA35" s="217"/>
+      <c r="AB35" s="217"/>
       <c r="AC35" s="123" t="s">
         <v>770</v>
       </c>
       <c r="AD35" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="AE35" s="192"/>
+      <c r="AE35" s="219"/>
       <c r="AG35" s="120" t="s">
         <v>3</v>
       </c>
@@ -21705,7 +21705,7 @@
       <c r="A42" s="74">
         <v>12</v>
       </c>
-      <c r="E42" s="205" t="s">
+      <c r="E42" s="200" t="s">
         <v>776</v>
       </c>
       <c r="F42" s="51">
@@ -21786,7 +21786,7 @@
       <c r="A43" s="74">
         <v>13</v>
       </c>
-      <c r="E43" s="205"/>
+      <c r="E43" s="200"/>
       <c r="F43" s="51">
         <v>12</v>
       </c>
@@ -21864,7 +21864,7 @@
       <c r="A44" s="74">
         <v>16</v>
       </c>
-      <c r="E44" s="205"/>
+      <c r="E44" s="200"/>
       <c r="F44" s="51">
         <v>14</v>
       </c>
@@ -21942,7 +21942,7 @@
       <c r="A45" s="74">
         <v>19</v>
       </c>
-      <c r="E45" s="205"/>
+      <c r="E45" s="200"/>
       <c r="F45" s="51">
         <v>16</v>
       </c>
@@ -22020,7 +22020,7 @@
       <c r="A46" s="74">
         <v>20</v>
       </c>
-      <c r="E46" s="205"/>
+      <c r="E46" s="200"/>
       <c r="F46" s="51">
         <v>18</v>
       </c>
@@ -22098,7 +22098,7 @@
       <c r="A47" s="74">
         <v>22</v>
       </c>
-      <c r="E47" s="205"/>
+      <c r="E47" s="200"/>
       <c r="F47" s="51">
         <v>20</v>
       </c>
@@ -22176,7 +22176,7 @@
       <c r="A48" s="74">
         <v>24</v>
       </c>
-      <c r="E48" s="205"/>
+      <c r="E48" s="200"/>
       <c r="F48" s="51">
         <v>22</v>
       </c>
@@ -22254,7 +22254,7 @@
       <c r="A49" s="74">
         <v>25</v>
       </c>
-      <c r="E49" s="205"/>
+      <c r="E49" s="200"/>
       <c r="F49" s="51">
         <v>24</v>
       </c>
@@ -22332,7 +22332,7 @@
       <c r="A50" s="74">
         <v>28</v>
       </c>
-      <c r="E50" s="205"/>
+      <c r="E50" s="200"/>
       <c r="F50" s="51">
         <v>26</v>
       </c>
@@ -22410,7 +22410,7 @@
       <c r="A51" s="74">
         <v>30</v>
       </c>
-      <c r="E51" s="205"/>
+      <c r="E51" s="200"/>
       <c r="F51" s="51">
         <v>28</v>
       </c>
@@ -22442,11 +22442,11 @@
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="P51" s="206" t="s">
+      <c r="P51" s="201" t="s">
         <v>777</v>
       </c>
-      <c r="Q51" s="207"/>
-      <c r="R51" s="208"/>
+      <c r="Q51" s="202"/>
+      <c r="R51" s="203"/>
       <c r="S51" s="98">
         <v>56</v>
       </c>
@@ -22481,7 +22481,7 @@
       <c r="A52" s="74">
         <v>32</v>
       </c>
-      <c r="E52" s="205"/>
+      <c r="E52" s="200"/>
       <c r="F52" s="51">
         <v>30</v>
       </c>
@@ -22513,9 +22513,9 @@
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="P52" s="206"/>
-      <c r="Q52" s="207"/>
-      <c r="R52" s="208"/>
+      <c r="P52" s="201"/>
+      <c r="Q52" s="202"/>
+      <c r="R52" s="203"/>
       <c r="S52" s="89">
         <v>63</v>
       </c>
@@ -22550,7 +22550,7 @@
       <c r="A53" s="74">
         <v>36</v>
       </c>
-      <c r="E53" s="205"/>
+      <c r="E53" s="200"/>
       <c r="F53" s="51">
         <v>32</v>
       </c>
@@ -22582,9 +22582,9 @@
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="P53" s="206"/>
-      <c r="Q53" s="207"/>
-      <c r="R53" s="208"/>
+      <c r="P53" s="201"/>
+      <c r="Q53" s="202"/>
+      <c r="R53" s="203"/>
       <c r="S53" s="89">
         <v>70</v>
       </c>
@@ -22619,7 +22619,7 @@
       <c r="A54" s="74">
         <v>38</v>
       </c>
-      <c r="E54" s="205"/>
+      <c r="E54" s="200"/>
       <c r="F54" s="51">
         <v>34</v>
       </c>
@@ -22651,9 +22651,9 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="P54" s="209"/>
-      <c r="Q54" s="210"/>
-      <c r="R54" s="211"/>
+      <c r="P54" s="204"/>
+      <c r="Q54" s="205"/>
+      <c r="R54" s="206"/>
       <c r="S54" s="89">
         <v>80</v>
       </c>
@@ -22688,7 +22688,7 @@
       <c r="A55" s="74">
         <v>42</v>
       </c>
-      <c r="E55" s="205"/>
+      <c r="E55" s="200"/>
       <c r="F55" s="51">
         <v>36</v>
       </c>
@@ -22754,7 +22754,7 @@
       <c r="A56" s="74">
         <v>46</v>
       </c>
-      <c r="E56" s="205"/>
+      <c r="E56" s="200"/>
       <c r="F56" s="51">
         <v>38</v>
       </c>
@@ -22820,7 +22820,7 @@
       <c r="A57" s="74">
         <v>48</v>
       </c>
-      <c r="E57" s="205"/>
+      <c r="E57" s="200"/>
       <c r="F57" s="51">
         <v>40</v>
       </c>
@@ -22885,7 +22885,7 @@
       <c r="A58" s="74">
         <v>50</v>
       </c>
-      <c r="E58" s="205"/>
+      <c r="E58" s="200"/>
       <c r="F58" s="51">
         <v>42</v>
       </c>
@@ -22951,7 +22951,7 @@
       <c r="A59" s="74">
         <v>55</v>
       </c>
-      <c r="E59" s="205"/>
+      <c r="E59" s="200"/>
       <c r="F59" s="51">
         <v>45</v>
       </c>
@@ -23017,7 +23017,7 @@
       <c r="A60" s="74">
         <v>56</v>
       </c>
-      <c r="E60" s="205"/>
+      <c r="E60" s="200"/>
       <c r="F60" s="51">
         <v>48</v>
       </c>
@@ -23082,7 +23082,7 @@
       <c r="A61" s="74">
         <v>60</v>
       </c>
-      <c r="E61" s="205"/>
+      <c r="E61" s="200"/>
       <c r="F61" s="51">
         <v>50</v>
       </c>
@@ -23146,7 +23146,7 @@
       <c r="A62" s="74">
         <v>64</v>
       </c>
-      <c r="E62" s="205"/>
+      <c r="E62" s="200"/>
       <c r="F62" s="115"/>
       <c r="G62" s="8">
         <v>55</v>
@@ -23207,7 +23207,7 @@
       <c r="A63" s="74">
         <v>65</v>
       </c>
-      <c r="E63" s="205"/>
+      <c r="E63" s="200"/>
       <c r="F63" s="115"/>
       <c r="G63" s="8">
         <v>58</v>
@@ -23269,7 +23269,7 @@
       <c r="A64" s="74">
         <v>70</v>
       </c>
-      <c r="E64" s="205"/>
+      <c r="E64" s="200"/>
       <c r="F64" s="115"/>
       <c r="G64" s="8">
         <v>60</v>
@@ -23330,7 +23330,7 @@
       <c r="A65" s="74">
         <v>75</v>
       </c>
-      <c r="E65" s="205"/>
+      <c r="E65" s="200"/>
       <c r="F65" s="115"/>
       <c r="G65" s="122"/>
       <c r="H65" s="8">
@@ -23389,7 +23389,7 @@
       <c r="A66" s="74">
         <v>80</v>
       </c>
-      <c r="E66" s="205"/>
+      <c r="E66" s="200"/>
       <c r="F66" s="115"/>
       <c r="G66" s="122"/>
       <c r="H66" s="8">
@@ -23447,7 +23447,7 @@
       <c r="A67" s="74">
         <v>85</v>
       </c>
-      <c r="E67" s="205"/>
+      <c r="E67" s="200"/>
       <c r="F67" s="115"/>
       <c r="G67" s="122"/>
       <c r="H67" s="8">
@@ -23505,7 +23505,7 @@
       <c r="A68" s="74">
         <v>90</v>
       </c>
-      <c r="E68" s="205"/>
+      <c r="E68" s="200"/>
       <c r="F68" s="115"/>
       <c r="G68" s="122"/>
       <c r="H68" s="8">
@@ -23560,7 +23560,7 @@
       <c r="A69" s="74">
         <v>95</v>
       </c>
-      <c r="E69" s="205"/>
+      <c r="E69" s="200"/>
       <c r="F69" s="115"/>
       <c r="G69" s="122"/>
       <c r="H69" s="122"/>
@@ -23610,7 +23610,7 @@
       <c r="A70" s="74">
         <v>100</v>
       </c>
-      <c r="E70" s="205"/>
+      <c r="E70" s="200"/>
       <c r="F70" s="115"/>
       <c r="G70" s="122"/>
       <c r="H70" s="122"/>
@@ -23660,7 +23660,7 @@
       <c r="A71" s="74">
         <v>110</v>
       </c>
-      <c r="E71" s="205"/>
+      <c r="E71" s="200"/>
       <c r="F71" s="115"/>
       <c r="G71" s="122"/>
       <c r="H71" s="122"/>
@@ -23710,7 +23710,7 @@
       <c r="A72" s="74">
         <v>120</v>
       </c>
-      <c r="E72" s="205"/>
+      <c r="E72" s="200"/>
       <c r="F72" s="115"/>
       <c r="G72" s="122"/>
       <c r="H72" s="122"/>
@@ -23754,7 +23754,7 @@
       <c r="A73" s="74">
         <v>130</v>
       </c>
-      <c r="E73" s="205"/>
+      <c r="E73" s="200"/>
       <c r="F73" s="120"/>
       <c r="G73" s="123"/>
       <c r="H73" s="123"/>
@@ -24280,7 +24280,7 @@
         <v>10</v>
       </c>
       <c r="J86" s="8">
-        <v>12</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K86" s="8">
         <v>16</v>
@@ -24356,7 +24356,7 @@
       </c>
       <c r="J87" s="8">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K87" s="8">
         <f t="shared" si="20"/>
@@ -24715,6 +24715,30 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="AC14:AD15"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AF16:AF17"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="E42:E73"/>
+    <mergeCell ref="P51:R54"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
@@ -24726,30 +24750,6 @@
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="U9:U10"/>
-    <mergeCell ref="E42:E73"/>
-    <mergeCell ref="P51:R54"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AF16:AF17"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AC14:AD15"/>
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33550,7 +33550,7 @@
       </c>
       <c r="Z98">
         <f t="shared" si="62"/>
-        <v>12</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AA98">
         <f t="shared" si="62"/>
@@ -34203,7 +34203,7 @@
       </c>
       <c r="Z104">
         <f>教科書掲載表!J86</f>
-        <v>12</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AA104">
         <f>教科書掲載表!K86</f>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="Z105">
         <f>教科書掲載表!J87</f>
-        <v>12</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AA105">
         <f>教科書掲載表!K87</f>
@@ -59694,7 +59694,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="156" t="s">
         <v>831</v>
       </c>
       <c r="B2" s="221"/>
@@ -64963,7 +64963,7 @@
       </c>
       <c r="D37">
         <f>自動化シート!Z98</f>
-        <v>12</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">

--- a/CADⅡ半自動計算シート for Excel2010.xlsx
+++ b/CADⅡ半自動計算シート for Excel2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazuki\Documents\学校関係\授業関係\2020\CADⅡ\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F64441-724A-4AA0-93A4-6EE35D122A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63A40C8-1D89-4F13-BF5C-89C27B715BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2章" sheetId="25" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="991">
   <si>
     <t>W</t>
     <phoneticPr fontId="1"/>
@@ -5936,6 +5936,36 @@
   </si>
   <si>
     <t>1.15.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/01/10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの値が表の外に出た際でもエラーにならないように修正</t>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.16.1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -8215,8 +8245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E92AB9-0983-42B0-B36F-A67B04725CA5}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18492,7 +18522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CDC5E8-9443-492D-AC89-80629056443A}">
   <dimension ref="A1:AL142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
@@ -24761,8 +24791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DC7699-64EF-49F1-9D5F-D04613896DE8}">
   <dimension ref="A1:BM690"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+    <sheetView topLeftCell="U91" workbookViewId="0">
+      <selection activeCell="AH108" sqref="AH108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -33565,7 +33595,7 @@
         <v>378</v>
       </c>
       <c r="AF98">
-        <f>IF(SMALL(AE100:AE105,COUNTIF(AE100:AE105,"&lt;=0"))=0,SMALL(AE100:AE105,COUNTIF(AE100:AE105,"&lt;=0")),SMALL(AE100:AE105,COUNTIF(AE100:AE105,"&lt;=0")+1))</f>
+        <f>IF(MAX(AE100:AE105)&lt;0,MAX(AE100:AE105),IF(SMALL(AE100:AE105,COUNTIF(AE100:AE105,"&lt;=0"))=0,SMALL(AE100:AE105,COUNTIF(AE100:AE105,"&lt;=0")),SMALL(AE100:AE105,COUNTIF(AE100:AE105,"&lt;=0")+1)))</f>
         <v>22</v>
       </c>
       <c r="AG98" cm="1">
@@ -59678,14 +59708,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="49.75" customWidth="1"/>
+    <col min="2" max="2" width="50.375" customWidth="1"/>
     <col min="3" max="3" width="8.25" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
@@ -60392,9 +60422,15 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" s="41"/>
-      <c r="B60" s="133"/>
-      <c r="C60" s="122"/>
+      <c r="A60" s="41" t="s">
+        <v>988</v>
+      </c>
+      <c r="B60" s="133" t="s">
+        <v>989</v>
+      </c>
+      <c r="C60" s="122" t="s">
+        <v>990</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="41"/>

--- a/CADⅡ半自動計算シート for Excel2010.xlsx
+++ b/CADⅡ半自動計算シート for Excel2010.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazuki\Documents\学校関係\授業関係\2020\CADⅡ\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63A40C8-1D89-4F13-BF5C-89C27B715BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D08F5EF-9A4E-4E9F-A141-54D89412F408}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="994">
   <si>
     <t>W</t>
     <phoneticPr fontId="1"/>
@@ -5966,6 +5966,17 @@
   </si>
   <si>
     <t>1.16.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲指定の修正と最小値が0以上の場合にエラーにならないように修正</t>
+  </si>
+  <si>
+    <t>2021/01/17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.16.2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7253,7 +7264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7665,64 +7676,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7746,113 +7808,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7875,44 +7904,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8382,7 +8396,7 @@
       <c r="A3" t="s">
         <v>468</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="138" t="s">
         <v>469</v>
       </c>
       <c r="C3">
@@ -8400,7 +8414,7 @@
       <c r="A4">
         <v>7.8</v>
       </c>
-      <c r="B4" s="138"/>
+      <c r="B4" s="139"/>
       <c r="J4">
         <f>ROUND(((A10/2)^2)*PI()*67,0)</f>
         <v>14228901</v>
@@ -10717,74 +10731,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="159" t="s">
         <v>658</v>
       </c>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="161" t="s">
         <v>659</v>
       </c>
-      <c r="C1" s="184" t="s">
+      <c r="C1" s="161" t="s">
         <v>660</v>
       </c>
-      <c r="D1" s="178" t="s">
+      <c r="D1" s="151" t="s">
         <v>661</v>
       </c>
-      <c r="F1" s="141" t="s">
+      <c r="F1" s="167" t="s">
         <v>662</v>
       </c>
-      <c r="G1" s="155"/>
-      <c r="H1" s="158" t="s">
+      <c r="G1" s="168"/>
+      <c r="H1" s="175" t="s">
         <v>663</v>
       </c>
-      <c r="I1" s="158" t="s">
+      <c r="I1" s="175" t="s">
         <v>664</v>
       </c>
-      <c r="J1" s="155" t="s">
+      <c r="J1" s="168" t="s">
         <v>665</v>
       </c>
-      <c r="K1" s="155"/>
-      <c r="L1" s="142"/>
-      <c r="N1" s="161" t="s">
+      <c r="K1" s="168"/>
+      <c r="L1" s="169"/>
+      <c r="N1" s="178" t="s">
         <v>666</v>
       </c>
-      <c r="O1" s="145" t="s">
+      <c r="O1" s="181" t="s">
         <v>667</v>
       </c>
-      <c r="P1" s="145" t="s">
+      <c r="P1" s="181" t="s">
         <v>668</v>
       </c>
-      <c r="Q1" s="148" t="s">
+      <c r="Q1" s="186" t="s">
         <v>669</v>
       </c>
-      <c r="S1" s="151" t="s">
+      <c r="S1" s="189" t="s">
         <v>670</v>
       </c>
-      <c r="T1" s="145" t="s">
+      <c r="T1" s="181" t="s">
         <v>671</v>
       </c>
-      <c r="U1" s="145" t="s">
+      <c r="U1" s="181" t="s">
         <v>672</v>
       </c>
-      <c r="V1" s="145" t="s">
+      <c r="V1" s="181" t="s">
         <v>673</v>
       </c>
-      <c r="W1" s="148" t="s">
+      <c r="W1" s="186" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="183"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="179"/>
-      <c r="F2" s="139" t="s">
+      <c r="A2" s="160"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="152"/>
+      <c r="F2" s="172" t="s">
         <v>662</v>
       </c>
-      <c r="G2" s="156" t="s">
+      <c r="G2" s="170" t="s">
         <v>675</v>
       </c>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
       <c r="J2" s="124" t="s">
         <v>676</v>
       </c>
@@ -10794,26 +10808,26 @@
       <c r="L2" s="42" t="s">
         <v>678</v>
       </c>
-      <c r="N2" s="162"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="149"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="149"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="187"/>
+      <c r="S2" s="190"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="187"/>
     </row>
     <row r="3" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="164">
+      <c r="A3" s="140">
         <f>B3</f>
         <v>0.1</v>
       </c>
-      <c r="B3" s="171">
+      <c r="B3" s="142">
         <f t="shared" ref="B3" si="0">C3</f>
         <v>0.1</v>
       </c>
-      <c r="C3" s="171">
+      <c r="C3" s="142">
         <f t="shared" ref="C3" si="1">D3</f>
         <v>0.1</v>
       </c>
@@ -10821,37 +10835,37 @@
         <f t="shared" ref="D3:D42" si="2">D43/10</f>
         <v>0.1</v>
       </c>
-      <c r="F3" s="139"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="156" t="s">
+      <c r="F3" s="172"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="170" t="s">
         <v>679</v>
       </c>
-      <c r="K3" s="156"/>
-      <c r="L3" s="140"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="149"/>
-      <c r="S3" s="152"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="146"/>
-      <c r="V3" s="146"/>
-      <c r="W3" s="149"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="171"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="187"/>
+      <c r="S3" s="190"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="182"/>
+      <c r="W3" s="187"/>
     </row>
     <row r="4" spans="1:45" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="190"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
+      <c r="A4" s="144"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
       <c r="D4" s="108">
         <f t="shared" si="2"/>
         <v>0.10600000000000001</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
       <c r="J4" s="125" t="s">
         <v>680</v>
       </c>
@@ -10861,20 +10875,20 @@
       <c r="L4" s="43" t="s">
         <v>682</v>
       </c>
-      <c r="N4" s="163"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="150"/>
-      <c r="S4" s="153"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="147"/>
-      <c r="V4" s="147"/>
-      <c r="W4" s="150"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="183"/>
+      <c r="Q4" s="188"/>
+      <c r="S4" s="191"/>
+      <c r="T4" s="183"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="183"/>
+      <c r="W4" s="188"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A5" s="190"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171">
+      <c r="A5" s="144"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="142">
         <f t="shared" ref="C5" si="3">D5</f>
         <v>0.11200000000000002</v>
       </c>
@@ -10935,9 +10949,9 @@
       </c>
     </row>
     <row r="6" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="190"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
       <c r="D6" s="108">
         <f t="shared" si="2"/>
         <v>0.11799999999999999</v>
@@ -10999,12 +11013,12 @@
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A7" s="190"/>
-      <c r="B7" s="171">
+      <c r="A7" s="144"/>
+      <c r="B7" s="142">
         <f t="shared" ref="B7" si="7">C7</f>
         <v>0.125</v>
       </c>
-      <c r="C7" s="171">
+      <c r="C7" s="142">
         <f t="shared" ref="C7" si="8">D7</f>
         <v>0.125</v>
       </c>
@@ -11064,10 +11078,10 @@
       <c r="W7" s="116">
         <v>4</v>
       </c>
-      <c r="Y7" s="141" t="s">
+      <c r="Y7" s="167" t="s">
         <v>687</v>
       </c>
-      <c r="Z7" s="142"/>
+      <c r="Z7" s="169"/>
       <c r="AA7" s="84" t="s">
         <v>688</v>
       </c>
@@ -11127,9 +11141,9 @@
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A8" s="190"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
       <c r="D8" s="108">
         <f t="shared" si="2"/>
         <v>0.13200000000000001</v>
@@ -11186,10 +11200,10 @@
       <c r="W8" s="116">
         <v>5</v>
       </c>
-      <c r="Y8" s="139" t="s">
+      <c r="Y8" s="172" t="s">
         <v>708</v>
       </c>
-      <c r="Z8" s="140"/>
+      <c r="Z8" s="171"/>
       <c r="AA8" s="85">
         <v>1.6</v>
       </c>
@@ -11249,9 +11263,9 @@
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A9" s="190"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171">
+      <c r="A9" s="144"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142">
         <f t="shared" ref="C9" si="9">D9</f>
         <v>0.13999999999999999</v>
       </c>
@@ -11311,10 +11325,10 @@
       <c r="W9" s="116">
         <v>5</v>
       </c>
-      <c r="Y9" s="139" t="s">
+      <c r="Y9" s="172" t="s">
         <v>709</v>
       </c>
-      <c r="Z9" s="140"/>
+      <c r="Z9" s="171"/>
       <c r="AA9" s="85">
         <v>0.35</v>
       </c>
@@ -11374,9 +11388,9 @@
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A10" s="190"/>
-      <c r="B10" s="171"/>
-      <c r="C10" s="171"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="108">
         <f t="shared" si="2"/>
         <v>0.15</v>
@@ -11433,7 +11447,7 @@
       <c r="W10" s="116">
         <v>5</v>
       </c>
-      <c r="Y10" s="139" t="s">
+      <c r="Y10" s="172" t="s">
         <v>511</v>
       </c>
       <c r="Z10" s="116" t="s">
@@ -11498,15 +11512,15 @@
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A11" s="164">
+      <c r="A11" s="140">
         <f>B11</f>
         <v>0.16</v>
       </c>
-      <c r="B11" s="171">
+      <c r="B11" s="142">
         <f t="shared" ref="B11" si="10">C11</f>
         <v>0.16</v>
       </c>
-      <c r="C11" s="171">
+      <c r="C11" s="142">
         <f t="shared" ref="C11" si="11">D11</f>
         <v>0.16</v>
       </c>
@@ -11565,7 +11579,7 @@
       <c r="W11" s="116">
         <v>7</v>
       </c>
-      <c r="Y11" s="139"/>
+      <c r="Y11" s="172"/>
       <c r="Z11" s="116" t="s">
         <v>712</v>
       </c>
@@ -11628,9 +11642,9 @@
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="189"/>
-      <c r="B12" s="188"/>
-      <c r="C12" s="188"/>
+      <c r="A12" s="141"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="108">
         <f t="shared" si="2"/>
         <v>0.16999999999999998</v>
@@ -11687,7 +11701,7 @@
       <c r="W12" s="116">
         <v>8</v>
       </c>
-      <c r="Y12" s="139" t="s">
+      <c r="Y12" s="172" t="s">
         <v>714</v>
       </c>
       <c r="Z12" s="116" t="str">
@@ -11753,9 +11767,9 @@
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="189"/>
-      <c r="B13" s="188"/>
-      <c r="C13" s="171">
+      <c r="A13" s="141"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="142">
         <f t="shared" ref="C13" si="13">D13</f>
         <v>0.18</v>
       </c>
@@ -11815,7 +11829,7 @@
       <c r="W13" s="116">
         <v>8</v>
       </c>
-      <c r="Y13" s="139"/>
+      <c r="Y13" s="172"/>
       <c r="Z13" s="116" t="str">
         <f>Z11</f>
         <v>最小</v>
@@ -11898,9 +11912,9 @@
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="189"/>
-      <c r="B14" s="188"/>
-      <c r="C14" s="188"/>
+      <c r="A14" s="141"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
       <c r="D14" s="108">
         <f t="shared" si="2"/>
         <v>0.19</v>
@@ -12023,12 +12037,12 @@
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="189"/>
-      <c r="B15" s="171">
+      <c r="A15" s="141"/>
+      <c r="B15" s="142">
         <f t="shared" ref="B15" si="15">C15</f>
         <v>0.2</v>
       </c>
-      <c r="C15" s="171">
+      <c r="C15" s="142">
         <f t="shared" ref="C15" si="16">D15</f>
         <v>0.2</v>
       </c>
@@ -12154,9 +12168,9 @@
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="189"/>
-      <c r="B16" s="188"/>
-      <c r="C16" s="188"/>
+      <c r="A16" s="141"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="108">
         <f t="shared" si="2"/>
         <v>0.21200000000000002</v>
@@ -12213,7 +12227,7 @@
       <c r="W16" s="116">
         <v>9</v>
       </c>
-      <c r="Y16" s="139" t="s">
+      <c r="Y16" s="172" t="s">
         <v>7</v>
       </c>
       <c r="Z16" s="116" t="str">
@@ -12279,9 +12293,9 @@
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A17" s="189"/>
-      <c r="B17" s="188"/>
-      <c r="C17" s="171">
+      <c r="A17" s="141"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="142">
         <f t="shared" ref="C17" si="17">D17</f>
         <v>0.22400000000000003</v>
       </c>
@@ -12341,7 +12355,7 @@
       <c r="W17" s="116">
         <v>10</v>
       </c>
-      <c r="Y17" s="139"/>
+      <c r="Y17" s="172"/>
       <c r="Z17" s="116" t="str">
         <f>Z15</f>
         <v>最小</v>
@@ -12405,9 +12419,9 @@
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A18" s="189"/>
-      <c r="B18" s="188"/>
-      <c r="C18" s="188"/>
+      <c r="A18" s="141"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
       <c r="D18" s="108">
         <f t="shared" si="2"/>
         <v>0.23599999999999999</v>
@@ -12529,15 +12543,15 @@
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A19" s="164">
+      <c r="A19" s="140">
         <f>B19</f>
         <v>0.25</v>
       </c>
-      <c r="B19" s="171">
+      <c r="B19" s="142">
         <f t="shared" ref="B19" si="18">C19</f>
         <v>0.25</v>
       </c>
-      <c r="C19" s="171">
+      <c r="C19" s="142">
         <f t="shared" ref="C19" si="19">D19</f>
         <v>0.25</v>
       </c>
@@ -12597,7 +12611,7 @@
       <c r="W19" s="116">
         <v>13</v>
       </c>
-      <c r="Y19" s="139" t="s">
+      <c r="Y19" s="172" t="s">
         <v>718</v>
       </c>
       <c r="Z19" s="116" t="s">
@@ -12662,9 +12676,9 @@
       </c>
     </row>
     <row r="20" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="189"/>
-      <c r="B20" s="188"/>
-      <c r="C20" s="188"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
       <c r="D20" s="108">
         <f t="shared" si="2"/>
         <v>0.26500000000000001</v>
@@ -12721,7 +12735,7 @@
       <c r="W20" s="116">
         <v>13</v>
       </c>
-      <c r="Y20" s="154"/>
+      <c r="Y20" s="173"/>
       <c r="Z20" s="128" t="str">
         <f>Z18</f>
         <v>最小</v>
@@ -12785,9 +12799,9 @@
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A21" s="189"/>
-      <c r="B21" s="188"/>
-      <c r="C21" s="171">
+      <c r="A21" s="141"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="142">
         <f t="shared" ref="C21" si="20">D21</f>
         <v>0.27999999999999997</v>
       </c>
@@ -12849,9 +12863,9 @@
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A22" s="189"/>
-      <c r="B22" s="188"/>
-      <c r="C22" s="188"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
       <c r="D22" s="108">
         <f t="shared" si="2"/>
         <v>0.3</v>
@@ -12910,12 +12924,12 @@
       </c>
     </row>
     <row r="23" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="189"/>
-      <c r="B23" s="171">
+      <c r="A23" s="141"/>
+      <c r="B23" s="142">
         <f t="shared" ref="B23" si="21">C23</f>
         <v>0.315</v>
       </c>
-      <c r="C23" s="171">
+      <c r="C23" s="142">
         <f t="shared" ref="C23" si="22">D23</f>
         <v>0.315</v>
       </c>
@@ -12976,9 +12990,9 @@
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A24" s="189"/>
-      <c r="B24" s="188"/>
-      <c r="C24" s="188"/>
+      <c r="A24" s="141"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
       <c r="D24" s="108">
         <f t="shared" si="2"/>
         <v>0.33500000000000002</v>
@@ -13025,9 +13039,9 @@
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A25" s="189"/>
-      <c r="B25" s="188"/>
-      <c r="C25" s="171">
+      <c r="A25" s="141"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="142">
         <f t="shared" ref="C25" si="23">D25</f>
         <v>0.35499999999999998</v>
       </c>
@@ -13076,9 +13090,9 @@
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A26" s="189"/>
-      <c r="B26" s="188"/>
-      <c r="C26" s="188"/>
+      <c r="A26" s="141"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
       <c r="D26" s="108">
         <f t="shared" si="2"/>
         <v>0.375</v>
@@ -13125,15 +13139,15 @@
       </c>
     </row>
     <row r="27" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="164">
+      <c r="A27" s="140">
         <f>B27</f>
         <v>0.4</v>
       </c>
-      <c r="B27" s="171">
+      <c r="B27" s="142">
         <f t="shared" ref="B27" si="24">C27</f>
         <v>0.4</v>
       </c>
-      <c r="C27" s="171">
+      <c r="C27" s="142">
         <f t="shared" ref="C27" si="25">D27</f>
         <v>0.4</v>
       </c>
@@ -13186,9 +13200,9 @@
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A28" s="189"/>
-      <c r="B28" s="188"/>
-      <c r="C28" s="188"/>
+      <c r="A28" s="141"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
       <c r="D28" s="108">
         <f t="shared" si="2"/>
         <v>0.42499999999999999</v>
@@ -13233,10 +13247,10 @@
       <c r="W28" s="116">
         <v>39</v>
       </c>
-      <c r="AA28" s="141" t="s">
+      <c r="AA28" s="167" t="s">
         <v>662</v>
       </c>
-      <c r="AB28" s="142"/>
+      <c r="AB28" s="169"/>
       <c r="AC28" s="84" t="s">
         <v>683</v>
       </c>
@@ -13245,9 +13259,9 @@
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A29" s="189"/>
-      <c r="B29" s="188"/>
-      <c r="C29" s="171">
+      <c r="A29" s="141"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="142">
         <f t="shared" ref="C29" si="26">D29</f>
         <v>0.45</v>
       </c>
@@ -13294,10 +13308,10 @@
       <c r="W29" s="116">
         <v>43</v>
       </c>
-      <c r="AA29" s="139" t="s">
+      <c r="AA29" s="172" t="s">
         <v>708</v>
       </c>
-      <c r="AB29" s="140"/>
+      <c r="AB29" s="171"/>
       <c r="AC29" s="95">
         <v>1</v>
       </c>
@@ -13306,9 +13320,9 @@
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A30" s="189"/>
-      <c r="B30" s="188"/>
-      <c r="C30" s="188"/>
+      <c r="A30" s="141"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="143"/>
       <c r="D30" s="108">
         <f t="shared" si="2"/>
         <v>0.47499999999999998</v>
@@ -13353,10 +13367,10 @@
       <c r="W30" s="116">
         <v>46</v>
       </c>
-      <c r="AA30" s="139" t="s">
+      <c r="AA30" s="172" t="s">
         <v>709</v>
       </c>
-      <c r="AB30" s="140"/>
+      <c r="AB30" s="171"/>
       <c r="AC30" s="85">
         <v>0.25</v>
       </c>
@@ -13365,12 +13379,12 @@
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A31" s="189"/>
-      <c r="B31" s="171">
+      <c r="A31" s="141"/>
+      <c r="B31" s="142">
         <f t="shared" ref="B31" si="27">C31</f>
         <v>0.5</v>
       </c>
-      <c r="C31" s="171">
+      <c r="C31" s="142">
         <f t="shared" ref="C31" si="28">D31</f>
         <v>0.5</v>
       </c>
@@ -13418,10 +13432,10 @@
       <c r="W31" s="116">
         <v>50</v>
       </c>
-      <c r="AA31" s="139" t="s">
+      <c r="AA31" s="172" t="s">
         <v>718</v>
       </c>
-      <c r="AB31" s="140"/>
+      <c r="AB31" s="171"/>
       <c r="AC31" s="95">
         <v>2.5</v>
       </c>
@@ -13430,9 +13444,9 @@
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A32" s="189"/>
-      <c r="B32" s="188"/>
-      <c r="C32" s="188"/>
+      <c r="A32" s="141"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="143"/>
       <c r="D32" s="108">
         <f t="shared" si="2"/>
         <v>0.53</v>
@@ -13476,10 +13490,10 @@
       <c r="W32" s="116">
         <v>55</v>
       </c>
-      <c r="AA32" s="139" t="s">
+      <c r="AA32" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="AB32" s="140"/>
+      <c r="AB32" s="171"/>
       <c r="AC32" s="85">
         <v>0.8</v>
       </c>
@@ -13488,9 +13502,9 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="189"/>
-      <c r="B33" s="188"/>
-      <c r="C33" s="171">
+      <c r="A33" s="141"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="142">
         <f t="shared" ref="C33" si="29">D33</f>
         <v>0.55999999999999994</v>
       </c>
@@ -13538,10 +13552,10 @@
       <c r="W33" s="116">
         <v>62</v>
       </c>
-      <c r="AA33" s="143" t="s">
+      <c r="AA33" s="184" t="s">
         <v>295</v>
       </c>
-      <c r="AB33" s="144"/>
+      <c r="AB33" s="185"/>
       <c r="AC33" s="86">
         <v>2.887</v>
       </c>
@@ -13550,9 +13564,9 @@
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A34" s="189"/>
-      <c r="B34" s="188"/>
-      <c r="C34" s="188"/>
+      <c r="A34" s="141"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="143"/>
       <c r="D34" s="108">
         <f t="shared" si="2"/>
         <v>0.6</v>
@@ -13599,15 +13613,15 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A35" s="164">
+      <c r="A35" s="140">
         <f>B35</f>
         <v>0.63</v>
       </c>
-      <c r="B35" s="171">
+      <c r="B35" s="142">
         <f t="shared" ref="B35" si="30">C35</f>
         <v>0.63</v>
       </c>
-      <c r="C35" s="171">
+      <c r="C35" s="142">
         <f t="shared" ref="C35" si="31">D35</f>
         <v>0.63</v>
       </c>
@@ -13657,9 +13671,9 @@
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A36" s="189"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="188"/>
+      <c r="A36" s="141"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="143"/>
       <c r="D36" s="108">
         <f t="shared" si="2"/>
         <v>0.67</v>
@@ -13706,9 +13720,9 @@
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A37" s="189"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="171">
+      <c r="A37" s="141"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="142">
         <f t="shared" ref="C37" si="32">D37</f>
         <v>0.71</v>
       </c>
@@ -13757,9 +13771,9 @@
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A38" s="189"/>
-      <c r="B38" s="188"/>
-      <c r="C38" s="188"/>
+      <c r="A38" s="141"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="143"/>
       <c r="D38" s="108">
         <f t="shared" si="2"/>
         <v>0.75</v>
@@ -13806,12 +13820,12 @@
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A39" s="189"/>
-      <c r="B39" s="171">
+      <c r="A39" s="141"/>
+      <c r="B39" s="142">
         <f t="shared" ref="B39" si="33">C39</f>
         <v>0.8</v>
       </c>
-      <c r="C39" s="171">
+      <c r="C39" s="142">
         <f t="shared" ref="C39" si="34">D39</f>
         <v>0.8</v>
       </c>
@@ -13860,9 +13874,9 @@
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A40" s="189"/>
-      <c r="B40" s="188"/>
-      <c r="C40" s="188"/>
+      <c r="A40" s="141"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="143"/>
       <c r="D40" s="108">
         <f t="shared" si="2"/>
         <v>0.85</v>
@@ -13909,9 +13923,9 @@
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A41" s="189"/>
-      <c r="B41" s="188"/>
-      <c r="C41" s="171">
+      <c r="A41" s="141"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="142">
         <f t="shared" ref="C41" si="35">D41</f>
         <v>0.9</v>
       </c>
@@ -13960,9 +13974,9 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A42" s="189"/>
-      <c r="B42" s="188"/>
-      <c r="C42" s="188"/>
+      <c r="A42" s="141"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
       <c r="D42" s="108">
         <f t="shared" si="2"/>
         <v>0.95</v>
@@ -14009,15 +14023,15 @@
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A43" s="180">
+      <c r="A43" s="153">
         <f>B43</f>
         <v>1</v>
       </c>
-      <c r="B43" s="181">
+      <c r="B43" s="155">
         <f>C43</f>
         <v>1</v>
       </c>
-      <c r="C43" s="181">
+      <c r="C43" s="155">
         <f t="shared" ref="C43:C49" si="37">D43</f>
         <v>1</v>
       </c>
@@ -14066,9 +14080,9 @@
       </c>
     </row>
     <row r="44" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="175"/>
-      <c r="B44" s="176"/>
-      <c r="C44" s="177"/>
+      <c r="A44" s="154"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="157"/>
       <c r="D44" s="104">
         <v>1.06</v>
       </c>
@@ -14114,9 +14128,9 @@
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A45" s="175"/>
-      <c r="B45" s="176"/>
-      <c r="C45" s="176">
+      <c r="A45" s="154"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="156">
         <f t="shared" si="37"/>
         <v>1.1200000000000001</v>
       </c>
@@ -14141,9 +14155,9 @@
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A46" s="175"/>
-      <c r="B46" s="176"/>
-      <c r="C46" s="177"/>
+      <c r="A46" s="154"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="157"/>
       <c r="D46" s="104">
         <v>1.18</v>
       </c>
@@ -14165,12 +14179,12 @@
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A47" s="175"/>
-      <c r="B47" s="176">
+      <c r="A47" s="154"/>
+      <c r="B47" s="156">
         <f t="shared" ref="B47" si="38">C47</f>
         <v>1.25</v>
       </c>
-      <c r="C47" s="176">
+      <c r="C47" s="156">
         <f t="shared" si="37"/>
         <v>1.25</v>
       </c>
@@ -14195,9 +14209,9 @@
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A48" s="175"/>
-      <c r="B48" s="176"/>
-      <c r="C48" s="177"/>
+      <c r="A48" s="154"/>
+      <c r="B48" s="156"/>
+      <c r="C48" s="157"/>
       <c r="D48" s="104">
         <v>1.32</v>
       </c>
@@ -14219,9 +14233,9 @@
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A49" s="175"/>
-      <c r="B49" s="176"/>
-      <c r="C49" s="176">
+      <c r="A49" s="154"/>
+      <c r="B49" s="156"/>
+      <c r="C49" s="156">
         <f t="shared" si="37"/>
         <v>1.4</v>
       </c>
@@ -14247,9 +14261,9 @@
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A50" s="175"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="177"/>
+      <c r="A50" s="154"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="157"/>
       <c r="D50" s="104">
         <v>1.5</v>
       </c>
@@ -14272,15 +14286,15 @@
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A51" s="174">
+      <c r="A51" s="158">
         <f t="shared" ref="A51:C51" si="41">B51</f>
         <v>1.6</v>
       </c>
-      <c r="B51" s="176">
+      <c r="B51" s="156">
         <f t="shared" si="41"/>
         <v>1.6</v>
       </c>
-      <c r="C51" s="176">
+      <c r="C51" s="156">
         <f t="shared" si="41"/>
         <v>1.6</v>
       </c>
@@ -14306,9 +14320,9 @@
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A52" s="175"/>
-      <c r="B52" s="176"/>
-      <c r="C52" s="177"/>
+      <c r="A52" s="154"/>
+      <c r="B52" s="156"/>
+      <c r="C52" s="157"/>
       <c r="D52" s="104">
         <v>1.7</v>
       </c>
@@ -14331,9 +14345,9 @@
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A53" s="175"/>
-      <c r="B53" s="176"/>
-      <c r="C53" s="176">
+      <c r="A53" s="154"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="156">
         <f t="shared" ref="C53" si="42">D53</f>
         <v>1.8</v>
       </c>
@@ -14359,9 +14373,9 @@
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A54" s="175"/>
-      <c r="B54" s="176"/>
-      <c r="C54" s="177"/>
+      <c r="A54" s="154"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="157"/>
       <c r="D54" s="104">
         <v>1.9</v>
       </c>
@@ -14384,12 +14398,12 @@
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A55" s="175"/>
-      <c r="B55" s="176">
+      <c r="A55" s="154"/>
+      <c r="B55" s="156">
         <f t="shared" ref="B55:C55" si="43">C55</f>
         <v>2</v>
       </c>
-      <c r="C55" s="176">
+      <c r="C55" s="156">
         <f t="shared" si="43"/>
         <v>2</v>
       </c>
@@ -14415,9 +14429,9 @@
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A56" s="175"/>
-      <c r="B56" s="176"/>
-      <c r="C56" s="177"/>
+      <c r="A56" s="154"/>
+      <c r="B56" s="156"/>
+      <c r="C56" s="157"/>
       <c r="D56" s="104">
         <v>2.12</v>
       </c>
@@ -14440,9 +14454,9 @@
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A57" s="175"/>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176">
+      <c r="A57" s="154"/>
+      <c r="B57" s="156"/>
+      <c r="C57" s="156">
         <f t="shared" ref="C57" si="44">D57</f>
         <v>2.2400000000000002</v>
       </c>
@@ -14468,9 +14482,9 @@
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A58" s="175"/>
-      <c r="B58" s="176"/>
-      <c r="C58" s="177"/>
+      <c r="A58" s="154"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="157"/>
       <c r="D58" s="104">
         <v>2.36</v>
       </c>
@@ -14493,15 +14507,15 @@
       </c>
     </row>
     <row r="59" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="174">
+      <c r="A59" s="158">
         <f t="shared" ref="A59:C59" si="45">B59</f>
         <v>2.5</v>
       </c>
-      <c r="B59" s="176">
+      <c r="B59" s="156">
         <f t="shared" si="45"/>
         <v>2.5</v>
       </c>
-      <c r="C59" s="176">
+      <c r="C59" s="156">
         <f t="shared" si="45"/>
         <v>2.5</v>
       </c>
@@ -14527,17 +14541,17 @@
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A60" s="175"/>
-      <c r="B60" s="176"/>
-      <c r="C60" s="177"/>
+      <c r="A60" s="154"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="157"/>
       <c r="D60" s="104">
         <v>2.65</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A61" s="175"/>
-      <c r="B61" s="176"/>
-      <c r="C61" s="176">
+      <c r="A61" s="154"/>
+      <c r="B61" s="156"/>
+      <c r="C61" s="156">
         <f t="shared" ref="C61" si="46">D61</f>
         <v>2.8</v>
       </c>
@@ -14546,20 +14560,20 @@
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A62" s="175"/>
-      <c r="B62" s="176"/>
-      <c r="C62" s="177"/>
+      <c r="A62" s="154"/>
+      <c r="B62" s="156"/>
+      <c r="C62" s="157"/>
       <c r="D62" s="104">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A63" s="175"/>
-      <c r="B63" s="176">
+      <c r="A63" s="154"/>
+      <c r="B63" s="156">
         <f t="shared" ref="B63:C63" si="47">C63</f>
         <v>3.15</v>
       </c>
-      <c r="C63" s="176">
+      <c r="C63" s="156">
         <f t="shared" si="47"/>
         <v>3.15</v>
       </c>
@@ -14568,17 +14582,17 @@
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A64" s="175"/>
-      <c r="B64" s="176"/>
-      <c r="C64" s="177"/>
+      <c r="A64" s="154"/>
+      <c r="B64" s="156"/>
+      <c r="C64" s="157"/>
       <c r="D64" s="104">
         <v>3.35</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" s="175"/>
-      <c r="B65" s="176"/>
-      <c r="C65" s="176">
+      <c r="A65" s="154"/>
+      <c r="B65" s="156"/>
+      <c r="C65" s="156">
         <f t="shared" ref="C65" si="48">D65</f>
         <v>3.55</v>
       </c>
@@ -14587,23 +14601,23 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" s="175"/>
-      <c r="B66" s="176"/>
-      <c r="C66" s="177"/>
+      <c r="A66" s="154"/>
+      <c r="B66" s="156"/>
+      <c r="C66" s="157"/>
       <c r="D66" s="104">
         <v>3.75</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="174">
+      <c r="A67" s="158">
         <f t="shared" ref="A67:C67" si="49">B67</f>
         <v>4</v>
       </c>
-      <c r="B67" s="176">
+      <c r="B67" s="156">
         <f t="shared" si="49"/>
         <v>4</v>
       </c>
-      <c r="C67" s="176">
+      <c r="C67" s="156">
         <f t="shared" si="49"/>
         <v>4</v>
       </c>
@@ -14612,17 +14626,17 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" s="175"/>
-      <c r="B68" s="176"/>
-      <c r="C68" s="177"/>
+      <c r="A68" s="154"/>
+      <c r="B68" s="156"/>
+      <c r="C68" s="157"/>
       <c r="D68" s="104">
         <v>4.25</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A69" s="175"/>
-      <c r="B69" s="176"/>
-      <c r="C69" s="176">
+      <c r="A69" s="154"/>
+      <c r="B69" s="156"/>
+      <c r="C69" s="156">
         <f t="shared" ref="C69" si="50">D69</f>
         <v>4.5</v>
       </c>
@@ -14631,20 +14645,20 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" s="175"/>
-      <c r="B70" s="176"/>
-      <c r="C70" s="177"/>
+      <c r="A70" s="154"/>
+      <c r="B70" s="156"/>
+      <c r="C70" s="157"/>
       <c r="D70" s="104">
         <v>4.75</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" s="175"/>
-      <c r="B71" s="176">
+      <c r="A71" s="154"/>
+      <c r="B71" s="156">
         <f t="shared" ref="B71:C71" si="51">C71</f>
         <v>5</v>
       </c>
-      <c r="C71" s="176">
+      <c r="C71" s="156">
         <f t="shared" si="51"/>
         <v>5</v>
       </c>
@@ -14653,17 +14667,17 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A72" s="175"/>
-      <c r="B72" s="176"/>
-      <c r="C72" s="177"/>
+      <c r="A72" s="154"/>
+      <c r="B72" s="156"/>
+      <c r="C72" s="157"/>
       <c r="D72" s="104">
         <v>5.3</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" s="175"/>
-      <c r="B73" s="176"/>
-      <c r="C73" s="176">
+      <c r="A73" s="154"/>
+      <c r="B73" s="156"/>
+      <c r="C73" s="156">
         <f t="shared" ref="C73" si="52">D73</f>
         <v>5.6</v>
       </c>
@@ -14672,23 +14686,23 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A74" s="175"/>
-      <c r="B74" s="176"/>
-      <c r="C74" s="177"/>
+      <c r="A74" s="154"/>
+      <c r="B74" s="156"/>
+      <c r="C74" s="157"/>
       <c r="D74" s="104">
         <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" s="174">
+      <c r="A75" s="158">
         <f t="shared" ref="A75:C75" si="53">B75</f>
         <v>6.3</v>
       </c>
-      <c r="B75" s="176">
+      <c r="B75" s="156">
         <f t="shared" si="53"/>
         <v>6.3</v>
       </c>
-      <c r="C75" s="176">
+      <c r="C75" s="156">
         <f t="shared" si="53"/>
         <v>6.3</v>
       </c>
@@ -14697,17 +14711,17 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" s="175"/>
-      <c r="B76" s="176"/>
-      <c r="C76" s="177"/>
+      <c r="A76" s="154"/>
+      <c r="B76" s="156"/>
+      <c r="C76" s="157"/>
       <c r="D76" s="104">
         <v>6.7</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" s="175"/>
-      <c r="B77" s="176"/>
-      <c r="C77" s="176">
+      <c r="A77" s="154"/>
+      <c r="B77" s="156"/>
+      <c r="C77" s="156">
         <f t="shared" ref="C77" si="54">D77</f>
         <v>7.1</v>
       </c>
@@ -14716,20 +14730,20 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" s="175"/>
-      <c r="B78" s="176"/>
-      <c r="C78" s="177"/>
+      <c r="A78" s="154"/>
+      <c r="B78" s="156"/>
+      <c r="C78" s="157"/>
       <c r="D78" s="104">
         <v>7.5</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" s="175"/>
-      <c r="B79" s="176">
+      <c r="A79" s="154"/>
+      <c r="B79" s="156">
         <f t="shared" ref="B79:C79" si="55">C79</f>
         <v>8</v>
       </c>
-      <c r="C79" s="176">
+      <c r="C79" s="156">
         <f t="shared" si="55"/>
         <v>8</v>
       </c>
@@ -14738,17 +14752,17 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="175"/>
-      <c r="B80" s="176"/>
-      <c r="C80" s="177"/>
+      <c r="A80" s="154"/>
+      <c r="B80" s="156"/>
+      <c r="C80" s="157"/>
       <c r="D80" s="104">
         <v>8.5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" s="175"/>
-      <c r="B81" s="176"/>
-      <c r="C81" s="176">
+      <c r="A81" s="154"/>
+      <c r="B81" s="156"/>
+      <c r="C81" s="156">
         <f t="shared" ref="C81:C143" si="56">D81</f>
         <v>9</v>
       </c>
@@ -14757,23 +14771,23 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="175"/>
-      <c r="B82" s="176"/>
-      <c r="C82" s="177"/>
+      <c r="A82" s="154"/>
+      <c r="B82" s="156"/>
+      <c r="C82" s="157"/>
       <c r="D82" s="104">
         <v>9.5</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" s="164">
+      <c r="A83" s="140">
         <f t="shared" ref="A83:B83" si="57">B83</f>
         <v>10</v>
       </c>
-      <c r="B83" s="169">
+      <c r="B83" s="164">
         <f t="shared" si="57"/>
         <v>10</v>
       </c>
-      <c r="C83" s="171">
+      <c r="C83" s="142">
         <f t="shared" si="56"/>
         <v>10</v>
       </c>
@@ -14783,18 +14797,18 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="170"/>
-      <c r="B84" s="169"/>
-      <c r="C84" s="173"/>
+      <c r="A84" s="163"/>
+      <c r="B84" s="164"/>
+      <c r="C84" s="165"/>
       <c r="D84" s="106">
         <f t="shared" ref="D84:D147" si="58">D44*10</f>
         <v>10.600000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="170"/>
-      <c r="B85" s="169"/>
-      <c r="C85" s="171">
+      <c r="A85" s="163"/>
+      <c r="B85" s="164"/>
+      <c r="C85" s="142">
         <f t="shared" si="56"/>
         <v>11.200000000000001</v>
       </c>
@@ -14804,21 +14818,21 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" s="170"/>
-      <c r="B86" s="169"/>
-      <c r="C86" s="173"/>
+      <c r="A86" s="163"/>
+      <c r="B86" s="164"/>
+      <c r="C86" s="165"/>
       <c r="D86" s="106">
         <f t="shared" si="58"/>
         <v>11.799999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" s="170"/>
-      <c r="B87" s="169">
+      <c r="A87" s="163"/>
+      <c r="B87" s="164">
         <f t="shared" ref="B87" si="59">C87</f>
         <v>12.5</v>
       </c>
-      <c r="C87" s="171">
+      <c r="C87" s="142">
         <f t="shared" si="56"/>
         <v>12.5</v>
       </c>
@@ -14828,18 +14842,18 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" s="170"/>
-      <c r="B88" s="169"/>
-      <c r="C88" s="173"/>
+      <c r="A88" s="163"/>
+      <c r="B88" s="164"/>
+      <c r="C88" s="165"/>
       <c r="D88" s="106">
         <f t="shared" si="58"/>
         <v>13.200000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="170"/>
-      <c r="B89" s="169"/>
-      <c r="C89" s="171">
+      <c r="A89" s="163"/>
+      <c r="B89" s="164"/>
+      <c r="C89" s="142">
         <f t="shared" si="56"/>
         <v>14</v>
       </c>
@@ -14849,24 +14863,24 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" s="170"/>
-      <c r="B90" s="169"/>
-      <c r="C90" s="173"/>
+      <c r="A90" s="163"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="165"/>
       <c r="D90" s="105">
         <f t="shared" si="58"/>
         <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" s="164">
+      <c r="A91" s="140">
         <f t="shared" ref="A91" si="60">B91</f>
         <v>16</v>
       </c>
-      <c r="B91" s="169">
+      <c r="B91" s="164">
         <f t="shared" ref="B91" si="61">C91</f>
         <v>16</v>
       </c>
-      <c r="C91" s="171">
+      <c r="C91" s="142">
         <f t="shared" si="56"/>
         <v>16</v>
       </c>
@@ -14876,18 +14890,18 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="170"/>
-      <c r="B92" s="169"/>
-      <c r="C92" s="173"/>
+      <c r="A92" s="163"/>
+      <c r="B92" s="164"/>
+      <c r="C92" s="165"/>
       <c r="D92" s="105">
         <f t="shared" si="58"/>
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" s="170"/>
-      <c r="B93" s="169"/>
-      <c r="C93" s="171">
+      <c r="A93" s="163"/>
+      <c r="B93" s="164"/>
+      <c r="C93" s="142">
         <f t="shared" si="56"/>
         <v>18</v>
       </c>
@@ -14897,21 +14911,21 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" s="170"/>
-      <c r="B94" s="169"/>
-      <c r="C94" s="173"/>
+      <c r="A94" s="163"/>
+      <c r="B94" s="164"/>
+      <c r="C94" s="165"/>
       <c r="D94" s="105">
         <f t="shared" si="58"/>
         <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" s="170"/>
-      <c r="B95" s="169">
+      <c r="A95" s="163"/>
+      <c r="B95" s="164">
         <f t="shared" ref="B95" si="62">C95</f>
         <v>20</v>
       </c>
-      <c r="C95" s="171">
+      <c r="C95" s="142">
         <f t="shared" si="56"/>
         <v>20</v>
       </c>
@@ -14921,18 +14935,18 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" s="170"/>
-      <c r="B96" s="169"/>
-      <c r="C96" s="173"/>
+      <c r="A96" s="163"/>
+      <c r="B96" s="164"/>
+      <c r="C96" s="165"/>
       <c r="D96" s="106">
         <f t="shared" si="58"/>
         <v>21.200000000000003</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A97" s="170"/>
-      <c r="B97" s="169"/>
-      <c r="C97" s="171">
+      <c r="A97" s="163"/>
+      <c r="B97" s="164"/>
+      <c r="C97" s="142">
         <f t="shared" si="56"/>
         <v>22.400000000000002</v>
       </c>
@@ -14942,24 +14956,24 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" s="170"/>
-      <c r="B98" s="169"/>
-      <c r="C98" s="173"/>
+      <c r="A98" s="163"/>
+      <c r="B98" s="164"/>
+      <c r="C98" s="165"/>
       <c r="D98" s="106">
         <f t="shared" si="58"/>
         <v>23.599999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" s="164">
+      <c r="A99" s="140">
         <f t="shared" ref="A99:A155" si="63">B99</f>
         <v>25</v>
       </c>
-      <c r="B99" s="169">
+      <c r="B99" s="164">
         <f t="shared" ref="B99" si="64">C99</f>
         <v>25</v>
       </c>
-      <c r="C99" s="171">
+      <c r="C99" s="142">
         <f t="shared" si="56"/>
         <v>25</v>
       </c>
@@ -14969,18 +14983,18 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" s="170"/>
-      <c r="B100" s="169"/>
-      <c r="C100" s="173"/>
+      <c r="A100" s="163"/>
+      <c r="B100" s="164"/>
+      <c r="C100" s="165"/>
       <c r="D100" s="106">
         <f t="shared" si="58"/>
         <v>26.5</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" s="170"/>
-      <c r="B101" s="169"/>
-      <c r="C101" s="171">
+      <c r="A101" s="163"/>
+      <c r="B101" s="164"/>
+      <c r="C101" s="142">
         <f t="shared" si="56"/>
         <v>28</v>
       </c>
@@ -14990,21 +15004,21 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" s="170"/>
-      <c r="B102" s="169"/>
-      <c r="C102" s="173"/>
+      <c r="A102" s="163"/>
+      <c r="B102" s="164"/>
+      <c r="C102" s="165"/>
       <c r="D102" s="105">
         <f t="shared" si="58"/>
         <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" s="170"/>
-      <c r="B103" s="169">
+      <c r="A103" s="163"/>
+      <c r="B103" s="164">
         <f t="shared" ref="B103" si="65">C103</f>
         <v>31.5</v>
       </c>
-      <c r="C103" s="171">
+      <c r="C103" s="142">
         <f t="shared" si="56"/>
         <v>31.5</v>
       </c>
@@ -15014,18 +15028,18 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" s="170"/>
-      <c r="B104" s="169"/>
-      <c r="C104" s="173"/>
+      <c r="A104" s="163"/>
+      <c r="B104" s="164"/>
+      <c r="C104" s="165"/>
       <c r="D104" s="106">
         <f t="shared" si="58"/>
         <v>33.5</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" s="170"/>
-      <c r="B105" s="169"/>
-      <c r="C105" s="171">
+      <c r="A105" s="163"/>
+      <c r="B105" s="164"/>
+      <c r="C105" s="142">
         <f t="shared" si="56"/>
         <v>35.5</v>
       </c>
@@ -15035,24 +15049,24 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" s="170"/>
-      <c r="B106" s="169"/>
-      <c r="C106" s="173"/>
+      <c r="A106" s="163"/>
+      <c r="B106" s="164"/>
+      <c r="C106" s="165"/>
       <c r="D106" s="106">
         <f t="shared" si="58"/>
         <v>37.5</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A107" s="164">
+      <c r="A107" s="140">
         <f t="shared" si="63"/>
         <v>40</v>
       </c>
-      <c r="B107" s="169">
+      <c r="B107" s="164">
         <f t="shared" ref="B107" si="66">C107</f>
         <v>40</v>
       </c>
-      <c r="C107" s="171">
+      <c r="C107" s="142">
         <f t="shared" si="56"/>
         <v>40</v>
       </c>
@@ -15062,18 +15076,18 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A108" s="170"/>
-      <c r="B108" s="169"/>
-      <c r="C108" s="173"/>
+      <c r="A108" s="163"/>
+      <c r="B108" s="164"/>
+      <c r="C108" s="165"/>
       <c r="D108" s="106">
         <f t="shared" si="58"/>
         <v>42.5</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" s="170"/>
-      <c r="B109" s="169"/>
-      <c r="C109" s="171">
+      <c r="A109" s="163"/>
+      <c r="B109" s="164"/>
+      <c r="C109" s="142">
         <f t="shared" si="56"/>
         <v>45</v>
       </c>
@@ -15083,21 +15097,21 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" s="170"/>
-      <c r="B110" s="169"/>
-      <c r="C110" s="173"/>
+      <c r="A110" s="163"/>
+      <c r="B110" s="164"/>
+      <c r="C110" s="165"/>
       <c r="D110" s="106">
         <f t="shared" si="58"/>
         <v>47.5</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" s="170"/>
-      <c r="B111" s="169">
+      <c r="A111" s="163"/>
+      <c r="B111" s="164">
         <f t="shared" ref="B111" si="67">C111</f>
         <v>50</v>
       </c>
-      <c r="C111" s="171">
+      <c r="C111" s="142">
         <f t="shared" si="56"/>
         <v>50</v>
       </c>
@@ -15107,18 +15121,18 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" s="170"/>
-      <c r="B112" s="169"/>
-      <c r="C112" s="173"/>
+      <c r="A112" s="163"/>
+      <c r="B112" s="164"/>
+      <c r="C112" s="165"/>
       <c r="D112" s="105">
         <f t="shared" si="58"/>
         <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" s="170"/>
-      <c r="B113" s="169"/>
-      <c r="C113" s="171">
+      <c r="A113" s="163"/>
+      <c r="B113" s="164"/>
+      <c r="C113" s="142">
         <f t="shared" si="56"/>
         <v>56</v>
       </c>
@@ -15128,24 +15142,24 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" s="170"/>
-      <c r="B114" s="169"/>
-      <c r="C114" s="173"/>
+      <c r="A114" s="163"/>
+      <c r="B114" s="164"/>
+      <c r="C114" s="165"/>
       <c r="D114" s="105">
         <f t="shared" si="58"/>
         <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A115" s="164">
+      <c r="A115" s="140">
         <f t="shared" si="63"/>
         <v>63</v>
       </c>
-      <c r="B115" s="169">
+      <c r="B115" s="164">
         <f t="shared" ref="B115" si="68">C115</f>
         <v>63</v>
       </c>
-      <c r="C115" s="171">
+      <c r="C115" s="142">
         <f t="shared" si="56"/>
         <v>63</v>
       </c>
@@ -15155,18 +15169,18 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A116" s="170"/>
-      <c r="B116" s="169"/>
-      <c r="C116" s="173"/>
+      <c r="A116" s="163"/>
+      <c r="B116" s="164"/>
+      <c r="C116" s="165"/>
       <c r="D116" s="105">
         <f t="shared" si="58"/>
         <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A117" s="170"/>
-      <c r="B117" s="169"/>
-      <c r="C117" s="171">
+      <c r="A117" s="163"/>
+      <c r="B117" s="164"/>
+      <c r="C117" s="142">
         <f t="shared" si="56"/>
         <v>71</v>
       </c>
@@ -15176,21 +15190,21 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" s="170"/>
-      <c r="B118" s="169"/>
-      <c r="C118" s="173"/>
+      <c r="A118" s="163"/>
+      <c r="B118" s="164"/>
+      <c r="C118" s="165"/>
       <c r="D118" s="105">
         <f t="shared" si="58"/>
         <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A119" s="170"/>
-      <c r="B119" s="169">
+      <c r="A119" s="163"/>
+      <c r="B119" s="164">
         <f t="shared" ref="B119" si="69">C119</f>
         <v>80</v>
       </c>
-      <c r="C119" s="171">
+      <c r="C119" s="142">
         <f t="shared" si="56"/>
         <v>80</v>
       </c>
@@ -15200,18 +15214,18 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A120" s="170"/>
-      <c r="B120" s="169"/>
-      <c r="C120" s="173"/>
+      <c r="A120" s="163"/>
+      <c r="B120" s="164"/>
+      <c r="C120" s="165"/>
       <c r="D120" s="105">
         <f t="shared" si="58"/>
         <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A121" s="170"/>
-      <c r="B121" s="169"/>
-      <c r="C121" s="171">
+      <c r="A121" s="163"/>
+      <c r="B121" s="164"/>
+      <c r="C121" s="142">
         <f t="shared" si="56"/>
         <v>90</v>
       </c>
@@ -15221,24 +15235,24 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122" s="170"/>
-      <c r="B122" s="169"/>
-      <c r="C122" s="173"/>
+      <c r="A122" s="163"/>
+      <c r="B122" s="164"/>
+      <c r="C122" s="165"/>
       <c r="D122" s="105">
         <f t="shared" si="58"/>
         <v>95</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" s="164">
+      <c r="A123" s="140">
         <f t="shared" si="63"/>
         <v>100</v>
       </c>
-      <c r="B123" s="166">
+      <c r="B123" s="147">
         <f t="shared" ref="B123" si="70">C123</f>
         <v>100</v>
       </c>
-      <c r="C123" s="171">
+      <c r="C123" s="142">
         <f t="shared" si="56"/>
         <v>100</v>
       </c>
@@ -15248,18 +15262,18 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A124" s="165"/>
-      <c r="B124" s="166"/>
-      <c r="C124" s="172"/>
+      <c r="A124" s="145"/>
+      <c r="B124" s="147"/>
+      <c r="C124" s="166"/>
       <c r="D124" s="106">
         <f t="shared" si="58"/>
         <v>106.00000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A125" s="165"/>
-      <c r="B125" s="166"/>
-      <c r="C125" s="171">
+      <c r="A125" s="145"/>
+      <c r="B125" s="147"/>
+      <c r="C125" s="142">
         <f t="shared" si="56"/>
         <v>112.00000000000001</v>
       </c>
@@ -15269,21 +15283,21 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" s="165"/>
-      <c r="B126" s="166"/>
-      <c r="C126" s="172"/>
+      <c r="A126" s="145"/>
+      <c r="B126" s="147"/>
+      <c r="C126" s="166"/>
       <c r="D126" s="106">
         <f t="shared" si="58"/>
         <v>117.99999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A127" s="165"/>
-      <c r="B127" s="166">
+      <c r="A127" s="145"/>
+      <c r="B127" s="147">
         <f t="shared" ref="B127" si="71">C127</f>
         <v>125</v>
       </c>
-      <c r="C127" s="171">
+      <c r="C127" s="142">
         <f t="shared" si="56"/>
         <v>125</v>
       </c>
@@ -15293,18 +15307,18 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A128" s="165"/>
-      <c r="B128" s="166"/>
-      <c r="C128" s="172"/>
+      <c r="A128" s="145"/>
+      <c r="B128" s="147"/>
+      <c r="C128" s="166"/>
       <c r="D128" s="106">
         <f t="shared" si="58"/>
         <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A129" s="165"/>
-      <c r="B129" s="166"/>
-      <c r="C129" s="171">
+      <c r="A129" s="145"/>
+      <c r="B129" s="147"/>
+      <c r="C129" s="142">
         <f t="shared" si="56"/>
         <v>140</v>
       </c>
@@ -15314,24 +15328,24 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A130" s="165"/>
-      <c r="B130" s="166"/>
-      <c r="C130" s="172"/>
+      <c r="A130" s="145"/>
+      <c r="B130" s="147"/>
+      <c r="C130" s="166"/>
       <c r="D130" s="106">
         <f t="shared" si="58"/>
         <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A131" s="164">
+      <c r="A131" s="140">
         <f t="shared" si="63"/>
         <v>160</v>
       </c>
-      <c r="B131" s="166">
+      <c r="B131" s="147">
         <f t="shared" ref="B131" si="72">C131</f>
         <v>160</v>
       </c>
-      <c r="C131" s="171">
+      <c r="C131" s="142">
         <f t="shared" si="56"/>
         <v>160</v>
       </c>
@@ -15341,18 +15355,18 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A132" s="165"/>
-      <c r="B132" s="166"/>
-      <c r="C132" s="172"/>
+      <c r="A132" s="145"/>
+      <c r="B132" s="147"/>
+      <c r="C132" s="166"/>
       <c r="D132" s="106">
         <f t="shared" si="58"/>
         <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A133" s="165"/>
-      <c r="B133" s="166"/>
-      <c r="C133" s="171">
+      <c r="A133" s="145"/>
+      <c r="B133" s="147"/>
+      <c r="C133" s="142">
         <f t="shared" si="56"/>
         <v>180</v>
       </c>
@@ -15362,21 +15376,21 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A134" s="165"/>
-      <c r="B134" s="166"/>
-      <c r="C134" s="172"/>
+      <c r="A134" s="145"/>
+      <c r="B134" s="147"/>
+      <c r="C134" s="166"/>
       <c r="D134" s="106">
         <f t="shared" si="58"/>
         <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A135" s="165"/>
-      <c r="B135" s="166">
+      <c r="A135" s="145"/>
+      <c r="B135" s="147">
         <f t="shared" ref="B135" si="73">C135</f>
         <v>200</v>
       </c>
-      <c r="C135" s="171">
+      <c r="C135" s="142">
         <f t="shared" si="56"/>
         <v>200</v>
       </c>
@@ -15386,18 +15400,18 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A136" s="165"/>
-      <c r="B136" s="166"/>
-      <c r="C136" s="172"/>
+      <c r="A136" s="145"/>
+      <c r="B136" s="147"/>
+      <c r="C136" s="166"/>
       <c r="D136" s="106">
         <f t="shared" si="58"/>
         <v>212.00000000000003</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A137" s="165"/>
-      <c r="B137" s="166"/>
-      <c r="C137" s="171">
+      <c r="A137" s="145"/>
+      <c r="B137" s="147"/>
+      <c r="C137" s="142">
         <f t="shared" si="56"/>
         <v>224.00000000000003</v>
       </c>
@@ -15407,24 +15421,24 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A138" s="165"/>
-      <c r="B138" s="166"/>
-      <c r="C138" s="172"/>
+      <c r="A138" s="145"/>
+      <c r="B138" s="147"/>
+      <c r="C138" s="166"/>
       <c r="D138" s="106">
         <f t="shared" si="58"/>
         <v>235.99999999999997</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A139" s="164">
+      <c r="A139" s="140">
         <f t="shared" si="63"/>
         <v>250</v>
       </c>
-      <c r="B139" s="166">
+      <c r="B139" s="147">
         <f t="shared" ref="B139" si="74">C139</f>
         <v>250</v>
       </c>
-      <c r="C139" s="171">
+      <c r="C139" s="142">
         <f t="shared" si="56"/>
         <v>250</v>
       </c>
@@ -15434,18 +15448,18 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A140" s="165"/>
-      <c r="B140" s="166"/>
-      <c r="C140" s="172"/>
+      <c r="A140" s="145"/>
+      <c r="B140" s="147"/>
+      <c r="C140" s="166"/>
       <c r="D140" s="106">
         <f t="shared" si="58"/>
         <v>265</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A141" s="165"/>
-      <c r="B141" s="166"/>
-      <c r="C141" s="171">
+      <c r="A141" s="145"/>
+      <c r="B141" s="147"/>
+      <c r="C141" s="142">
         <f t="shared" si="56"/>
         <v>280</v>
       </c>
@@ -15455,21 +15469,21 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A142" s="165"/>
-      <c r="B142" s="166"/>
-      <c r="C142" s="172"/>
+      <c r="A142" s="145"/>
+      <c r="B142" s="147"/>
+      <c r="C142" s="166"/>
       <c r="D142" s="106">
         <f t="shared" si="58"/>
         <v>300</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A143" s="165"/>
-      <c r="B143" s="166">
+      <c r="A143" s="145"/>
+      <c r="B143" s="147">
         <f t="shared" ref="B143" si="75">C143</f>
         <v>315</v>
       </c>
-      <c r="C143" s="171">
+      <c r="C143" s="142">
         <f t="shared" si="56"/>
         <v>315</v>
       </c>
@@ -15479,18 +15493,18 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A144" s="165"/>
-      <c r="B144" s="166"/>
-      <c r="C144" s="172"/>
+      <c r="A144" s="145"/>
+      <c r="B144" s="147"/>
+      <c r="C144" s="166"/>
       <c r="D144" s="106">
         <f t="shared" si="58"/>
         <v>335</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="165"/>
-      <c r="B145" s="166"/>
-      <c r="C145" s="171">
+      <c r="A145" s="145"/>
+      <c r="B145" s="147"/>
+      <c r="C145" s="142">
         <f t="shared" ref="C145:C178" si="76">D145</f>
         <v>355</v>
       </c>
@@ -15500,24 +15514,24 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A146" s="165"/>
-      <c r="B146" s="166"/>
-      <c r="C146" s="172"/>
+      <c r="A146" s="145"/>
+      <c r="B146" s="147"/>
+      <c r="C146" s="166"/>
       <c r="D146" s="106">
         <f t="shared" si="58"/>
         <v>375</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A147" s="164">
+      <c r="A147" s="140">
         <f t="shared" si="63"/>
         <v>400</v>
       </c>
-      <c r="B147" s="166">
+      <c r="B147" s="147">
         <f t="shared" ref="B147" si="77">C147</f>
         <v>400</v>
       </c>
-      <c r="C147" s="171">
+      <c r="C147" s="142">
         <f t="shared" si="76"/>
         <v>400</v>
       </c>
@@ -15527,18 +15541,18 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A148" s="165"/>
-      <c r="B148" s="166"/>
-      <c r="C148" s="172"/>
+      <c r="A148" s="145"/>
+      <c r="B148" s="147"/>
+      <c r="C148" s="166"/>
       <c r="D148" s="106">
         <f t="shared" ref="D148:D211" si="78">D108*10</f>
         <v>425</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A149" s="165"/>
-      <c r="B149" s="166"/>
-      <c r="C149" s="171">
+      <c r="A149" s="145"/>
+      <c r="B149" s="147"/>
+      <c r="C149" s="142">
         <f t="shared" si="76"/>
         <v>450</v>
       </c>
@@ -15548,21 +15562,21 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A150" s="165"/>
-      <c r="B150" s="166"/>
-      <c r="C150" s="172"/>
+      <c r="A150" s="145"/>
+      <c r="B150" s="147"/>
+      <c r="C150" s="166"/>
       <c r="D150" s="106">
         <f t="shared" si="78"/>
         <v>475</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A151" s="165"/>
-      <c r="B151" s="166">
+      <c r="A151" s="145"/>
+      <c r="B151" s="147">
         <f t="shared" ref="B151" si="79">C151</f>
         <v>500</v>
       </c>
-      <c r="C151" s="171">
+      <c r="C151" s="142">
         <f t="shared" si="76"/>
         <v>500</v>
       </c>
@@ -15572,18 +15586,18 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A152" s="165"/>
-      <c r="B152" s="166"/>
-      <c r="C152" s="172"/>
+      <c r="A152" s="145"/>
+      <c r="B152" s="147"/>
+      <c r="C152" s="166"/>
       <c r="D152" s="106">
         <f t="shared" si="78"/>
         <v>530</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A153" s="165"/>
-      <c r="B153" s="166"/>
-      <c r="C153" s="171">
+      <c r="A153" s="145"/>
+      <c r="B153" s="147"/>
+      <c r="C153" s="142">
         <f t="shared" si="76"/>
         <v>560</v>
       </c>
@@ -15593,24 +15607,24 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A154" s="165"/>
-      <c r="B154" s="166"/>
-      <c r="C154" s="172"/>
+      <c r="A154" s="145"/>
+      <c r="B154" s="147"/>
+      <c r="C154" s="166"/>
       <c r="D154" s="106">
         <f t="shared" si="78"/>
         <v>600</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A155" s="164">
+      <c r="A155" s="140">
         <f t="shared" si="63"/>
         <v>630</v>
       </c>
-      <c r="B155" s="166">
+      <c r="B155" s="147">
         <f t="shared" ref="B155" si="80">C155</f>
         <v>630</v>
       </c>
-      <c r="C155" s="171">
+      <c r="C155" s="142">
         <f t="shared" si="76"/>
         <v>630</v>
       </c>
@@ -15620,18 +15634,18 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A156" s="165"/>
-      <c r="B156" s="166"/>
-      <c r="C156" s="172"/>
+      <c r="A156" s="145"/>
+      <c r="B156" s="147"/>
+      <c r="C156" s="166"/>
       <c r="D156" s="106">
         <f t="shared" si="78"/>
         <v>670</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A157" s="165"/>
-      <c r="B157" s="166"/>
-      <c r="C157" s="171">
+      <c r="A157" s="145"/>
+      <c r="B157" s="147"/>
+      <c r="C157" s="142">
         <f t="shared" si="76"/>
         <v>710</v>
       </c>
@@ -15641,21 +15655,21 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A158" s="165"/>
-      <c r="B158" s="166"/>
-      <c r="C158" s="172"/>
+      <c r="A158" s="145"/>
+      <c r="B158" s="147"/>
+      <c r="C158" s="166"/>
       <c r="D158" s="106">
         <f t="shared" si="78"/>
         <v>750</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A159" s="165"/>
-      <c r="B159" s="166">
+      <c r="A159" s="145"/>
+      <c r="B159" s="147">
         <f t="shared" ref="B159" si="81">C159</f>
         <v>800</v>
       </c>
-      <c r="C159" s="171">
+      <c r="C159" s="142">
         <f t="shared" si="76"/>
         <v>800</v>
       </c>
@@ -15665,18 +15679,18 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A160" s="165"/>
-      <c r="B160" s="166"/>
-      <c r="C160" s="172"/>
+      <c r="A160" s="145"/>
+      <c r="B160" s="147"/>
+      <c r="C160" s="166"/>
       <c r="D160" s="106">
         <f t="shared" si="78"/>
         <v>850</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A161" s="165"/>
-      <c r="B161" s="166"/>
-      <c r="C161" s="171">
+      <c r="A161" s="145"/>
+      <c r="B161" s="147"/>
+      <c r="C161" s="142">
         <f t="shared" si="76"/>
         <v>900</v>
       </c>
@@ -15686,20 +15700,20 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A162" s="165"/>
-      <c r="B162" s="166"/>
-      <c r="C162" s="172"/>
+      <c r="A162" s="145"/>
+      <c r="B162" s="147"/>
+      <c r="C162" s="166"/>
       <c r="D162" s="106">
         <f t="shared" si="78"/>
         <v>950</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A163" s="164">
+      <c r="A163" s="140">
         <f t="shared" ref="A163:B175" si="82">B163</f>
         <v>1000</v>
       </c>
-      <c r="B163" s="166">
+      <c r="B163" s="147">
         <f t="shared" si="82"/>
         <v>1000</v>
       </c>
@@ -15713,8 +15727,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A164" s="165"/>
-      <c r="B164" s="166"/>
+      <c r="A164" s="145"/>
+      <c r="B164" s="147"/>
       <c r="C164" s="126">
         <f t="shared" si="76"/>
         <v>1060.0000000000002</v>
@@ -15725,8 +15739,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A165" s="165"/>
-      <c r="B165" s="166"/>
+      <c r="A165" s="145"/>
+      <c r="B165" s="147"/>
       <c r="C165" s="126">
         <f t="shared" si="76"/>
         <v>1120.0000000000002</v>
@@ -15737,8 +15751,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A166" s="165"/>
-      <c r="B166" s="166"/>
+      <c r="A166" s="145"/>
+      <c r="B166" s="147"/>
       <c r="C166" s="126">
         <f t="shared" si="76"/>
         <v>1179.9999999999998</v>
@@ -15749,8 +15763,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A167" s="165"/>
-      <c r="B167" s="166">
+      <c r="A167" s="145"/>
+      <c r="B167" s="147">
         <f t="shared" si="82"/>
         <v>1250</v>
       </c>
@@ -15764,8 +15778,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A168" s="165"/>
-      <c r="B168" s="166"/>
+      <c r="A168" s="145"/>
+      <c r="B168" s="147"/>
       <c r="C168" s="126">
         <f t="shared" si="76"/>
         <v>1320</v>
@@ -15776,8 +15790,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A169" s="165"/>
-      <c r="B169" s="166"/>
+      <c r="A169" s="145"/>
+      <c r="B169" s="147"/>
       <c r="C169" s="126">
         <f t="shared" si="76"/>
         <v>1400</v>
@@ -15788,8 +15802,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A170" s="165"/>
-      <c r="B170" s="166"/>
+      <c r="A170" s="145"/>
+      <c r="B170" s="147"/>
       <c r="C170" s="126">
         <f t="shared" si="76"/>
         <v>1500</v>
@@ -15800,11 +15814,11 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A171" s="164">
+      <c r="A171" s="140">
         <f t="shared" si="82"/>
         <v>1600</v>
       </c>
-      <c r="B171" s="166">
+      <c r="B171" s="147">
         <f t="shared" si="82"/>
         <v>1600</v>
       </c>
@@ -15818,8 +15832,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A172" s="165"/>
-      <c r="B172" s="166"/>
+      <c r="A172" s="145"/>
+      <c r="B172" s="147"/>
       <c r="C172" s="126">
         <f t="shared" si="76"/>
         <v>1700</v>
@@ -15830,8 +15844,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A173" s="165"/>
-      <c r="B173" s="166"/>
+      <c r="A173" s="145"/>
+      <c r="B173" s="147"/>
       <c r="C173" s="126">
         <f t="shared" si="76"/>
         <v>1800</v>
@@ -15842,8 +15856,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A174" s="165"/>
-      <c r="B174" s="166"/>
+      <c r="A174" s="145"/>
+      <c r="B174" s="147"/>
       <c r="C174" s="126">
         <f t="shared" si="76"/>
         <v>1900</v>
@@ -15854,8 +15868,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A175" s="165"/>
-      <c r="B175" s="166">
+      <c r="A175" s="145"/>
+      <c r="B175" s="147">
         <f t="shared" si="82"/>
         <v>2000</v>
       </c>
@@ -15869,8 +15883,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A176" s="165"/>
-      <c r="B176" s="166"/>
+      <c r="A176" s="145"/>
+      <c r="B176" s="147"/>
       <c r="C176" s="126">
         <f t="shared" si="76"/>
         <v>2120.0000000000005</v>
@@ -15881,8 +15895,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A177" s="165"/>
-      <c r="B177" s="166"/>
+      <c r="A177" s="145"/>
+      <c r="B177" s="147"/>
       <c r="C177" s="126">
         <f t="shared" si="76"/>
         <v>2240.0000000000005</v>
@@ -15893,8 +15907,8 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A178" s="168"/>
-      <c r="B178" s="167"/>
+      <c r="A178" s="146"/>
+      <c r="B178" s="148"/>
       <c r="C178" s="109">
         <f t="shared" si="76"/>
         <v>2359.9999999999995</v>
@@ -15905,11 +15919,11 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A179" s="164">
+      <c r="A179" s="140">
         <f t="shared" ref="A179" si="83">B179</f>
         <v>2500</v>
       </c>
-      <c r="B179" s="166">
+      <c r="B179" s="147">
         <f t="shared" ref="B179" si="84">C179</f>
         <v>2500</v>
       </c>
@@ -15923,8 +15937,8 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A180" s="165"/>
-      <c r="B180" s="166"/>
+      <c r="A180" s="145"/>
+      <c r="B180" s="147"/>
       <c r="C180" s="126">
         <f t="shared" si="85"/>
         <v>2650</v>
@@ -15935,8 +15949,8 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A181" s="165"/>
-      <c r="B181" s="166"/>
+      <c r="A181" s="145"/>
+      <c r="B181" s="147"/>
       <c r="C181" s="126">
         <f t="shared" si="85"/>
         <v>2800</v>
@@ -15947,8 +15961,8 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A182" s="165"/>
-      <c r="B182" s="166"/>
+      <c r="A182" s="145"/>
+      <c r="B182" s="147"/>
       <c r="C182" s="126">
         <f t="shared" si="85"/>
         <v>3000</v>
@@ -15959,8 +15973,8 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A183" s="165"/>
-      <c r="B183" s="166">
+      <c r="A183" s="145"/>
+      <c r="B183" s="147">
         <f t="shared" ref="B183" si="86">C183</f>
         <v>3150</v>
       </c>
@@ -15974,8 +15988,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A184" s="165"/>
-      <c r="B184" s="166"/>
+      <c r="A184" s="145"/>
+      <c r="B184" s="147"/>
       <c r="C184" s="126">
         <f t="shared" si="85"/>
         <v>3350</v>
@@ -15986,8 +16000,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A185" s="165"/>
-      <c r="B185" s="166"/>
+      <c r="A185" s="145"/>
+      <c r="B185" s="147"/>
       <c r="C185" s="126">
         <f t="shared" si="85"/>
         <v>3550</v>
@@ -15998,8 +16012,8 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A186" s="168"/>
-      <c r="B186" s="167"/>
+      <c r="A186" s="146"/>
+      <c r="B186" s="148"/>
       <c r="C186" s="109">
         <f t="shared" si="85"/>
         <v>3750</v>
@@ -16010,11 +16024,11 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A187" s="164">
+      <c r="A187" s="140">
         <f t="shared" ref="A187" si="87">B187</f>
         <v>4000</v>
       </c>
-      <c r="B187" s="166">
+      <c r="B187" s="147">
         <f t="shared" ref="B187" si="88">C187</f>
         <v>4000</v>
       </c>
@@ -16028,8 +16042,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A188" s="165"/>
-      <c r="B188" s="166"/>
+      <c r="A188" s="145"/>
+      <c r="B188" s="147"/>
       <c r="C188" s="126">
         <f t="shared" si="85"/>
         <v>4250</v>
@@ -16040,8 +16054,8 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A189" s="165"/>
-      <c r="B189" s="166"/>
+      <c r="A189" s="145"/>
+      <c r="B189" s="147"/>
       <c r="C189" s="126">
         <f t="shared" si="85"/>
         <v>4500</v>
@@ -16052,8 +16066,8 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A190" s="165"/>
-      <c r="B190" s="166"/>
+      <c r="A190" s="145"/>
+      <c r="B190" s="147"/>
       <c r="C190" s="126">
         <f t="shared" si="85"/>
         <v>4750</v>
@@ -16064,8 +16078,8 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A191" s="165"/>
-      <c r="B191" s="166">
+      <c r="A191" s="145"/>
+      <c r="B191" s="147">
         <f t="shared" ref="B191" si="89">C191</f>
         <v>5000</v>
       </c>
@@ -16079,8 +16093,8 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A192" s="165"/>
-      <c r="B192" s="166"/>
+      <c r="A192" s="145"/>
+      <c r="B192" s="147"/>
       <c r="C192" s="126">
         <f t="shared" si="85"/>
         <v>5300</v>
@@ -16091,8 +16105,8 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A193" s="165"/>
-      <c r="B193" s="166"/>
+      <c r="A193" s="145"/>
+      <c r="B193" s="147"/>
       <c r="C193" s="126">
         <f t="shared" si="85"/>
         <v>5600</v>
@@ -16103,8 +16117,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A194" s="168"/>
-      <c r="B194" s="167"/>
+      <c r="A194" s="146"/>
+      <c r="B194" s="148"/>
       <c r="C194" s="109">
         <f t="shared" si="85"/>
         <v>6000</v>
@@ -16115,11 +16129,11 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A195" s="164">
+      <c r="A195" s="140">
         <f t="shared" ref="A195" si="90">B195</f>
         <v>6300</v>
       </c>
-      <c r="B195" s="166">
+      <c r="B195" s="147">
         <f t="shared" ref="B195" si="91">C195</f>
         <v>6300</v>
       </c>
@@ -16133,8 +16147,8 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A196" s="165"/>
-      <c r="B196" s="166"/>
+      <c r="A196" s="145"/>
+      <c r="B196" s="147"/>
       <c r="C196" s="126">
         <f t="shared" si="85"/>
         <v>6700</v>
@@ -16145,8 +16159,8 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A197" s="165"/>
-      <c r="B197" s="166"/>
+      <c r="A197" s="145"/>
+      <c r="B197" s="147"/>
       <c r="C197" s="126">
         <f t="shared" si="85"/>
         <v>7100</v>
@@ -16157,8 +16171,8 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A198" s="165"/>
-      <c r="B198" s="166"/>
+      <c r="A198" s="145"/>
+      <c r="B198" s="147"/>
       <c r="C198" s="126">
         <f t="shared" si="85"/>
         <v>7500</v>
@@ -16169,8 +16183,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A199" s="165"/>
-      <c r="B199" s="166">
+      <c r="A199" s="145"/>
+      <c r="B199" s="147">
         <f t="shared" ref="B199" si="92">C199</f>
         <v>8000</v>
       </c>
@@ -16184,8 +16198,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A200" s="165"/>
-      <c r="B200" s="166"/>
+      <c r="A200" s="145"/>
+      <c r="B200" s="147"/>
       <c r="C200" s="126">
         <f t="shared" si="85"/>
         <v>8500</v>
@@ -16196,8 +16210,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A201" s="165"/>
-      <c r="B201" s="166"/>
+      <c r="A201" s="145"/>
+      <c r="B201" s="147"/>
       <c r="C201" s="126">
         <f t="shared" si="85"/>
         <v>9000</v>
@@ -16208,8 +16222,8 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A202" s="168"/>
-      <c r="B202" s="167"/>
+      <c r="A202" s="146"/>
+      <c r="B202" s="148"/>
       <c r="C202" s="109">
         <f t="shared" si="85"/>
         <v>9500</v>
@@ -16220,11 +16234,11 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A203" s="164">
+      <c r="A203" s="140">
         <f t="shared" ref="A203" si="93">B203</f>
         <v>10000</v>
       </c>
-      <c r="B203" s="166">
+      <c r="B203" s="147">
         <f t="shared" ref="B203" si="94">C203</f>
         <v>10000</v>
       </c>
@@ -16238,8 +16252,8 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A204" s="165"/>
-      <c r="B204" s="166"/>
+      <c r="A204" s="145"/>
+      <c r="B204" s="147"/>
       <c r="C204" s="126">
         <f t="shared" si="95"/>
         <v>10600.000000000002</v>
@@ -16250,8 +16264,8 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A205" s="165"/>
-      <c r="B205" s="166"/>
+      <c r="A205" s="145"/>
+      <c r="B205" s="147"/>
       <c r="C205" s="126">
         <f t="shared" si="95"/>
         <v>11200.000000000002</v>
@@ -16262,8 +16276,8 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A206" s="165"/>
-      <c r="B206" s="166"/>
+      <c r="A206" s="145"/>
+      <c r="B206" s="147"/>
       <c r="C206" s="126">
         <f t="shared" si="95"/>
         <v>11799.999999999998</v>
@@ -16274,8 +16288,8 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A207" s="165"/>
-      <c r="B207" s="166">
+      <c r="A207" s="145"/>
+      <c r="B207" s="147">
         <f t="shared" ref="B207" si="96">C207</f>
         <v>12500</v>
       </c>
@@ -16289,8 +16303,8 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A208" s="165"/>
-      <c r="B208" s="166"/>
+      <c r="A208" s="145"/>
+      <c r="B208" s="147"/>
       <c r="C208" s="126">
         <f t="shared" si="95"/>
         <v>13200</v>
@@ -16301,8 +16315,8 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A209" s="165"/>
-      <c r="B209" s="166"/>
+      <c r="A209" s="145"/>
+      <c r="B209" s="147"/>
       <c r="C209" s="126">
         <f t="shared" si="95"/>
         <v>14000</v>
@@ -16313,8 +16327,8 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A210" s="168"/>
-      <c r="B210" s="167"/>
+      <c r="A210" s="146"/>
+      <c r="B210" s="148"/>
       <c r="C210" s="109">
         <f t="shared" si="95"/>
         <v>15000</v>
@@ -16325,11 +16339,11 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A211" s="164">
+      <c r="A211" s="140">
         <f t="shared" ref="A211" si="97">B211</f>
         <v>16000</v>
       </c>
-      <c r="B211" s="166">
+      <c r="B211" s="147">
         <f t="shared" ref="B211" si="98">C211</f>
         <v>16000</v>
       </c>
@@ -16343,8 +16357,8 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A212" s="165"/>
-      <c r="B212" s="166"/>
+      <c r="A212" s="145"/>
+      <c r="B212" s="147"/>
       <c r="C212" s="126">
         <f t="shared" si="95"/>
         <v>17000</v>
@@ -16355,8 +16369,8 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A213" s="165"/>
-      <c r="B213" s="166"/>
+      <c r="A213" s="145"/>
+      <c r="B213" s="147"/>
       <c r="C213" s="126">
         <f t="shared" si="95"/>
         <v>18000</v>
@@ -16367,8 +16381,8 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A214" s="165"/>
-      <c r="B214" s="166"/>
+      <c r="A214" s="145"/>
+      <c r="B214" s="147"/>
       <c r="C214" s="126">
         <f t="shared" si="95"/>
         <v>19000</v>
@@ -16379,8 +16393,8 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A215" s="165"/>
-      <c r="B215" s="166">
+      <c r="A215" s="145"/>
+      <c r="B215" s="147">
         <f t="shared" ref="B215" si="100">C215</f>
         <v>20000</v>
       </c>
@@ -16394,8 +16408,8 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A216" s="165"/>
-      <c r="B216" s="166"/>
+      <c r="A216" s="145"/>
+      <c r="B216" s="147"/>
       <c r="C216" s="126">
         <f t="shared" si="95"/>
         <v>21200.000000000004</v>
@@ -16406,8 +16420,8 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A217" s="165"/>
-      <c r="B217" s="166"/>
+      <c r="A217" s="145"/>
+      <c r="B217" s="147"/>
       <c r="C217" s="126">
         <f t="shared" si="95"/>
         <v>22400.000000000004</v>
@@ -16418,8 +16432,8 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A218" s="168"/>
-      <c r="B218" s="167"/>
+      <c r="A218" s="146"/>
+      <c r="B218" s="148"/>
       <c r="C218" s="109">
         <f t="shared" si="95"/>
         <v>23599.999999999996</v>
@@ -16430,11 +16444,11 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A219" s="164">
+      <c r="A219" s="140">
         <f t="shared" ref="A219" si="101">B219</f>
         <v>25000</v>
       </c>
-      <c r="B219" s="166">
+      <c r="B219" s="147">
         <f t="shared" ref="B219" si="102">C219</f>
         <v>25000</v>
       </c>
@@ -16448,8 +16462,8 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A220" s="165"/>
-      <c r="B220" s="166"/>
+      <c r="A220" s="145"/>
+      <c r="B220" s="147"/>
       <c r="C220" s="126">
         <f t="shared" si="95"/>
         <v>26500</v>
@@ -16460,8 +16474,8 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A221" s="165"/>
-      <c r="B221" s="166"/>
+      <c r="A221" s="145"/>
+      <c r="B221" s="147"/>
       <c r="C221" s="126">
         <f t="shared" si="95"/>
         <v>28000</v>
@@ -16472,8 +16486,8 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A222" s="165"/>
-      <c r="B222" s="166"/>
+      <c r="A222" s="145"/>
+      <c r="B222" s="147"/>
       <c r="C222" s="126">
         <f t="shared" si="95"/>
         <v>30000</v>
@@ -16484,8 +16498,8 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A223" s="165"/>
-      <c r="B223" s="166">
+      <c r="A223" s="145"/>
+      <c r="B223" s="147">
         <f t="shared" ref="B223" si="103">C223</f>
         <v>31500</v>
       </c>
@@ -16499,8 +16513,8 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A224" s="165"/>
-      <c r="B224" s="166"/>
+      <c r="A224" s="145"/>
+      <c r="B224" s="147"/>
       <c r="C224" s="126">
         <f t="shared" si="95"/>
         <v>33500</v>
@@ -16511,8 +16525,8 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A225" s="165"/>
-      <c r="B225" s="166"/>
+      <c r="A225" s="145"/>
+      <c r="B225" s="147"/>
       <c r="C225" s="126">
         <f t="shared" si="95"/>
         <v>35500</v>
@@ -16523,8 +16537,8 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A226" s="168"/>
-      <c r="B226" s="167"/>
+      <c r="A226" s="146"/>
+      <c r="B226" s="148"/>
       <c r="C226" s="109">
         <f t="shared" si="95"/>
         <v>37500</v>
@@ -16535,11 +16549,11 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A227" s="164">
+      <c r="A227" s="140">
         <f t="shared" ref="A227" si="104">B227</f>
         <v>40000</v>
       </c>
-      <c r="B227" s="166">
+      <c r="B227" s="147">
         <f t="shared" ref="B227" si="105">C227</f>
         <v>40000</v>
       </c>
@@ -16553,8 +16567,8 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A228" s="165"/>
-      <c r="B228" s="166"/>
+      <c r="A228" s="145"/>
+      <c r="B228" s="147"/>
       <c r="C228" s="126">
         <f t="shared" si="95"/>
         <v>42500</v>
@@ -16565,8 +16579,8 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A229" s="165"/>
-      <c r="B229" s="166"/>
+      <c r="A229" s="145"/>
+      <c r="B229" s="147"/>
       <c r="C229" s="126">
         <f t="shared" si="95"/>
         <v>45000</v>
@@ -16577,8 +16591,8 @@
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A230" s="165"/>
-      <c r="B230" s="166"/>
+      <c r="A230" s="145"/>
+      <c r="B230" s="147"/>
       <c r="C230" s="126">
         <f t="shared" si="95"/>
         <v>47500</v>
@@ -16589,8 +16603,8 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A231" s="165"/>
-      <c r="B231" s="166">
+      <c r="A231" s="145"/>
+      <c r="B231" s="147">
         <f t="shared" ref="B231" si="106">C231</f>
         <v>50000</v>
       </c>
@@ -16604,8 +16618,8 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A232" s="165"/>
-      <c r="B232" s="166"/>
+      <c r="A232" s="145"/>
+      <c r="B232" s="147"/>
       <c r="C232" s="126">
         <f t="shared" si="95"/>
         <v>53000</v>
@@ -16616,8 +16630,8 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A233" s="165"/>
-      <c r="B233" s="166"/>
+      <c r="A233" s="145"/>
+      <c r="B233" s="147"/>
       <c r="C233" s="126">
         <f t="shared" si="95"/>
         <v>56000</v>
@@ -16628,8 +16642,8 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A234" s="168"/>
-      <c r="B234" s="167"/>
+      <c r="A234" s="146"/>
+      <c r="B234" s="148"/>
       <c r="C234" s="109">
         <f t="shared" si="95"/>
         <v>60000</v>
@@ -16640,11 +16654,11 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A235" s="164">
+      <c r="A235" s="140">
         <f t="shared" ref="A235" si="107">B235</f>
         <v>63000</v>
       </c>
-      <c r="B235" s="166">
+      <c r="B235" s="147">
         <f t="shared" ref="B235" si="108">C235</f>
         <v>63000</v>
       </c>
@@ -16658,8 +16672,8 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A236" s="165"/>
-      <c r="B236" s="166"/>
+      <c r="A236" s="145"/>
+      <c r="B236" s="147"/>
       <c r="C236" s="126">
         <f t="shared" si="95"/>
         <v>67000</v>
@@ -16670,8 +16684,8 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A237" s="165"/>
-      <c r="B237" s="166"/>
+      <c r="A237" s="145"/>
+      <c r="B237" s="147"/>
       <c r="C237" s="126">
         <f t="shared" si="95"/>
         <v>71000</v>
@@ -16682,8 +16696,8 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A238" s="165"/>
-      <c r="B238" s="166"/>
+      <c r="A238" s="145"/>
+      <c r="B238" s="147"/>
       <c r="C238" s="126">
         <f t="shared" si="95"/>
         <v>75000</v>
@@ -16694,8 +16708,8 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A239" s="165"/>
-      <c r="B239" s="166">
+      <c r="A239" s="145"/>
+      <c r="B239" s="147">
         <f t="shared" ref="B239" si="109">C239</f>
         <v>80000</v>
       </c>
@@ -16709,8 +16723,8 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A240" s="165"/>
-      <c r="B240" s="166"/>
+      <c r="A240" s="145"/>
+      <c r="B240" s="147"/>
       <c r="C240" s="126">
         <f t="shared" si="95"/>
         <v>85000</v>
@@ -16721,8 +16735,8 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A241" s="165"/>
-      <c r="B241" s="166"/>
+      <c r="A241" s="145"/>
+      <c r="B241" s="147"/>
       <c r="C241" s="126">
         <f t="shared" si="95"/>
         <v>90000</v>
@@ -16733,8 +16747,8 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A242" s="168"/>
-      <c r="B242" s="167"/>
+      <c r="A242" s="146"/>
+      <c r="B242" s="148"/>
       <c r="C242" s="109">
         <f t="shared" si="95"/>
         <v>95000</v>
@@ -16745,11 +16759,11 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A243" s="164">
+      <c r="A243" s="140">
         <f t="shared" ref="A243" si="110">B243</f>
         <v>100000</v>
       </c>
-      <c r="B243" s="166">
+      <c r="B243" s="147">
         <f t="shared" ref="B243" si="111">C243</f>
         <v>100000</v>
       </c>
@@ -16763,8 +16777,8 @@
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A244" s="165"/>
-      <c r="B244" s="166"/>
+      <c r="A244" s="145"/>
+      <c r="B244" s="147"/>
       <c r="C244" s="126">
         <f t="shared" si="95"/>
         <v>106000.00000000001</v>
@@ -16775,8 +16789,8 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A245" s="165"/>
-      <c r="B245" s="166"/>
+      <c r="A245" s="145"/>
+      <c r="B245" s="147"/>
       <c r="C245" s="126">
         <f t="shared" si="95"/>
         <v>112000.00000000001</v>
@@ -16787,8 +16801,8 @@
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A246" s="165"/>
-      <c r="B246" s="166"/>
+      <c r="A246" s="145"/>
+      <c r="B246" s="147"/>
       <c r="C246" s="126">
         <f t="shared" si="95"/>
         <v>117999.99999999999</v>
@@ -16799,8 +16813,8 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A247" s="165"/>
-      <c r="B247" s="166">
+      <c r="A247" s="145"/>
+      <c r="B247" s="147">
         <f t="shared" ref="B247" si="112">C247</f>
         <v>125000</v>
       </c>
@@ -16814,8 +16828,8 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A248" s="165"/>
-      <c r="B248" s="166"/>
+      <c r="A248" s="145"/>
+      <c r="B248" s="147"/>
       <c r="C248" s="126">
         <f t="shared" si="95"/>
         <v>132000</v>
@@ -16826,8 +16840,8 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A249" s="165"/>
-      <c r="B249" s="166"/>
+      <c r="A249" s="145"/>
+      <c r="B249" s="147"/>
       <c r="C249" s="126">
         <f t="shared" si="95"/>
         <v>140000</v>
@@ -16838,8 +16852,8 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A250" s="168"/>
-      <c r="B250" s="167"/>
+      <c r="A250" s="146"/>
+      <c r="B250" s="148"/>
       <c r="C250" s="109">
         <f t="shared" si="95"/>
         <v>150000</v>
@@ -16850,11 +16864,11 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A251" s="164">
+      <c r="A251" s="140">
         <f t="shared" ref="A251" si="113">B251</f>
         <v>160000</v>
       </c>
-      <c r="B251" s="166">
+      <c r="B251" s="147">
         <f t="shared" ref="B251" si="114">C251</f>
         <v>160000</v>
       </c>
@@ -16868,8 +16882,8 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A252" s="165"/>
-      <c r="B252" s="166"/>
+      <c r="A252" s="145"/>
+      <c r="B252" s="147"/>
       <c r="C252" s="126">
         <f t="shared" si="95"/>
         <v>170000</v>
@@ -16880,8 +16894,8 @@
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A253" s="165"/>
-      <c r="B253" s="166"/>
+      <c r="A253" s="145"/>
+      <c r="B253" s="147"/>
       <c r="C253" s="126">
         <f t="shared" si="95"/>
         <v>180000</v>
@@ -16892,8 +16906,8 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A254" s="165"/>
-      <c r="B254" s="166"/>
+      <c r="A254" s="145"/>
+      <c r="B254" s="147"/>
       <c r="C254" s="126">
         <f t="shared" si="95"/>
         <v>190000</v>
@@ -16904,8 +16918,8 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A255" s="165"/>
-      <c r="B255" s="166">
+      <c r="A255" s="145"/>
+      <c r="B255" s="147">
         <f t="shared" ref="B255" si="115">C255</f>
         <v>200000</v>
       </c>
@@ -16919,8 +16933,8 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A256" s="165"/>
-      <c r="B256" s="166"/>
+      <c r="A256" s="145"/>
+      <c r="B256" s="147"/>
       <c r="C256" s="126">
         <f t="shared" si="95"/>
         <v>212000.00000000003</v>
@@ -16931,8 +16945,8 @@
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A257" s="165"/>
-      <c r="B257" s="166"/>
+      <c r="A257" s="145"/>
+      <c r="B257" s="147"/>
       <c r="C257" s="126">
         <f t="shared" si="95"/>
         <v>224000.00000000003</v>
@@ -16943,8 +16957,8 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A258" s="168"/>
-      <c r="B258" s="167"/>
+      <c r="A258" s="146"/>
+      <c r="B258" s="148"/>
       <c r="C258" s="109">
         <f t="shared" si="95"/>
         <v>235999.99999999997</v>
@@ -16955,11 +16969,11 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A259" s="164">
+      <c r="A259" s="140">
         <f t="shared" ref="A259" si="116">B259</f>
         <v>250000</v>
       </c>
-      <c r="B259" s="166">
+      <c r="B259" s="147">
         <f t="shared" ref="B259" si="117">C259</f>
         <v>250000</v>
       </c>
@@ -16973,8 +16987,8 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A260" s="165"/>
-      <c r="B260" s="166"/>
+      <c r="A260" s="145"/>
+      <c r="B260" s="147"/>
       <c r="C260" s="126">
         <f t="shared" si="95"/>
         <v>265000</v>
@@ -16985,8 +16999,8 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A261" s="165"/>
-      <c r="B261" s="166"/>
+      <c r="A261" s="145"/>
+      <c r="B261" s="147"/>
       <c r="C261" s="126">
         <f t="shared" si="95"/>
         <v>280000</v>
@@ -16997,8 +17011,8 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A262" s="165"/>
-      <c r="B262" s="166"/>
+      <c r="A262" s="145"/>
+      <c r="B262" s="147"/>
       <c r="C262" s="126">
         <f t="shared" si="95"/>
         <v>300000</v>
@@ -17009,8 +17023,8 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A263" s="165"/>
-      <c r="B263" s="166">
+      <c r="A263" s="145"/>
+      <c r="B263" s="147">
         <f t="shared" ref="B263" si="118">C263</f>
         <v>315000</v>
       </c>
@@ -17024,8 +17038,8 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A264" s="165"/>
-      <c r="B264" s="166"/>
+      <c r="A264" s="145"/>
+      <c r="B264" s="147"/>
       <c r="C264" s="126">
         <f t="shared" si="95"/>
         <v>335000</v>
@@ -17036,8 +17050,8 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A265" s="165"/>
-      <c r="B265" s="166"/>
+      <c r="A265" s="145"/>
+      <c r="B265" s="147"/>
       <c r="C265" s="126">
         <f t="shared" si="95"/>
         <v>355000</v>
@@ -17048,8 +17062,8 @@
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A266" s="168"/>
-      <c r="B266" s="167"/>
+      <c r="A266" s="146"/>
+      <c r="B266" s="148"/>
       <c r="C266" s="109">
         <f t="shared" si="95"/>
         <v>375000</v>
@@ -17060,11 +17074,11 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A267" s="164">
+      <c r="A267" s="140">
         <f t="shared" ref="A267" si="119">B267</f>
         <v>400000</v>
       </c>
-      <c r="B267" s="166">
+      <c r="B267" s="147">
         <f t="shared" ref="B267" si="120">C267</f>
         <v>400000</v>
       </c>
@@ -17078,8 +17092,8 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A268" s="165"/>
-      <c r="B268" s="166"/>
+      <c r="A268" s="145"/>
+      <c r="B268" s="147"/>
       <c r="C268" s="126">
         <f t="shared" si="121"/>
         <v>425000</v>
@@ -17090,8 +17104,8 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A269" s="165"/>
-      <c r="B269" s="166"/>
+      <c r="A269" s="145"/>
+      <c r="B269" s="147"/>
       <c r="C269" s="126">
         <f t="shared" si="121"/>
         <v>450000</v>
@@ -17102,8 +17116,8 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A270" s="165"/>
-      <c r="B270" s="166"/>
+      <c r="A270" s="145"/>
+      <c r="B270" s="147"/>
       <c r="C270" s="126">
         <f t="shared" si="121"/>
         <v>475000</v>
@@ -17114,8 +17128,8 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A271" s="165"/>
-      <c r="B271" s="166">
+      <c r="A271" s="145"/>
+      <c r="B271" s="147">
         <f t="shared" ref="B271" si="122">C271</f>
         <v>500000</v>
       </c>
@@ -17129,8 +17143,8 @@
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A272" s="165"/>
-      <c r="B272" s="166"/>
+      <c r="A272" s="145"/>
+      <c r="B272" s="147"/>
       <c r="C272" s="126">
         <f t="shared" si="121"/>
         <v>530000</v>
@@ -17141,8 +17155,8 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A273" s="165"/>
-      <c r="B273" s="166"/>
+      <c r="A273" s="145"/>
+      <c r="B273" s="147"/>
       <c r="C273" s="126">
         <f t="shared" si="121"/>
         <v>560000</v>
@@ -17153,8 +17167,8 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A274" s="168"/>
-      <c r="B274" s="167"/>
+      <c r="A274" s="146"/>
+      <c r="B274" s="148"/>
       <c r="C274" s="109">
         <f t="shared" si="121"/>
         <v>600000</v>
@@ -17165,11 +17179,11 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A275" s="164">
+      <c r="A275" s="140">
         <f t="shared" ref="A275" si="123">B275</f>
         <v>630000</v>
       </c>
-      <c r="B275" s="166">
+      <c r="B275" s="147">
         <f t="shared" ref="B275" si="124">C275</f>
         <v>630000</v>
       </c>
@@ -17183,8 +17197,8 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A276" s="165"/>
-      <c r="B276" s="166"/>
+      <c r="A276" s="145"/>
+      <c r="B276" s="147"/>
       <c r="C276" s="126">
         <f t="shared" si="121"/>
         <v>670000</v>
@@ -17195,8 +17209,8 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A277" s="165"/>
-      <c r="B277" s="166"/>
+      <c r="A277" s="145"/>
+      <c r="B277" s="147"/>
       <c r="C277" s="126">
         <f t="shared" si="121"/>
         <v>710000</v>
@@ -17207,8 +17221,8 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A278" s="165"/>
-      <c r="B278" s="166"/>
+      <c r="A278" s="145"/>
+      <c r="B278" s="147"/>
       <c r="C278" s="126">
         <f t="shared" si="121"/>
         <v>750000</v>
@@ -17219,8 +17233,8 @@
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A279" s="165"/>
-      <c r="B279" s="166">
+      <c r="A279" s="145"/>
+      <c r="B279" s="147">
         <f t="shared" ref="B279" si="126">C279</f>
         <v>800000</v>
       </c>
@@ -17234,8 +17248,8 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A280" s="165"/>
-      <c r="B280" s="166"/>
+      <c r="A280" s="145"/>
+      <c r="B280" s="147"/>
       <c r="C280" s="126">
         <f t="shared" si="121"/>
         <v>850000</v>
@@ -17246,8 +17260,8 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A281" s="165"/>
-      <c r="B281" s="166"/>
+      <c r="A281" s="145"/>
+      <c r="B281" s="147"/>
       <c r="C281" s="126">
         <f t="shared" si="121"/>
         <v>900000</v>
@@ -17258,8 +17272,8 @@
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A282" s="168"/>
-      <c r="B282" s="167"/>
+      <c r="A282" s="146"/>
+      <c r="B282" s="148"/>
       <c r="C282" s="109">
         <f t="shared" si="121"/>
         <v>950000</v>
@@ -17270,11 +17284,11 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A283" s="164">
+      <c r="A283" s="140">
         <f t="shared" ref="A283" si="127">B283</f>
         <v>1000000</v>
       </c>
-      <c r="B283" s="166">
+      <c r="B283" s="147">
         <f t="shared" ref="B283" si="128">C283</f>
         <v>1000000</v>
       </c>
@@ -17288,8 +17302,8 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A284" s="165"/>
-      <c r="B284" s="166"/>
+      <c r="A284" s="145"/>
+      <c r="B284" s="147"/>
       <c r="C284" s="126">
         <f t="shared" si="121"/>
         <v>1060000.0000000002</v>
@@ -17300,8 +17314,8 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A285" s="165"/>
-      <c r="B285" s="166"/>
+      <c r="A285" s="145"/>
+      <c r="B285" s="147"/>
       <c r="C285" s="126">
         <f t="shared" si="121"/>
         <v>1120000.0000000002</v>
@@ -17312,8 +17326,8 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A286" s="165"/>
-      <c r="B286" s="166"/>
+      <c r="A286" s="145"/>
+      <c r="B286" s="147"/>
       <c r="C286" s="126">
         <f t="shared" si="121"/>
         <v>1179999.9999999998</v>
@@ -17324,8 +17338,8 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A287" s="165"/>
-      <c r="B287" s="166">
+      <c r="A287" s="145"/>
+      <c r="B287" s="147">
         <f t="shared" ref="B287" si="129">C287</f>
         <v>1250000</v>
       </c>
@@ -17339,8 +17353,8 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A288" s="165"/>
-      <c r="B288" s="166"/>
+      <c r="A288" s="145"/>
+      <c r="B288" s="147"/>
       <c r="C288" s="126">
         <f t="shared" si="121"/>
         <v>1320000</v>
@@ -17351,8 +17365,8 @@
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A289" s="165"/>
-      <c r="B289" s="166"/>
+      <c r="A289" s="145"/>
+      <c r="B289" s="147"/>
       <c r="C289" s="126">
         <f t="shared" si="121"/>
         <v>1400000</v>
@@ -17363,8 +17377,8 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A290" s="168"/>
-      <c r="B290" s="167"/>
+      <c r="A290" s="146"/>
+      <c r="B290" s="148"/>
       <c r="C290" s="109">
         <f t="shared" si="121"/>
         <v>1500000</v>
@@ -17375,11 +17389,11 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A291" s="164">
+      <c r="A291" s="140">
         <f t="shared" ref="A291" si="130">B291</f>
         <v>1600000</v>
       </c>
-      <c r="B291" s="166">
+      <c r="B291" s="147">
         <f t="shared" ref="B291" si="131">C291</f>
         <v>1600000</v>
       </c>
@@ -17393,8 +17407,8 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A292" s="165"/>
-      <c r="B292" s="166"/>
+      <c r="A292" s="145"/>
+      <c r="B292" s="147"/>
       <c r="C292" s="126">
         <f t="shared" si="132"/>
         <v>1700000</v>
@@ -17405,8 +17419,8 @@
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A293" s="165"/>
-      <c r="B293" s="166"/>
+      <c r="A293" s="145"/>
+      <c r="B293" s="147"/>
       <c r="C293" s="126">
         <f t="shared" si="132"/>
         <v>1800000</v>
@@ -17417,8 +17431,8 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A294" s="165"/>
-      <c r="B294" s="166"/>
+      <c r="A294" s="145"/>
+      <c r="B294" s="147"/>
       <c r="C294" s="126">
         <f t="shared" si="132"/>
         <v>1900000</v>
@@ -17429,8 +17443,8 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A295" s="165"/>
-      <c r="B295" s="166">
+      <c r="A295" s="145"/>
+      <c r="B295" s="147">
         <f t="shared" ref="B295" si="133">C295</f>
         <v>2000000</v>
       </c>
@@ -17444,8 +17458,8 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A296" s="165"/>
-      <c r="B296" s="166"/>
+      <c r="A296" s="145"/>
+      <c r="B296" s="147"/>
       <c r="C296" s="126">
         <f t="shared" si="132"/>
         <v>2120000.0000000005</v>
@@ -17456,8 +17470,8 @@
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A297" s="165"/>
-      <c r="B297" s="166"/>
+      <c r="A297" s="145"/>
+      <c r="B297" s="147"/>
       <c r="C297" s="126">
         <f t="shared" si="132"/>
         <v>2240000.0000000005</v>
@@ -17468,8 +17482,8 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A298" s="168"/>
-      <c r="B298" s="167"/>
+      <c r="A298" s="146"/>
+      <c r="B298" s="148"/>
       <c r="C298" s="109">
         <f t="shared" si="132"/>
         <v>2359999.9999999995</v>
@@ -17480,11 +17494,11 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A299" s="164">
+      <c r="A299" s="140">
         <f t="shared" ref="A299" si="134">B299</f>
         <v>2500000</v>
       </c>
-      <c r="B299" s="166">
+      <c r="B299" s="147">
         <f t="shared" ref="B299" si="135">C299</f>
         <v>2500000</v>
       </c>
@@ -17498,8 +17512,8 @@
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A300" s="165"/>
-      <c r="B300" s="166"/>
+      <c r="A300" s="145"/>
+      <c r="B300" s="147"/>
       <c r="C300" s="126">
         <f t="shared" si="136"/>
         <v>2650000</v>
@@ -17510,8 +17524,8 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A301" s="165"/>
-      <c r="B301" s="166"/>
+      <c r="A301" s="145"/>
+      <c r="B301" s="147"/>
       <c r="C301" s="126">
         <f t="shared" si="136"/>
         <v>2800000</v>
@@ -17522,8 +17536,8 @@
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A302" s="165"/>
-      <c r="B302" s="166"/>
+      <c r="A302" s="145"/>
+      <c r="B302" s="147"/>
       <c r="C302" s="126">
         <f t="shared" si="136"/>
         <v>3000000</v>
@@ -17534,8 +17548,8 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A303" s="165"/>
-      <c r="B303" s="166">
+      <c r="A303" s="145"/>
+      <c r="B303" s="147">
         <f t="shared" ref="B303" si="137">C303</f>
         <v>3150000</v>
       </c>
@@ -17549,8 +17563,8 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A304" s="165"/>
-      <c r="B304" s="166"/>
+      <c r="A304" s="145"/>
+      <c r="B304" s="147"/>
       <c r="C304" s="126">
         <f t="shared" si="136"/>
         <v>3350000</v>
@@ -17561,8 +17575,8 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A305" s="165"/>
-      <c r="B305" s="166"/>
+      <c r="A305" s="145"/>
+      <c r="B305" s="147"/>
       <c r="C305" s="126">
         <f t="shared" si="136"/>
         <v>3550000</v>
@@ -17573,8 +17587,8 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A306" s="168"/>
-      <c r="B306" s="167"/>
+      <c r="A306" s="146"/>
+      <c r="B306" s="148"/>
       <c r="C306" s="109">
         <f t="shared" si="136"/>
         <v>3750000</v>
@@ -17585,11 +17599,11 @@
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A307" s="164">
+      <c r="A307" s="140">
         <f t="shared" ref="A307" si="138">B307</f>
         <v>4000000</v>
       </c>
-      <c r="B307" s="166">
+      <c r="B307" s="147">
         <f t="shared" ref="B307" si="139">C307</f>
         <v>4000000</v>
       </c>
@@ -17603,8 +17617,8 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A308" s="165"/>
-      <c r="B308" s="166"/>
+      <c r="A308" s="145"/>
+      <c r="B308" s="147"/>
       <c r="C308" s="126">
         <f t="shared" si="140"/>
         <v>4250000</v>
@@ -17615,8 +17629,8 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A309" s="165"/>
-      <c r="B309" s="166"/>
+      <c r="A309" s="145"/>
+      <c r="B309" s="147"/>
       <c r="C309" s="126">
         <f t="shared" si="140"/>
         <v>4500000</v>
@@ -17627,8 +17641,8 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A310" s="165"/>
-      <c r="B310" s="166"/>
+      <c r="A310" s="145"/>
+      <c r="B310" s="147"/>
       <c r="C310" s="126">
         <f t="shared" si="140"/>
         <v>4750000</v>
@@ -17639,8 +17653,8 @@
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A311" s="165"/>
-      <c r="B311" s="166">
+      <c r="A311" s="145"/>
+      <c r="B311" s="147">
         <f t="shared" ref="B311" si="141">C311</f>
         <v>5000000</v>
       </c>
@@ -17654,8 +17668,8 @@
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A312" s="165"/>
-      <c r="B312" s="166"/>
+      <c r="A312" s="145"/>
+      <c r="B312" s="147"/>
       <c r="C312" s="126">
         <f t="shared" si="140"/>
         <v>5300000</v>
@@ -17666,8 +17680,8 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A313" s="165"/>
-      <c r="B313" s="166"/>
+      <c r="A313" s="145"/>
+      <c r="B313" s="147"/>
       <c r="C313" s="126">
         <f t="shared" si="140"/>
         <v>5600000</v>
@@ -17678,8 +17692,8 @@
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A314" s="168"/>
-      <c r="B314" s="167"/>
+      <c r="A314" s="146"/>
+      <c r="B314" s="148"/>
       <c r="C314" s="109">
         <f t="shared" si="140"/>
         <v>6000000</v>
@@ -17690,11 +17704,11 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A315" s="164">
+      <c r="A315" s="140">
         <f t="shared" ref="A315" si="142">B315</f>
         <v>6300000</v>
       </c>
-      <c r="B315" s="166">
+      <c r="B315" s="147">
         <f t="shared" ref="B315" si="143">C315</f>
         <v>6300000</v>
       </c>
@@ -17708,8 +17722,8 @@
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A316" s="165"/>
-      <c r="B316" s="166"/>
+      <c r="A316" s="145"/>
+      <c r="B316" s="147"/>
       <c r="C316" s="126">
         <f t="shared" si="140"/>
         <v>6700000</v>
@@ -17720,8 +17734,8 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A317" s="165"/>
-      <c r="B317" s="166"/>
+      <c r="A317" s="145"/>
+      <c r="B317" s="147"/>
       <c r="C317" s="126">
         <f t="shared" si="140"/>
         <v>7100000</v>
@@ -17732,8 +17746,8 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A318" s="165"/>
-      <c r="B318" s="166"/>
+      <c r="A318" s="145"/>
+      <c r="B318" s="147"/>
       <c r="C318" s="126">
         <f t="shared" si="140"/>
         <v>7500000</v>
@@ -17744,8 +17758,8 @@
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A319" s="165"/>
-      <c r="B319" s="166">
+      <c r="A319" s="145"/>
+      <c r="B319" s="147">
         <f t="shared" ref="B319" si="144">C319</f>
         <v>8000000</v>
       </c>
@@ -17759,8 +17773,8 @@
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A320" s="165"/>
-      <c r="B320" s="166"/>
+      <c r="A320" s="145"/>
+      <c r="B320" s="147"/>
       <c r="C320" s="126">
         <f t="shared" si="140"/>
         <v>8500000</v>
@@ -17771,8 +17785,8 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A321" s="165"/>
-      <c r="B321" s="166"/>
+      <c r="A321" s="145"/>
+      <c r="B321" s="147"/>
       <c r="C321" s="126">
         <f t="shared" si="140"/>
         <v>9000000</v>
@@ -17783,8 +17797,8 @@
       </c>
     </row>
     <row r="322" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A322" s="186"/>
-      <c r="B322" s="187"/>
+      <c r="A322" s="149"/>
+      <c r="B322" s="150"/>
       <c r="C322" s="110">
         <f t="shared" si="140"/>
         <v>9500000</v>
@@ -17796,6 +17810,215 @@
     </row>
   </sheetData>
   <mergeCells count="233">
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="S1:S4"/>
+    <mergeCell ref="T1:T4"/>
+    <mergeCell ref="V1:V4"/>
+    <mergeCell ref="W1:W4"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="U1:U4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="A123:A130"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="A131:A138"/>
+    <mergeCell ref="A139:A146"/>
+    <mergeCell ref="A147:A154"/>
+    <mergeCell ref="A155:A162"/>
+    <mergeCell ref="A163:A170"/>
+    <mergeCell ref="A171:A178"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="A91:A98"/>
+    <mergeCell ref="A99:A106"/>
+    <mergeCell ref="A107:A114"/>
+    <mergeCell ref="A115:A122"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="A75:A82"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A179:A186"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="B183:B186"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A187:A194"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="B191:B194"/>
+    <mergeCell ref="A195:A202"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="B199:B202"/>
+    <mergeCell ref="A203:A210"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="B207:B210"/>
+    <mergeCell ref="A211:A218"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="B215:B218"/>
+    <mergeCell ref="A219:A226"/>
+    <mergeCell ref="B219:B222"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="A227:A234"/>
+    <mergeCell ref="B227:B230"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="A235:A242"/>
+    <mergeCell ref="B235:B238"/>
+    <mergeCell ref="B239:B242"/>
+    <mergeCell ref="A243:A250"/>
+    <mergeCell ref="B243:B246"/>
+    <mergeCell ref="A315:A322"/>
+    <mergeCell ref="B315:B318"/>
+    <mergeCell ref="B319:B322"/>
+    <mergeCell ref="A283:A290"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="B287:B290"/>
+    <mergeCell ref="A291:A298"/>
+    <mergeCell ref="B291:B294"/>
+    <mergeCell ref="B295:B298"/>
+    <mergeCell ref="A299:A306"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="B303:B306"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="A251:A258"/>
+    <mergeCell ref="B251:B254"/>
+    <mergeCell ref="B255:B258"/>
+    <mergeCell ref="A307:A314"/>
+    <mergeCell ref="B307:B310"/>
+    <mergeCell ref="B311:B314"/>
+    <mergeCell ref="A259:A266"/>
+    <mergeCell ref="B259:B262"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="A267:A274"/>
+    <mergeCell ref="B267:B270"/>
+    <mergeCell ref="B271:B274"/>
+    <mergeCell ref="A275:A282"/>
+    <mergeCell ref="B275:B278"/>
+    <mergeCell ref="B279:B282"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="C35:C36"/>
@@ -17820,215 +18043,6 @@
     <mergeCell ref="A19:A26"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A259:A266"/>
-    <mergeCell ref="B259:B262"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="A267:A274"/>
-    <mergeCell ref="B267:B270"/>
-    <mergeCell ref="B271:B274"/>
-    <mergeCell ref="A275:A282"/>
-    <mergeCell ref="B275:B278"/>
-    <mergeCell ref="B279:B282"/>
-    <mergeCell ref="A235:A242"/>
-    <mergeCell ref="B235:B238"/>
-    <mergeCell ref="B239:B242"/>
-    <mergeCell ref="A243:A250"/>
-    <mergeCell ref="B243:B246"/>
-    <mergeCell ref="A315:A322"/>
-    <mergeCell ref="B315:B318"/>
-    <mergeCell ref="B319:B322"/>
-    <mergeCell ref="A283:A290"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="B287:B290"/>
-    <mergeCell ref="A291:A298"/>
-    <mergeCell ref="B291:B294"/>
-    <mergeCell ref="B295:B298"/>
-    <mergeCell ref="A299:A306"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="B303:B306"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="A251:A258"/>
-    <mergeCell ref="B251:B254"/>
-    <mergeCell ref="B255:B258"/>
-    <mergeCell ref="A307:A314"/>
-    <mergeCell ref="B307:B310"/>
-    <mergeCell ref="B311:B314"/>
-    <mergeCell ref="A211:A218"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="B215:B218"/>
-    <mergeCell ref="A219:A226"/>
-    <mergeCell ref="B219:B222"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="A227:A234"/>
-    <mergeCell ref="B227:B230"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="A187:A194"/>
-    <mergeCell ref="B187:B190"/>
-    <mergeCell ref="B191:B194"/>
-    <mergeCell ref="A195:A202"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="B199:B202"/>
-    <mergeCell ref="A203:A210"/>
-    <mergeCell ref="B203:B206"/>
-    <mergeCell ref="B207:B210"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A179:A186"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="B183:B186"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="A75:A82"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="A91:A98"/>
-    <mergeCell ref="A99:A106"/>
-    <mergeCell ref="A107:A114"/>
-    <mergeCell ref="A115:A122"/>
-    <mergeCell ref="A123:A130"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B135:B138"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="A131:A138"/>
-    <mergeCell ref="A139:A146"/>
-    <mergeCell ref="A147:A154"/>
-    <mergeCell ref="A155:A162"/>
-    <mergeCell ref="A163:A170"/>
-    <mergeCell ref="A171:A178"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="P1:P4"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="S1:S4"/>
-    <mergeCell ref="T1:T4"/>
-    <mergeCell ref="V1:V4"/>
-    <mergeCell ref="W1:W4"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="U1:U4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18547,13 +18561,13 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="167" t="s">
         <v>735</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="175" t="s">
         <v>736</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="169" t="s">
         <v>737</v>
       </c>
       <c r="E2" s="68" t="s">
@@ -18598,11 +18612,11 @@
       <c r="R2" s="71" t="s">
         <v>743</v>
       </c>
-      <c r="T2" s="195" t="s">
+      <c r="T2" s="213" t="s">
         <v>208</v>
       </c>
-      <c r="U2" s="196"/>
-      <c r="V2" s="197"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="215"/>
       <c r="W2" s="79">
         <v>0.6</v>
       </c>
@@ -18653,9 +18667,9 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="154"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="191"/>
+      <c r="A3" s="173"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="195"/>
       <c r="E3" s="66">
         <v>6</v>
       </c>
@@ -18699,11 +18713,11 @@
         <f>ROUND(Q3*9.80665,3)</f>
         <v>0.19600000000000001</v>
       </c>
-      <c r="T3" s="195" t="s">
+      <c r="T3" s="213" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="196"/>
-      <c r="V3" s="197"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="215"/>
       <c r="W3" s="79">
         <v>0.5</v>
       </c>
@@ -18806,11 +18820,11 @@
         <f t="shared" ref="R4:R28" si="0">ROUND(Q4*9.80665,3)</f>
         <v>0.39200000000000002</v>
       </c>
-      <c r="T4" s="195" t="s">
+      <c r="T4" s="213" t="s">
         <v>511</v>
       </c>
-      <c r="U4" s="196"/>
-      <c r="V4" s="197"/>
+      <c r="U4" s="214"/>
+      <c r="V4" s="215"/>
       <c r="W4" s="79">
         <v>1</v>
       </c>
@@ -18913,11 +18927,11 @@
         <f t="shared" si="0"/>
         <v>0.58799999999999997</v>
       </c>
-      <c r="T5" s="195" t="s">
+      <c r="T5" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="196"/>
-      <c r="V5" s="197"/>
+      <c r="U5" s="214"/>
+      <c r="V5" s="215"/>
       <c r="W5" s="79">
         <v>2</v>
       </c>
@@ -19020,11 +19034,11 @@
         <f t="shared" si="0"/>
         <v>0.68600000000000005</v>
       </c>
-      <c r="T6" s="195" t="s">
+      <c r="T6" s="213" t="s">
         <v>205</v>
       </c>
-      <c r="U6" s="196"/>
-      <c r="V6" s="197"/>
+      <c r="U6" s="214"/>
+      <c r="V6" s="215"/>
       <c r="W6" s="79">
         <v>1.6</v>
       </c>
@@ -19127,10 +19141,10 @@
         <f t="shared" si="0"/>
         <v>0.78500000000000003</v>
       </c>
-      <c r="T7" s="192" t="s">
+      <c r="T7" s="216" t="s">
         <v>744</v>
       </c>
-      <c r="U7" s="155" t="s">
+      <c r="U7" s="168" t="s">
         <v>745</v>
       </c>
       <c r="V7" s="118" t="s">
@@ -19253,8 +19267,8 @@
         <f t="shared" si="0"/>
         <v>0.88300000000000001</v>
       </c>
-      <c r="T8" s="193"/>
-      <c r="U8" s="157"/>
+      <c r="T8" s="217"/>
+      <c r="U8" s="174"/>
       <c r="V8" s="128" t="s">
         <v>747</v>
       </c>
@@ -19360,8 +19374,8 @@
         <f t="shared" si="0"/>
         <v>1.4710000000000001</v>
       </c>
-      <c r="T9" s="193"/>
-      <c r="U9" s="198" t="s">
+      <c r="T9" s="217"/>
+      <c r="U9" s="219" t="s">
         <v>748</v>
       </c>
       <c r="V9" s="132" t="str">
@@ -19485,8 +19499,8 @@
         <f t="shared" si="0"/>
         <v>1.7649999999999999</v>
       </c>
-      <c r="T10" s="194"/>
-      <c r="U10" s="199"/>
+      <c r="T10" s="218"/>
+      <c r="U10" s="220"/>
       <c r="V10" s="78" t="str">
         <f>V8</f>
         <v>以下</v>
@@ -19593,11 +19607,11 @@
         <f t="shared" si="0"/>
         <v>2.9420000000000002</v>
       </c>
-      <c r="T11" s="195" t="s">
+      <c r="T11" s="213" t="s">
         <v>749</v>
       </c>
-      <c r="U11" s="196"/>
-      <c r="V11" s="197"/>
+      <c r="U11" s="214"/>
+      <c r="V11" s="215"/>
       <c r="W11" s="79">
         <v>0.6</v>
       </c>
@@ -19814,10 +19828,10 @@
         <f t="shared" si="0"/>
         <v>8.4339999999999993</v>
       </c>
-      <c r="T14" s="141" t="s">
+      <c r="T14" s="167" t="s">
         <v>750</v>
       </c>
-      <c r="U14" s="142"/>
+      <c r="U14" s="169"/>
       <c r="V14" s="84">
         <v>250</v>
       </c>
@@ -19836,12 +19850,12 @@
       <c r="AA14" s="83">
         <v>500</v>
       </c>
-      <c r="AC14" s="210"/>
-      <c r="AD14" s="211"/>
-      <c r="AE14" s="207" t="s">
+      <c r="AC14" s="196"/>
+      <c r="AD14" s="197"/>
+      <c r="AE14" s="203" t="s">
         <v>751</v>
       </c>
-      <c r="AF14" s="155"/>
+      <c r="AF14" s="168"/>
       <c r="AG14" s="118" t="s">
         <v>398</v>
       </c>
@@ -19899,10 +19913,10 @@
         <f t="shared" si="0"/>
         <v>9.8070000000000004</v>
       </c>
-      <c r="T15" s="139" t="s">
+      <c r="T15" s="172" t="s">
         <v>752</v>
       </c>
-      <c r="U15" s="140"/>
+      <c r="U15" s="171"/>
       <c r="V15" s="85">
         <v>50</v>
       </c>
@@ -19921,8 +19935,8 @@
       <c r="AA15" s="50">
         <v>120</v>
       </c>
-      <c r="AC15" s="212"/>
-      <c r="AD15" s="213"/>
+      <c r="AC15" s="198"/>
+      <c r="AD15" s="199"/>
       <c r="AE15" s="92" t="s">
         <v>389</v>
       </c>
@@ -19986,10 +20000,10 @@
         <f t="shared" si="0"/>
         <v>11.67</v>
       </c>
-      <c r="T16" s="139" t="s">
+      <c r="T16" s="172" t="s">
         <v>753</v>
       </c>
-      <c r="U16" s="140"/>
+      <c r="U16" s="171"/>
       <c r="V16" s="85">
         <f>V15</f>
         <v>50</v>
@@ -20023,10 +20037,10 @@
       <c r="AE16" s="91" t="s">
         <v>754</v>
       </c>
-      <c r="AF16" s="208">
+      <c r="AF16" s="204">
         <v>12.5</v>
       </c>
-      <c r="AG16" s="209" t="s">
+      <c r="AG16" s="205" t="s">
         <v>694</v>
       </c>
     </row>
@@ -20083,10 +20097,10 @@
         <f t="shared" si="0"/>
         <v>13.141</v>
       </c>
-      <c r="T17" s="139" t="s">
+      <c r="T17" s="172" t="s">
         <v>755</v>
       </c>
-      <c r="U17" s="140"/>
+      <c r="U17" s="171"/>
       <c r="V17" s="85">
         <v>2</v>
       </c>
@@ -20114,8 +20128,8 @@
       <c r="AE17" s="85" t="s">
         <v>505</v>
       </c>
-      <c r="AF17" s="156"/>
-      <c r="AG17" s="140"/>
+      <c r="AF17" s="170"/>
+      <c r="AG17" s="171"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A18" s="51">
@@ -20170,10 +20184,10 @@
         <f t="shared" si="0"/>
         <v>15.298</v>
       </c>
-      <c r="T18" s="139" t="s">
+      <c r="T18" s="172" t="s">
         <v>757</v>
       </c>
-      <c r="U18" s="140"/>
+      <c r="U18" s="171"/>
       <c r="V18" s="85">
         <f>V16</f>
         <v>50</v>
@@ -20209,10 +20223,10 @@
         <f>AE16</f>
         <v>*1.8</v>
       </c>
-      <c r="AF18" s="156">
+      <c r="AF18" s="170">
         <v>16</v>
       </c>
-      <c r="AG18" s="140" t="s">
+      <c r="AG18" s="171" t="s">
         <v>695</v>
       </c>
     </row>
@@ -20269,10 +20283,10 @@
         <f t="shared" si="0"/>
         <v>17.161999999999999</v>
       </c>
-      <c r="T19" s="154" t="s">
+      <c r="T19" s="173" t="s">
         <v>758</v>
       </c>
-      <c r="U19" s="191"/>
+      <c r="U19" s="195"/>
       <c r="V19" s="86">
         <v>5</v>
       </c>
@@ -20302,8 +20316,8 @@
         <f>AE17</f>
         <v>*2</v>
       </c>
-      <c r="AF19" s="157"/>
-      <c r="AG19" s="191"/>
+      <c r="AF19" s="174"/>
+      <c r="AG19" s="195"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A20" s="51">
@@ -20505,14 +20519,14 @@
       <c r="AD22" s="81" t="s">
         <v>738</v>
       </c>
-      <c r="AG22" s="141" t="s">
+      <c r="AG22" s="167" t="s">
         <v>759</v>
       </c>
-      <c r="AH22" s="155"/>
-      <c r="AI22" s="155" t="s">
+      <c r="AH22" s="168"/>
+      <c r="AI22" s="168" t="s">
         <v>760</v>
       </c>
-      <c r="AJ22" s="142"/>
+      <c r="AJ22" s="169"/>
     </row>
     <row r="23" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="51">
@@ -21154,26 +21168,26 @@
       <c r="T34" s="129" t="s">
         <v>237</v>
       </c>
-      <c r="X34" s="214" t="s">
+      <c r="X34" s="200" t="s">
         <v>9</v>
       </c>
-      <c r="Y34" s="216" t="s">
+      <c r="Y34" s="194" t="s">
         <v>313</v>
       </c>
-      <c r="Z34" s="216" t="s">
+      <c r="Z34" s="194" t="s">
         <v>68</v>
       </c>
-      <c r="AA34" s="216" t="s">
+      <c r="AA34" s="194" t="s">
         <v>740</v>
       </c>
-      <c r="AB34" s="216" t="s">
+      <c r="AB34" s="194" t="s">
         <v>764</v>
       </c>
-      <c r="AC34" s="216" t="s">
+      <c r="AC34" s="194" t="s">
         <v>765</v>
       </c>
-      <c r="AD34" s="216"/>
-      <c r="AE34" s="218" t="s">
+      <c r="AD34" s="194"/>
+      <c r="AE34" s="192" t="s">
         <v>766</v>
       </c>
       <c r="AG34" s="117" t="s">
@@ -21236,18 +21250,18 @@
       <c r="T35" s="83">
         <v>0.5</v>
       </c>
-      <c r="X35" s="215"/>
-      <c r="Y35" s="217"/>
-      <c r="Z35" s="217"/>
-      <c r="AA35" s="217"/>
-      <c r="AB35" s="217"/>
+      <c r="X35" s="201"/>
+      <c r="Y35" s="202"/>
+      <c r="Z35" s="202"/>
+      <c r="AA35" s="202"/>
+      <c r="AB35" s="202"/>
       <c r="AC35" s="123" t="s">
         <v>770</v>
       </c>
       <c r="AD35" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="AE35" s="219"/>
+      <c r="AE35" s="193"/>
       <c r="AG35" s="120" t="s">
         <v>3</v>
       </c>
@@ -21735,7 +21749,7 @@
       <c r="A42" s="74">
         <v>12</v>
       </c>
-      <c r="E42" s="200" t="s">
+      <c r="E42" s="206" t="s">
         <v>776</v>
       </c>
       <c r="F42" s="51">
@@ -21816,7 +21830,7 @@
       <c r="A43" s="74">
         <v>13</v>
       </c>
-      <c r="E43" s="200"/>
+      <c r="E43" s="206"/>
       <c r="F43" s="51">
         <v>12</v>
       </c>
@@ -21894,7 +21908,7 @@
       <c r="A44" s="74">
         <v>16</v>
       </c>
-      <c r="E44" s="200"/>
+      <c r="E44" s="206"/>
       <c r="F44" s="51">
         <v>14</v>
       </c>
@@ -21972,7 +21986,7 @@
       <c r="A45" s="74">
         <v>19</v>
       </c>
-      <c r="E45" s="200"/>
+      <c r="E45" s="206"/>
       <c r="F45" s="51">
         <v>16</v>
       </c>
@@ -22050,7 +22064,7 @@
       <c r="A46" s="74">
         <v>20</v>
       </c>
-      <c r="E46" s="200"/>
+      <c r="E46" s="206"/>
       <c r="F46" s="51">
         <v>18</v>
       </c>
@@ -22128,7 +22142,7 @@
       <c r="A47" s="74">
         <v>22</v>
       </c>
-      <c r="E47" s="200"/>
+      <c r="E47" s="206"/>
       <c r="F47" s="51">
         <v>20</v>
       </c>
@@ -22206,7 +22220,7 @@
       <c r="A48" s="74">
         <v>24</v>
       </c>
-      <c r="E48" s="200"/>
+      <c r="E48" s="206"/>
       <c r="F48" s="51">
         <v>22</v>
       </c>
@@ -22284,7 +22298,7 @@
       <c r="A49" s="74">
         <v>25</v>
       </c>
-      <c r="E49" s="200"/>
+      <c r="E49" s="206"/>
       <c r="F49" s="51">
         <v>24</v>
       </c>
@@ -22362,7 +22376,7 @@
       <c r="A50" s="74">
         <v>28</v>
       </c>
-      <c r="E50" s="200"/>
+      <c r="E50" s="206"/>
       <c r="F50" s="51">
         <v>26</v>
       </c>
@@ -22440,7 +22454,7 @@
       <c r="A51" s="74">
         <v>30</v>
       </c>
-      <c r="E51" s="200"/>
+      <c r="E51" s="206"/>
       <c r="F51" s="51">
         <v>28</v>
       </c>
@@ -22472,11 +22486,11 @@
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="P51" s="201" t="s">
+      <c r="P51" s="207" t="s">
         <v>777</v>
       </c>
-      <c r="Q51" s="202"/>
-      <c r="R51" s="203"/>
+      <c r="Q51" s="208"/>
+      <c r="R51" s="209"/>
       <c r="S51" s="98">
         <v>56</v>
       </c>
@@ -22511,7 +22525,7 @@
       <c r="A52" s="74">
         <v>32</v>
       </c>
-      <c r="E52" s="200"/>
+      <c r="E52" s="206"/>
       <c r="F52" s="51">
         <v>30</v>
       </c>
@@ -22543,9 +22557,9 @@
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="P52" s="201"/>
-      <c r="Q52" s="202"/>
-      <c r="R52" s="203"/>
+      <c r="P52" s="207"/>
+      <c r="Q52" s="208"/>
+      <c r="R52" s="209"/>
       <c r="S52" s="89">
         <v>63</v>
       </c>
@@ -22580,7 +22594,7 @@
       <c r="A53" s="74">
         <v>36</v>
       </c>
-      <c r="E53" s="200"/>
+      <c r="E53" s="206"/>
       <c r="F53" s="51">
         <v>32</v>
       </c>
@@ -22612,9 +22626,9 @@
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="P53" s="201"/>
-      <c r="Q53" s="202"/>
-      <c r="R53" s="203"/>
+      <c r="P53" s="207"/>
+      <c r="Q53" s="208"/>
+      <c r="R53" s="209"/>
       <c r="S53" s="89">
         <v>70</v>
       </c>
@@ -22649,7 +22663,7 @@
       <c r="A54" s="74">
         <v>38</v>
       </c>
-      <c r="E54" s="200"/>
+      <c r="E54" s="206"/>
       <c r="F54" s="51">
         <v>34</v>
       </c>
@@ -22681,9 +22695,9 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="P54" s="204"/>
-      <c r="Q54" s="205"/>
-      <c r="R54" s="206"/>
+      <c r="P54" s="210"/>
+      <c r="Q54" s="211"/>
+      <c r="R54" s="212"/>
       <c r="S54" s="89">
         <v>80</v>
       </c>
@@ -22718,7 +22732,7 @@
       <c r="A55" s="74">
         <v>42</v>
       </c>
-      <c r="E55" s="200"/>
+      <c r="E55" s="206"/>
       <c r="F55" s="51">
         <v>36</v>
       </c>
@@ -22784,7 +22798,7 @@
       <c r="A56" s="74">
         <v>46</v>
       </c>
-      <c r="E56" s="200"/>
+      <c r="E56" s="206"/>
       <c r="F56" s="51">
         <v>38</v>
       </c>
@@ -22850,7 +22864,7 @@
       <c r="A57" s="74">
         <v>48</v>
       </c>
-      <c r="E57" s="200"/>
+      <c r="E57" s="206"/>
       <c r="F57" s="51">
         <v>40</v>
       </c>
@@ -22915,7 +22929,7 @@
       <c r="A58" s="74">
         <v>50</v>
       </c>
-      <c r="E58" s="200"/>
+      <c r="E58" s="206"/>
       <c r="F58" s="51">
         <v>42</v>
       </c>
@@ -22981,7 +22995,7 @@
       <c r="A59" s="74">
         <v>55</v>
       </c>
-      <c r="E59" s="200"/>
+      <c r="E59" s="206"/>
       <c r="F59" s="51">
         <v>45</v>
       </c>
@@ -23047,7 +23061,7 @@
       <c r="A60" s="74">
         <v>56</v>
       </c>
-      <c r="E60" s="200"/>
+      <c r="E60" s="206"/>
       <c r="F60" s="51">
         <v>48</v>
       </c>
@@ -23112,7 +23126,7 @@
       <c r="A61" s="74">
         <v>60</v>
       </c>
-      <c r="E61" s="200"/>
+      <c r="E61" s="206"/>
       <c r="F61" s="51">
         <v>50</v>
       </c>
@@ -23176,7 +23190,7 @@
       <c r="A62" s="74">
         <v>64</v>
       </c>
-      <c r="E62" s="200"/>
+      <c r="E62" s="206"/>
       <c r="F62" s="115"/>
       <c r="G62" s="8">
         <v>55</v>
@@ -23237,7 +23251,7 @@
       <c r="A63" s="74">
         <v>65</v>
       </c>
-      <c r="E63" s="200"/>
+      <c r="E63" s="206"/>
       <c r="F63" s="115"/>
       <c r="G63" s="8">
         <v>58</v>
@@ -23299,7 +23313,7 @@
       <c r="A64" s="74">
         <v>70</v>
       </c>
-      <c r="E64" s="200"/>
+      <c r="E64" s="206"/>
       <c r="F64" s="115"/>
       <c r="G64" s="8">
         <v>60</v>
@@ -23360,7 +23374,7 @@
       <c r="A65" s="74">
         <v>75</v>
       </c>
-      <c r="E65" s="200"/>
+      <c r="E65" s="206"/>
       <c r="F65" s="115"/>
       <c r="G65" s="122"/>
       <c r="H65" s="8">
@@ -23419,7 +23433,7 @@
       <c r="A66" s="74">
         <v>80</v>
       </c>
-      <c r="E66" s="200"/>
+      <c r="E66" s="206"/>
       <c r="F66" s="115"/>
       <c r="G66" s="122"/>
       <c r="H66" s="8">
@@ -23477,7 +23491,7 @@
       <c r="A67" s="74">
         <v>85</v>
       </c>
-      <c r="E67" s="200"/>
+      <c r="E67" s="206"/>
       <c r="F67" s="115"/>
       <c r="G67" s="122"/>
       <c r="H67" s="8">
@@ -23535,7 +23549,7 @@
       <c r="A68" s="74">
         <v>90</v>
       </c>
-      <c r="E68" s="200"/>
+      <c r="E68" s="206"/>
       <c r="F68" s="115"/>
       <c r="G68" s="122"/>
       <c r="H68" s="8">
@@ -23590,7 +23604,7 @@
       <c r="A69" s="74">
         <v>95</v>
       </c>
-      <c r="E69" s="200"/>
+      <c r="E69" s="206"/>
       <c r="F69" s="115"/>
       <c r="G69" s="122"/>
       <c r="H69" s="122"/>
@@ -23640,7 +23654,7 @@
       <c r="A70" s="74">
         <v>100</v>
       </c>
-      <c r="E70" s="200"/>
+      <c r="E70" s="206"/>
       <c r="F70" s="115"/>
       <c r="G70" s="122"/>
       <c r="H70" s="122"/>
@@ -23690,7 +23704,7 @@
       <c r="A71" s="74">
         <v>110</v>
       </c>
-      <c r="E71" s="200"/>
+      <c r="E71" s="206"/>
       <c r="F71" s="115"/>
       <c r="G71" s="122"/>
       <c r="H71" s="122"/>
@@ -23740,7 +23754,7 @@
       <c r="A72" s="74">
         <v>120</v>
       </c>
-      <c r="E72" s="200"/>
+      <c r="E72" s="206"/>
       <c r="F72" s="115"/>
       <c r="G72" s="122"/>
       <c r="H72" s="122"/>
@@ -23784,7 +23798,7 @@
       <c r="A73" s="74">
         <v>130</v>
       </c>
-      <c r="E73" s="200"/>
+      <c r="E73" s="206"/>
       <c r="F73" s="120"/>
       <c r="G73" s="123"/>
       <c r="H73" s="123"/>
@@ -24745,30 +24759,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="AC14:AD15"/>
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AF16:AF17"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="E42:E73"/>
-    <mergeCell ref="P51:R54"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
@@ -24780,6 +24770,30 @@
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="U9:U10"/>
+    <mergeCell ref="E42:E73"/>
+    <mergeCell ref="P51:R54"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AF16:AF17"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AC14:AD15"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24791,8 +24805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DC7699-64EF-49F1-9D5F-D04613896DE8}">
   <dimension ref="A1:BM690"/>
   <sheetViews>
-    <sheetView topLeftCell="U91" workbookViewId="0">
-      <selection activeCell="AH108" sqref="AH108"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -24980,7 +24994,7 @@
         <v>10</v>
       </c>
       <c r="AA3">
-        <f>IF(SMALL(Z5:Z11,COUNTIF(Z5:Z11,"&lt;=0"))=0,SMALL(Z5:Z11,COUNTIF(Z5:Z11,"&lt;=0")),SMALL(Z5:Z11,COUNTIF(Z5:Z11,"&lt;=0")+1))</f>
+        <f>IF(SMALL(Z5:Z11,1)&gt;0,SMALL(Z5:Z11,1),IF(SMALL(Z5:Z11,COUNTIF(Z5:Z11,"&lt;=0"))=0,SMALL(Z5:Z11,COUNTIF(Z5:Z11,"&lt;=0")),SMALL(Z5:Z11,COUNTIF(Z5:Z11,"&lt;=0")+1)))</f>
         <v>0</v>
       </c>
       <c r="AB3">
@@ -30655,7 +30669,7 @@
         <v>4.07</v>
       </c>
       <c r="O66">
-        <f>SMALL(N68:N88,COUNTIF(N68:N88,"&lt;=0")+1)</f>
+        <f>SMALL(N68:N74,COUNTIF(N68:N74,"&lt;=0")+1)</f>
         <v>0.92999999999999972</v>
       </c>
       <c r="P66">
@@ -59708,14 +59722,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="50.375" customWidth="1"/>
+    <col min="2" max="2" width="60.5" customWidth="1"/>
     <col min="3" max="3" width="8.25" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
@@ -59724,42 +59738,42 @@
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="170" t="s">
         <v>831</v>
       </c>
-      <c r="B2" s="221"/>
+      <c r="B2" s="222"/>
       <c r="C2" s="122" t="s">
         <v>832</v>
       </c>
-      <c r="E2" s="224" t="s">
+      <c r="E2" s="225" t="s">
         <v>833</v>
       </c>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="225"/>
     </row>
     <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="222"/>
-      <c r="B3" s="223"/>
+      <c r="A3" s="223"/>
+      <c r="B3" s="224"/>
       <c r="C3" s="122"/>
-      <c r="E3" s="220" t="s">
+      <c r="E3" s="221" t="s">
         <v>834</v>
       </c>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
-      <c r="L3" s="220"/>
-      <c r="M3" s="220"/>
-      <c r="N3" s="220"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="221"/>
     </row>
     <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="41" t="s">
@@ -59771,18 +59785,18 @@
       <c r="C4" s="122" t="s">
         <v>837</v>
       </c>
-      <c r="E4" s="220" t="s">
+      <c r="E4" s="221" t="s">
         <v>838</v>
       </c>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="220"/>
-      <c r="N4" s="220"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="221"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="221"/>
+      <c r="N4" s="221"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="41" t="s">
@@ -59794,18 +59808,18 @@
       <c r="C5" s="122" t="s">
         <v>841</v>
       </c>
-      <c r="E5" s="220" t="s">
+      <c r="E5" s="221" t="s">
         <v>842</v>
       </c>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="220"/>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="221"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="221"/>
     </row>
     <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="41" t="s">
@@ -59817,18 +59831,18 @@
       <c r="C6" s="18" t="s">
         <v>844</v>
       </c>
-      <c r="E6" s="220" t="s">
+      <c r="E6" s="221" t="s">
         <v>845</v>
       </c>
-      <c r="F6" s="220"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="220"/>
-      <c r="L6" s="220"/>
-      <c r="M6" s="220"/>
-      <c r="N6" s="220"/>
+      <c r="F6" s="221"/>
+      <c r="G6" s="221"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="221"/>
+      <c r="K6" s="221"/>
+      <c r="L6" s="221"/>
+      <c r="M6" s="221"/>
+      <c r="N6" s="221"/>
     </row>
     <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="41" t="s">
@@ -60433,9 +60447,15 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="41"/>
-      <c r="B61" s="133"/>
-      <c r="C61" s="122"/>
+      <c r="A61" s="41" t="s">
+        <v>992</v>
+      </c>
+      <c r="B61" s="137" t="s">
+        <v>991</v>
+      </c>
+      <c r="C61" s="122" t="s">
+        <v>993</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="41"/>
